--- a/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ8040_使用者マスタメンテナンス）.xlsx
+++ b/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ8040_使用者マスタメンテナンス）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\youkei\Documents\50.単体テスト\01_単体テスト設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF24B8B0-1C24-4826-93D7-CDDF970CCA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A17F84-F509-406F-81A0-2B4E58105B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="880" xr2:uid="{8AE4BD12-0B13-430A-A994-A2059EDE9970}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="880" activeTab="1" xr2:uid="{8AE4BD12-0B13-430A-A994-A2059EDE9970}"/>
   </bookViews>
   <sheets>
     <sheet name="実施結果報告書" sheetId="17" r:id="rId1"/>
@@ -214,7 +214,7 @@
     <definedName name="P.1">'[3]プロセス（課税明細書）'!$A$1</definedName>
     <definedName name="P.2">'[3]プロセス（課税明細書）'!$A$65</definedName>
     <definedName name="P.3">'[3]プロセス（課税明細書）'!$A$129</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">GJ8040_使用者一覧表_チェックリスト!$A$1:$I$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">GJ8040_使用者一覧表_チェックリスト!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">GJ8040_使用者一覧表_項目チェック!$A$1:$CA$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">GJ8041_使用者マスタメンテナンス_チェックリスト!$A$1:$I$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">GJ8041_使用者マスタメンテナンス_項目チェック!$A$1:$CA$36</definedName>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="158">
   <si>
     <t>新規登録</t>
     <rPh sb="0" eb="4">
@@ -1336,6 +1336,58 @@
       <t>ビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目
+(一覧データあり)</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目
+(一覧データなし)</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更(表示)</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常処理</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧にデータがない場合、現行システムと一致すること</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
   </si>
 </sst>
 </file>
@@ -2325,6 +2377,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2337,15 +2392,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2584,18 +2648,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3604,7 +3656,7 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -3620,25 +3672,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="128"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="39"/>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="47" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="42" t="s">
         <v>142</v>
       </c>
       <c r="M1" t="s">
@@ -3649,17 +3701,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="129"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="41"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="42"/>
       <c r="M2" t="s">
         <v>61</v>
       </c>
@@ -3668,88 +3720,88 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="128"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="39"/>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47" t="s">
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="53"/>
+      <c r="K3" s="57"/>
       <c r="M3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="129"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="40"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="54"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="58"/>
       <c r="M4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="130" t="s">
+      <c r="D6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="130" t="s">
+      <c r="E6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="130" t="s">
+      <c r="F6" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="G6" s="130" t="s">
+      <c r="G6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="130" t="s">
+      <c r="H6" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="I6" s="130" t="s">
+      <c r="I6" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="50"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="52"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1">
       <c r="A8" s="1">
@@ -3764,11 +3816,11 @@
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="131"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="1"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1">
       <c r="A9" s="1">
@@ -3783,11 +3835,11 @@
       <c r="D9" s="4"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="131"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1">
       <c r="A10" s="1"/>
@@ -3796,11 +3848,11 @@
       <c r="D10" s="4"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="131"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
       <c r="A11" s="1"/>
@@ -3809,11 +3861,11 @@
       <c r="D11" s="4"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="131"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1">
       <c r="A12" s="1"/>
@@ -3822,11 +3874,11 @@
       <c r="D12" s="4"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="131"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="1"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1">
       <c r="A13" s="1"/>
@@ -3835,11 +3887,11 @@
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="131"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="1"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
       <c r="A14" s="1"/>
@@ -3848,11 +3900,11 @@
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="131"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="1"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1">
       <c r="A15" s="1"/>
@@ -3861,11 +3913,11 @@
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="131"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="1"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="1"/>
@@ -3874,11 +3926,11 @@
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="131"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1">
       <c r="A17" s="1"/>
@@ -3887,11 +3939,11 @@
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="131"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="1"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1">
       <c r="A18" s="1"/>
@@ -3900,11 +3952,11 @@
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="131"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="1"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1">
       <c r="A19" s="1"/>
@@ -3913,11 +3965,11 @@
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="131"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="1"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1">
       <c r="A20" s="1"/>
@@ -3926,11 +3978,11 @@
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="131"/>
+      <c r="G20" s="41"/>
       <c r="H20" s="1"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1"/>
     <row r="22" spans="1:11" ht="18" customHeight="1"/>
@@ -3972,10 +4024,10 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G8:G20">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3991,16 +4043,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121B77EB-4DA0-498C-9C1A-2851E48BC80F}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.625" style="29" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="29" customWidth="1"/>
     <col min="3" max="3" width="20.625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="29" customWidth="1"/>
     <col min="5" max="5" width="65.375" style="30" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="31" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="31" customWidth="1"/>
@@ -4027,13 +4079,13 @@
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="11" t="s">
         <v>15</v>
       </c>
@@ -4066,16 +4118,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="62"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:8" ht="37.5">
       <c r="A5" s="19">
@@ -4120,7 +4172,7 @@
     </row>
     <row r="7" spans="1:8" ht="37.5">
       <c r="A7" s="19">
-        <f t="shared" ref="A7:A16" ca="1" si="0">IF(ISNUMBER(OFFSET(A7, -1, 0)), OFFSET(A7, -1, 0) + 1, OFFSET(A6, -1, 0) + 1)</f>
+        <f t="shared" ref="A7:A17" ca="1" si="0">IF(ISNUMBER(OFFSET(A7, -1, 0)), OFFSET(A7, -1, 0) + 1, OFFSET(A6, -1, 0) + 1)</f>
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -4141,16 +4193,16 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" ht="18.75">
+    <row r="8" spans="1:8" s="8" customFormat="1" ht="37.5">
       <c r="A8" s="19">
-        <f ca="1">IF(ISNUMBER(OFFSET(A8, -1, 0)), OFFSET(A8, -1, 0) + 1, OFFSET(A15, -1, 0) + 1)</f>
+        <f ca="1">IF(ISNUMBER(OFFSET(A8, -1, 0)), OFFSET(A8, -1, 0) + 1, OFFSET(A16, -1, 0) + 1)</f>
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>40</v>
@@ -4162,30 +4214,30 @@
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75">
+    <row r="9" spans="1:8" s="8" customFormat="1" ht="37.5">
       <c r="A9" s="19">
-        <f ca="1">IF(ISNUMBER(OFFSET(A9, -1, 0)), OFFSET(A9, -1, 0) + 1, OFFSET(A7, -1, 0) + 1)</f>
+        <f ca="1">IF(ISNUMBER(OFFSET(A9, -1, 0)), OFFSET(A9, -1, 0) + 1, OFFSET(A17, -1, 0) + 1)</f>
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="18.75">
       <c r="A10" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(ISNUMBER(OFFSET(A10, -1, 0)), OFFSET(A10, -1, 0) + 1, OFFSET(A7, -1, 0) + 1)</f>
         <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -4195,39 +4247,39 @@
         <v>28</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="37.5">
+    <row r="11" spans="1:8" ht="18.75">
       <c r="A11" s="19">
-        <f ca="1">IF(ISNUMBER(OFFSET(A11, -1, 0)), OFFSET(A11, -1, 0) + 1, OFFSET(A10, -1, 0) + 1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="18.75">
+    <row r="12" spans="1:8" ht="37.5">
       <c r="A12" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(ISNUMBER(OFFSET(A12, -1, 0)), OFFSET(A12, -1, 0) + 1, OFFSET(A11, -1, 0) + 1)</f>
         <v>8</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -4237,10 +4289,10 @@
         <v>31</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="23"/>
@@ -4258,10 +4310,10 @@
         <v>31</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
@@ -4269,7 +4321,7 @@
     </row>
     <row r="14" spans="1:8" ht="18.75">
       <c r="A14" s="19">
-        <f ca="1">IF(ISNUMBER(OFFSET(A14, -1, 0)), OFFSET(A14, -1, 0) + 1, OFFSET(A12, -1, 0) + 1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -4279,53 +4331,53 @@
         <v>31</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="23"/>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.75">
+      <c r="A15" s="19">
+        <f ca="1">IF(ISNUMBER(OFFSET(A15, -1, 0)), OFFSET(A15, -1, 0) + 1, OFFSET(A13, -1, 0) + 1)</f>
+        <v>11</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A15" s="60" t="s">
+    <row r="16" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A16" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
-    </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A16" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="24"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
     </row>
     <row r="17" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A17" s="19">
-        <f ca="1">IF(ISNUMBER(OFFSET(A17, -1, 0)), OFFSET(A17, -1, 0) + 1, OFFSET(A16, -1, 0) + 1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -4335,70 +4387,70 @@
         <v>35</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A18" s="19">
+        <f ca="1">IF(ISNUMBER(OFFSET(A18, -1, 0)), OFFSET(A18, -1, 0) + 1, OFFSET(A17, -1, 0) + 1)</f>
+        <v>13</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A18" s="60" t="s">
+    <row r="19" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A19" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-    </row>
-    <row r="19" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A19" s="19">
-        <f t="shared" ref="A19:A23" ca="1" si="1">IF(ISNUMBER(OFFSET(A19, -1, 0)), OFFSET(A19, -1, 0) + 1, OFFSET(A18, -1, 0) + 1)</f>
-        <v>13</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="24"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
     </row>
     <row r="20" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A20" s="19">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="A20:A26" ca="1" si="1">IF(ISNUMBER(OFFSET(A20, -1, 0)), OFFSET(A20, -1, 0) + 1, OFFSET(A19, -1, 0) + 1)</f>
         <v>14</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>100</v>
+      <c r="C20" s="20" t="s">
+        <v>0</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="F20" s="22"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A21" s="19">
@@ -4408,18 +4460,18 @@
       <c r="B21" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="36" t="s">
-        <v>93</v>
+      <c r="C21" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>56</v>
+        <v>101</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="F21" s="22"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A22" s="19">
@@ -4427,20 +4479,20 @@
         <v>16</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>57</v>
+        <v>156</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="F22" s="22"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A23" s="19">
@@ -4451,76 +4503,139 @@
         <v>39</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="32" t="s">
-        <v>76</v>
+      <c r="E23" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="33"/>
       <c r="H23" s="34"/>
     </row>
-    <row r="24" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A24" s="25">
-        <f ca="1">IF(ISNUMBER(OFFSET(A24, -1, 0)), OFFSET(A24, -1, 0) + 1, OFFSET(A21, -1, 0) + 1)</f>
+    <row r="24" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A24" s="19">
+        <f t="shared" ca="1" si="1"/>
         <v>18</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A25" s="19">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
+    </row>
+    <row r="26" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A26" s="19">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34"/>
+    </row>
+    <row r="27" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A27" s="25">
+        <f ca="1">IF(ISNUMBER(OFFSET(A27, -1, 0)), OFFSET(A27, -1, 0) + 1, OFFSET(A24, -1, 0) + 1)</f>
+        <v>21</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D27" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E27" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28" t="s">
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="11.25" customHeight="1"/>
+    <row r="28" spans="1:8" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A19:H19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F5:F14">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+  <conditionalFormatting sqref="F5:F15">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F17">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+  <conditionalFormatting sqref="F17:F18">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F24">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+  <conditionalFormatting sqref="F20:F27">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -4528,7 +4643,7 @@
           <x14:formula1>
             <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F19:F24 F5:F14 F16:F17</xm:sqref>
+          <xm:sqref>F5:F15 F17:F18 F20:F27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4561,690 +4676,690 @@
       </c>
     </row>
     <row r="3" spans="2:76" ht="15" customHeight="1">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="66" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="74" t="s">
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="74" t="s">
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="67" t="s">
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="63" t="s">
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="63" t="s">
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="64"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="63" t="s">
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="AR3" s="64"/>
-      <c r="AS3" s="64"/>
-      <c r="AT3" s="64"/>
-      <c r="AU3" s="65"/>
-      <c r="AV3" s="64" t="s">
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="69"/>
+      <c r="AV3" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="AW3" s="64"/>
-      <c r="AX3" s="64"/>
-      <c r="AY3" s="64"/>
-      <c r="AZ3" s="65"/>
-      <c r="BA3" s="66" t="s">
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="69"/>
+      <c r="BA3" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="BB3" s="67"/>
-      <c r="BC3" s="67"/>
-      <c r="BD3" s="67"/>
-      <c r="BE3" s="68"/>
-      <c r="BF3" s="69" t="s">
+      <c r="BB3" s="71"/>
+      <c r="BC3" s="71"/>
+      <c r="BD3" s="71"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="BG3" s="70"/>
-      <c r="BH3" s="70"/>
-      <c r="BI3" s="64" t="s">
+      <c r="BG3" s="74"/>
+      <c r="BH3" s="74"/>
+      <c r="BI3" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="BJ3" s="64"/>
-      <c r="BK3" s="64"/>
-      <c r="BL3" s="64"/>
-      <c r="BM3" s="65"/>
-      <c r="BN3" s="71" t="s">
+      <c r="BJ3" s="68"/>
+      <c r="BK3" s="68"/>
+      <c r="BL3" s="68"/>
+      <c r="BM3" s="69"/>
+      <c r="BN3" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
-      <c r="BR3" s="71"/>
-      <c r="BS3" s="71"/>
-      <c r="BT3" s="71"/>
-      <c r="BU3" s="71"/>
-      <c r="BV3" s="71"/>
-      <c r="BW3" s="71"/>
-      <c r="BX3" s="72"/>
+      <c r="BO3" s="75"/>
+      <c r="BP3" s="75"/>
+      <c r="BQ3" s="75"/>
+      <c r="BR3" s="75"/>
+      <c r="BS3" s="75"/>
+      <c r="BT3" s="75"/>
+      <c r="BU3" s="75"/>
+      <c r="BV3" s="75"/>
+      <c r="BW3" s="75"/>
+      <c r="BX3" s="76"/>
     </row>
     <row r="4" spans="2:76" ht="16.5">
-      <c r="B4" s="82">
+      <c r="B4" s="86">
         <v>1</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="75"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="75"/>
-      <c r="AH4" s="76"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="75"/>
-      <c r="AM4" s="76"/>
-      <c r="AN4" s="76"/>
-      <c r="AO4" s="76"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="75"/>
-      <c r="AR4" s="76"/>
-      <c r="AS4" s="76"/>
-      <c r="AT4" s="76"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="75"/>
-      <c r="AW4" s="76"/>
-      <c r="AX4" s="76"/>
-      <c r="AY4" s="76"/>
-      <c r="AZ4" s="77"/>
-      <c r="BA4" s="75"/>
-      <c r="BB4" s="76"/>
-      <c r="BC4" s="76"/>
-      <c r="BD4" s="76"/>
-      <c r="BE4" s="77"/>
-      <c r="BF4" s="78" t="s">
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="80"/>
+      <c r="AK4" s="81"/>
+      <c r="AL4" s="79"/>
+      <c r="AM4" s="80"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="80"/>
+      <c r="AP4" s="81"/>
+      <c r="AQ4" s="79"/>
+      <c r="AR4" s="80"/>
+      <c r="AS4" s="80"/>
+      <c r="AT4" s="80"/>
+      <c r="AU4" s="81"/>
+      <c r="AV4" s="79"/>
+      <c r="AW4" s="80"/>
+      <c r="AX4" s="80"/>
+      <c r="AY4" s="80"/>
+      <c r="AZ4" s="81"/>
+      <c r="BA4" s="79"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="80"/>
+      <c r="BD4" s="80"/>
+      <c r="BE4" s="81"/>
+      <c r="BF4" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="BG4" s="79"/>
-      <c r="BH4" s="79"/>
-      <c r="BI4" s="75"/>
-      <c r="BJ4" s="76"/>
-      <c r="BK4" s="76"/>
-      <c r="BL4" s="76"/>
-      <c r="BM4" s="77"/>
-      <c r="BN4" s="80"/>
-      <c r="BO4" s="80"/>
-      <c r="BP4" s="80"/>
-      <c r="BQ4" s="80"/>
-      <c r="BR4" s="80"/>
-      <c r="BS4" s="80"/>
-      <c r="BT4" s="80"/>
-      <c r="BU4" s="80"/>
-      <c r="BV4" s="80"/>
-      <c r="BW4" s="80"/>
-      <c r="BX4" s="81"/>
+      <c r="BG4" s="83"/>
+      <c r="BH4" s="83"/>
+      <c r="BI4" s="79"/>
+      <c r="BJ4" s="80"/>
+      <c r="BK4" s="80"/>
+      <c r="BL4" s="80"/>
+      <c r="BM4" s="81"/>
+      <c r="BN4" s="84"/>
+      <c r="BO4" s="84"/>
+      <c r="BP4" s="84"/>
+      <c r="BQ4" s="84"/>
+      <c r="BR4" s="84"/>
+      <c r="BS4" s="84"/>
+      <c r="BT4" s="84"/>
+      <c r="BU4" s="84"/>
+      <c r="BV4" s="84"/>
+      <c r="BW4" s="84"/>
+      <c r="BX4" s="85"/>
     </row>
     <row r="5" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B5" s="95">
+      <c r="B5" s="99">
         <v>2</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98" t="s">
+      <c r="C5" s="100"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="89"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="89"/>
-      <c r="AE5" s="89"/>
-      <c r="AF5" s="90"/>
-      <c r="AG5" s="88"/>
-      <c r="AH5" s="89"/>
-      <c r="AI5" s="89"/>
-      <c r="AJ5" s="89"/>
-      <c r="AK5" s="90"/>
-      <c r="AL5" s="88"/>
-      <c r="AM5" s="89"/>
-      <c r="AN5" s="89"/>
-      <c r="AO5" s="89"/>
-      <c r="AP5" s="90"/>
-      <c r="AQ5" s="88"/>
-      <c r="AR5" s="89"/>
-      <c r="AS5" s="89"/>
-      <c r="AT5" s="89"/>
-      <c r="AU5" s="90"/>
-      <c r="AV5" s="88"/>
-      <c r="AW5" s="89"/>
-      <c r="AX5" s="89"/>
-      <c r="AY5" s="89"/>
-      <c r="AZ5" s="90"/>
-      <c r="BA5" s="88"/>
-      <c r="BB5" s="89"/>
-      <c r="BC5" s="89"/>
-      <c r="BD5" s="89"/>
-      <c r="BE5" s="90"/>
-      <c r="BF5" s="91" t="s">
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="92"/>
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="93"/>
+      <c r="AJ5" s="93"/>
+      <c r="AK5" s="94"/>
+      <c r="AL5" s="92"/>
+      <c r="AM5" s="93"/>
+      <c r="AN5" s="93"/>
+      <c r="AO5" s="93"/>
+      <c r="AP5" s="94"/>
+      <c r="AQ5" s="92"/>
+      <c r="AR5" s="93"/>
+      <c r="AS5" s="93"/>
+      <c r="AT5" s="93"/>
+      <c r="AU5" s="94"/>
+      <c r="AV5" s="92"/>
+      <c r="AW5" s="93"/>
+      <c r="AX5" s="93"/>
+      <c r="AY5" s="93"/>
+      <c r="AZ5" s="94"/>
+      <c r="BA5" s="92"/>
+      <c r="BB5" s="93"/>
+      <c r="BC5" s="93"/>
+      <c r="BD5" s="93"/>
+      <c r="BE5" s="94"/>
+      <c r="BF5" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="BG5" s="92"/>
-      <c r="BH5" s="92"/>
-      <c r="BI5" s="88"/>
-      <c r="BJ5" s="89"/>
-      <c r="BK5" s="89"/>
-      <c r="BL5" s="89"/>
-      <c r="BM5" s="90"/>
-      <c r="BN5" s="93"/>
-      <c r="BO5" s="93"/>
-      <c r="BP5" s="93"/>
-      <c r="BQ5" s="93"/>
-      <c r="BR5" s="93"/>
-      <c r="BS5" s="93"/>
-      <c r="BT5" s="93"/>
-      <c r="BU5" s="93"/>
-      <c r="BV5" s="93"/>
-      <c r="BW5" s="93"/>
-      <c r="BX5" s="94"/>
+      <c r="BG5" s="96"/>
+      <c r="BH5" s="96"/>
+      <c r="BI5" s="92"/>
+      <c r="BJ5" s="93"/>
+      <c r="BK5" s="93"/>
+      <c r="BL5" s="93"/>
+      <c r="BM5" s="94"/>
+      <c r="BN5" s="97"/>
+      <c r="BO5" s="97"/>
+      <c r="BP5" s="97"/>
+      <c r="BQ5" s="97"/>
+      <c r="BR5" s="97"/>
+      <c r="BS5" s="97"/>
+      <c r="BT5" s="97"/>
+      <c r="BU5" s="97"/>
+      <c r="BV5" s="97"/>
+      <c r="BW5" s="97"/>
+      <c r="BX5" s="98"/>
     </row>
     <row r="6" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B6" s="95">
+      <c r="B6" s="99">
         <v>3</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="98" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="89"/>
-      <c r="Z6" s="89"/>
-      <c r="AA6" s="90"/>
-      <c r="AB6" s="88"/>
-      <c r="AC6" s="89"/>
-      <c r="AD6" s="89"/>
-      <c r="AE6" s="89"/>
-      <c r="AF6" s="90"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="89"/>
-      <c r="AI6" s="89"/>
-      <c r="AJ6" s="89"/>
-      <c r="AK6" s="90"/>
-      <c r="AL6" s="88"/>
-      <c r="AM6" s="89"/>
-      <c r="AN6" s="89"/>
-      <c r="AO6" s="89"/>
-      <c r="AP6" s="90"/>
-      <c r="AQ6" s="88"/>
-      <c r="AR6" s="89"/>
-      <c r="AS6" s="89"/>
-      <c r="AT6" s="89"/>
-      <c r="AU6" s="90"/>
-      <c r="AV6" s="88"/>
-      <c r="AW6" s="89"/>
-      <c r="AX6" s="89"/>
-      <c r="AY6" s="89"/>
-      <c r="AZ6" s="90"/>
-      <c r="BA6" s="88"/>
-      <c r="BB6" s="89"/>
-      <c r="BC6" s="89"/>
-      <c r="BD6" s="89"/>
-      <c r="BE6" s="90"/>
-      <c r="BF6" s="91" t="s">
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="93"/>
+      <c r="Y6" s="93"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="93"/>
+      <c r="AD6" s="93"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="94"/>
+      <c r="AG6" s="92"/>
+      <c r="AH6" s="93"/>
+      <c r="AI6" s="93"/>
+      <c r="AJ6" s="93"/>
+      <c r="AK6" s="94"/>
+      <c r="AL6" s="92"/>
+      <c r="AM6" s="93"/>
+      <c r="AN6" s="93"/>
+      <c r="AO6" s="93"/>
+      <c r="AP6" s="94"/>
+      <c r="AQ6" s="92"/>
+      <c r="AR6" s="93"/>
+      <c r="AS6" s="93"/>
+      <c r="AT6" s="93"/>
+      <c r="AU6" s="94"/>
+      <c r="AV6" s="92"/>
+      <c r="AW6" s="93"/>
+      <c r="AX6" s="93"/>
+      <c r="AY6" s="93"/>
+      <c r="AZ6" s="94"/>
+      <c r="BA6" s="92"/>
+      <c r="BB6" s="93"/>
+      <c r="BC6" s="93"/>
+      <c r="BD6" s="93"/>
+      <c r="BE6" s="94"/>
+      <c r="BF6" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="BG6" s="92"/>
-      <c r="BH6" s="92"/>
-      <c r="BI6" s="88"/>
-      <c r="BJ6" s="89"/>
-      <c r="BK6" s="89"/>
-      <c r="BL6" s="89"/>
-      <c r="BM6" s="90"/>
-      <c r="BN6" s="93"/>
-      <c r="BO6" s="93"/>
-      <c r="BP6" s="93"/>
-      <c r="BQ6" s="93"/>
-      <c r="BR6" s="93"/>
-      <c r="BS6" s="93"/>
-      <c r="BT6" s="93"/>
-      <c r="BU6" s="93"/>
-      <c r="BV6" s="93"/>
-      <c r="BW6" s="93"/>
-      <c r="BX6" s="94"/>
+      <c r="BG6" s="96"/>
+      <c r="BH6" s="96"/>
+      <c r="BI6" s="92"/>
+      <c r="BJ6" s="93"/>
+      <c r="BK6" s="93"/>
+      <c r="BL6" s="93"/>
+      <c r="BM6" s="94"/>
+      <c r="BN6" s="97"/>
+      <c r="BO6" s="97"/>
+      <c r="BP6" s="97"/>
+      <c r="BQ6" s="97"/>
+      <c r="BR6" s="97"/>
+      <c r="BS6" s="97"/>
+      <c r="BT6" s="97"/>
+      <c r="BU6" s="97"/>
+      <c r="BV6" s="97"/>
+      <c r="BW6" s="97"/>
+      <c r="BX6" s="98"/>
     </row>
     <row r="7" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B7" s="95">
+      <c r="B7" s="99">
         <v>4</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="88"/>
-      <c r="AC7" s="89"/>
-      <c r="AD7" s="89"/>
-      <c r="AE7" s="89"/>
-      <c r="AF7" s="90"/>
-      <c r="AG7" s="88"/>
-      <c r="AH7" s="89"/>
-      <c r="AI7" s="89"/>
-      <c r="AJ7" s="89"/>
-      <c r="AK7" s="90"/>
-      <c r="AL7" s="88"/>
-      <c r="AM7" s="89"/>
-      <c r="AN7" s="89"/>
-      <c r="AO7" s="89"/>
-      <c r="AP7" s="90"/>
-      <c r="AQ7" s="88"/>
-      <c r="AR7" s="89"/>
-      <c r="AS7" s="89"/>
-      <c r="AT7" s="89"/>
-      <c r="AU7" s="90"/>
-      <c r="AV7" s="88"/>
-      <c r="AW7" s="89"/>
-      <c r="AX7" s="89"/>
-      <c r="AY7" s="89"/>
-      <c r="AZ7" s="90"/>
-      <c r="BA7" s="88"/>
-      <c r="BB7" s="89"/>
-      <c r="BC7" s="89"/>
-      <c r="BD7" s="89"/>
-      <c r="BE7" s="90"/>
-      <c r="BF7" s="91" t="s">
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="92"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="94"/>
+      <c r="AL7" s="92"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="93"/>
+      <c r="AO7" s="93"/>
+      <c r="AP7" s="94"/>
+      <c r="AQ7" s="92"/>
+      <c r="AR7" s="93"/>
+      <c r="AS7" s="93"/>
+      <c r="AT7" s="93"/>
+      <c r="AU7" s="94"/>
+      <c r="AV7" s="92"/>
+      <c r="AW7" s="93"/>
+      <c r="AX7" s="93"/>
+      <c r="AY7" s="93"/>
+      <c r="AZ7" s="94"/>
+      <c r="BA7" s="92"/>
+      <c r="BB7" s="93"/>
+      <c r="BC7" s="93"/>
+      <c r="BD7" s="93"/>
+      <c r="BE7" s="94"/>
+      <c r="BF7" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="BG7" s="92"/>
-      <c r="BH7" s="92"/>
-      <c r="BI7" s="88"/>
-      <c r="BJ7" s="89"/>
-      <c r="BK7" s="89"/>
-      <c r="BL7" s="89"/>
-      <c r="BM7" s="90"/>
-      <c r="BN7" s="93"/>
-      <c r="BO7" s="93"/>
-      <c r="BP7" s="93"/>
-      <c r="BQ7" s="93"/>
-      <c r="BR7" s="93"/>
-      <c r="BS7" s="93"/>
-      <c r="BT7" s="93"/>
-      <c r="BU7" s="93"/>
-      <c r="BV7" s="93"/>
-      <c r="BW7" s="93"/>
-      <c r="BX7" s="94"/>
+      <c r="BG7" s="96"/>
+      <c r="BH7" s="96"/>
+      <c r="BI7" s="92"/>
+      <c r="BJ7" s="93"/>
+      <c r="BK7" s="93"/>
+      <c r="BL7" s="93"/>
+      <c r="BM7" s="94"/>
+      <c r="BN7" s="97"/>
+      <c r="BO7" s="97"/>
+      <c r="BP7" s="97"/>
+      <c r="BQ7" s="97"/>
+      <c r="BR7" s="97"/>
+      <c r="BS7" s="97"/>
+      <c r="BT7" s="97"/>
+      <c r="BU7" s="97"/>
+      <c r="BV7" s="97"/>
+      <c r="BW7" s="97"/>
+      <c r="BX7" s="98"/>
     </row>
     <row r="8" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B8" s="95">
+      <c r="B8" s="99">
         <v>5</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98" t="s">
+      <c r="C8" s="100"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="89"/>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="89"/>
-      <c r="AD8" s="89"/>
-      <c r="AE8" s="89"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="88"/>
-      <c r="AH8" s="89"/>
-      <c r="AI8" s="89"/>
-      <c r="AJ8" s="89"/>
-      <c r="AK8" s="90"/>
-      <c r="AL8" s="88"/>
-      <c r="AM8" s="89"/>
-      <c r="AN8" s="89"/>
-      <c r="AO8" s="89"/>
-      <c r="AP8" s="90"/>
-      <c r="AQ8" s="88"/>
-      <c r="AR8" s="89"/>
-      <c r="AS8" s="89"/>
-      <c r="AT8" s="89"/>
-      <c r="AU8" s="90"/>
-      <c r="AV8" s="88"/>
-      <c r="AW8" s="89"/>
-      <c r="AX8" s="89"/>
-      <c r="AY8" s="89"/>
-      <c r="AZ8" s="90"/>
-      <c r="BA8" s="88"/>
-      <c r="BB8" s="89"/>
-      <c r="BC8" s="89"/>
-      <c r="BD8" s="89"/>
-      <c r="BE8" s="90"/>
-      <c r="BF8" s="91" t="s">
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="94"/>
+      <c r="AG8" s="92"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="93"/>
+      <c r="AJ8" s="93"/>
+      <c r="AK8" s="94"/>
+      <c r="AL8" s="92"/>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="93"/>
+      <c r="AO8" s="93"/>
+      <c r="AP8" s="94"/>
+      <c r="AQ8" s="92"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="93"/>
+      <c r="AT8" s="93"/>
+      <c r="AU8" s="94"/>
+      <c r="AV8" s="92"/>
+      <c r="AW8" s="93"/>
+      <c r="AX8" s="93"/>
+      <c r="AY8" s="93"/>
+      <c r="AZ8" s="94"/>
+      <c r="BA8" s="92"/>
+      <c r="BB8" s="93"/>
+      <c r="BC8" s="93"/>
+      <c r="BD8" s="93"/>
+      <c r="BE8" s="94"/>
+      <c r="BF8" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="BG8" s="92"/>
-      <c r="BH8" s="92"/>
-      <c r="BI8" s="88"/>
-      <c r="BJ8" s="89"/>
-      <c r="BK8" s="89"/>
-      <c r="BL8" s="89"/>
-      <c r="BM8" s="90"/>
-      <c r="BN8" s="93"/>
-      <c r="BO8" s="93"/>
-      <c r="BP8" s="93"/>
-      <c r="BQ8" s="93"/>
-      <c r="BR8" s="93"/>
-      <c r="BS8" s="93"/>
-      <c r="BT8" s="93"/>
-      <c r="BU8" s="93"/>
-      <c r="BV8" s="93"/>
-      <c r="BW8" s="93"/>
-      <c r="BX8" s="94"/>
+      <c r="BG8" s="96"/>
+      <c r="BH8" s="96"/>
+      <c r="BI8" s="92"/>
+      <c r="BJ8" s="93"/>
+      <c r="BK8" s="93"/>
+      <c r="BL8" s="93"/>
+      <c r="BM8" s="94"/>
+      <c r="BN8" s="97"/>
+      <c r="BO8" s="97"/>
+      <c r="BP8" s="97"/>
+      <c r="BQ8" s="97"/>
+      <c r="BR8" s="97"/>
+      <c r="BS8" s="97"/>
+      <c r="BT8" s="97"/>
+      <c r="BU8" s="97"/>
+      <c r="BV8" s="97"/>
+      <c r="BW8" s="97"/>
+      <c r="BX8" s="98"/>
     </row>
     <row r="9" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B9" s="95">
+      <c r="B9" s="99">
         <v>6</v>
       </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="98" t="s">
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="88"/>
-      <c r="AC9" s="89"/>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="89"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="88"/>
-      <c r="AH9" s="89"/>
-      <c r="AI9" s="89"/>
-      <c r="AJ9" s="89"/>
-      <c r="AK9" s="90"/>
-      <c r="AL9" s="88"/>
-      <c r="AM9" s="89"/>
-      <c r="AN9" s="89"/>
-      <c r="AO9" s="89"/>
-      <c r="AP9" s="90"/>
-      <c r="AQ9" s="88"/>
-      <c r="AR9" s="89"/>
-      <c r="AS9" s="89"/>
-      <c r="AT9" s="89"/>
-      <c r="AU9" s="90"/>
-      <c r="AV9" s="88"/>
-      <c r="AW9" s="89"/>
-      <c r="AX9" s="89"/>
-      <c r="AY9" s="89"/>
-      <c r="AZ9" s="90"/>
-      <c r="BA9" s="88"/>
-      <c r="BB9" s="89"/>
-      <c r="BC9" s="89"/>
-      <c r="BD9" s="89"/>
-      <c r="BE9" s="90"/>
-      <c r="BF9" s="91" t="s">
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="94"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="93"/>
+      <c r="AJ9" s="93"/>
+      <c r="AK9" s="94"/>
+      <c r="AL9" s="92"/>
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="93"/>
+      <c r="AO9" s="93"/>
+      <c r="AP9" s="94"/>
+      <c r="AQ9" s="92"/>
+      <c r="AR9" s="93"/>
+      <c r="AS9" s="93"/>
+      <c r="AT9" s="93"/>
+      <c r="AU9" s="94"/>
+      <c r="AV9" s="92"/>
+      <c r="AW9" s="93"/>
+      <c r="AX9" s="93"/>
+      <c r="AY9" s="93"/>
+      <c r="AZ9" s="94"/>
+      <c r="BA9" s="92"/>
+      <c r="BB9" s="93"/>
+      <c r="BC9" s="93"/>
+      <c r="BD9" s="93"/>
+      <c r="BE9" s="94"/>
+      <c r="BF9" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="BG9" s="92"/>
-      <c r="BH9" s="92"/>
-      <c r="BI9" s="88"/>
-      <c r="BJ9" s="89"/>
-      <c r="BK9" s="89"/>
-      <c r="BL9" s="89"/>
-      <c r="BM9" s="90"/>
-      <c r="BN9" s="93"/>
-      <c r="BO9" s="93"/>
-      <c r="BP9" s="93"/>
-      <c r="BQ9" s="93"/>
-      <c r="BR9" s="93"/>
-      <c r="BS9" s="93"/>
-      <c r="BT9" s="93"/>
-      <c r="BU9" s="93"/>
-      <c r="BV9" s="93"/>
-      <c r="BW9" s="93"/>
-      <c r="BX9" s="94"/>
+      <c r="BG9" s="96"/>
+      <c r="BH9" s="96"/>
+      <c r="BI9" s="92"/>
+      <c r="BJ9" s="93"/>
+      <c r="BK9" s="93"/>
+      <c r="BL9" s="93"/>
+      <c r="BM9" s="94"/>
+      <c r="BN9" s="97"/>
+      <c r="BO9" s="97"/>
+      <c r="BP9" s="97"/>
+      <c r="BQ9" s="97"/>
+      <c r="BR9" s="97"/>
+      <c r="BS9" s="97"/>
+      <c r="BT9" s="97"/>
+      <c r="BU9" s="97"/>
+      <c r="BV9" s="97"/>
+      <c r="BW9" s="97"/>
+      <c r="BX9" s="98"/>
     </row>
     <row r="10" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B10" s="108">
+      <c r="B10" s="112">
         <v>7</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="111" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="101"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="100"/>
-      <c r="X10" s="101"/>
-      <c r="Y10" s="101"/>
-      <c r="Z10" s="101"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="100"/>
-      <c r="AC10" s="101"/>
-      <c r="AD10" s="101"/>
-      <c r="AE10" s="101"/>
-      <c r="AF10" s="102"/>
-      <c r="AG10" s="100"/>
-      <c r="AH10" s="101"/>
-      <c r="AI10" s="101"/>
-      <c r="AJ10" s="101"/>
-      <c r="AK10" s="102"/>
-      <c r="AL10" s="100"/>
-      <c r="AM10" s="101"/>
-      <c r="AN10" s="101"/>
-      <c r="AO10" s="101"/>
-      <c r="AP10" s="102"/>
-      <c r="AQ10" s="100"/>
-      <c r="AR10" s="101"/>
-      <c r="AS10" s="101"/>
-      <c r="AT10" s="101"/>
-      <c r="AU10" s="102"/>
-      <c r="AV10" s="100"/>
-      <c r="AW10" s="101"/>
-      <c r="AX10" s="101"/>
-      <c r="AY10" s="101"/>
-      <c r="AZ10" s="102"/>
-      <c r="BA10" s="103"/>
-      <c r="BB10" s="101"/>
-      <c r="BC10" s="101"/>
-      <c r="BD10" s="101"/>
-      <c r="BE10" s="102"/>
-      <c r="BF10" s="104" t="s">
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="105"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="104"/>
+      <c r="X10" s="105"/>
+      <c r="Y10" s="105"/>
+      <c r="Z10" s="105"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="104"/>
+      <c r="AC10" s="105"/>
+      <c r="AD10" s="105"/>
+      <c r="AE10" s="105"/>
+      <c r="AF10" s="106"/>
+      <c r="AG10" s="104"/>
+      <c r="AH10" s="105"/>
+      <c r="AI10" s="105"/>
+      <c r="AJ10" s="105"/>
+      <c r="AK10" s="106"/>
+      <c r="AL10" s="104"/>
+      <c r="AM10" s="105"/>
+      <c r="AN10" s="105"/>
+      <c r="AO10" s="105"/>
+      <c r="AP10" s="106"/>
+      <c r="AQ10" s="104"/>
+      <c r="AR10" s="105"/>
+      <c r="AS10" s="105"/>
+      <c r="AT10" s="105"/>
+      <c r="AU10" s="106"/>
+      <c r="AV10" s="104"/>
+      <c r="AW10" s="105"/>
+      <c r="AX10" s="105"/>
+      <c r="AY10" s="105"/>
+      <c r="AZ10" s="106"/>
+      <c r="BA10" s="107"/>
+      <c r="BB10" s="105"/>
+      <c r="BC10" s="105"/>
+      <c r="BD10" s="105"/>
+      <c r="BE10" s="106"/>
+      <c r="BF10" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="BG10" s="105"/>
-      <c r="BH10" s="105"/>
-      <c r="BI10" s="100"/>
-      <c r="BJ10" s="101"/>
-      <c r="BK10" s="101"/>
-      <c r="BL10" s="101"/>
-      <c r="BM10" s="102"/>
-      <c r="BN10" s="106"/>
-      <c r="BO10" s="106"/>
-      <c r="BP10" s="106"/>
-      <c r="BQ10" s="106"/>
-      <c r="BR10" s="106"/>
-      <c r="BS10" s="106"/>
-      <c r="BT10" s="106"/>
-      <c r="BU10" s="106"/>
-      <c r="BV10" s="106"/>
-      <c r="BW10" s="106"/>
-      <c r="BX10" s="107"/>
+      <c r="BG10" s="109"/>
+      <c r="BH10" s="109"/>
+      <c r="BI10" s="104"/>
+      <c r="BJ10" s="105"/>
+      <c r="BK10" s="105"/>
+      <c r="BL10" s="105"/>
+      <c r="BM10" s="106"/>
+      <c r="BN10" s="110"/>
+      <c r="BO10" s="110"/>
+      <c r="BP10" s="110"/>
+      <c r="BQ10" s="110"/>
+      <c r="BR10" s="110"/>
+      <c r="BS10" s="110"/>
+      <c r="BT10" s="110"/>
+      <c r="BU10" s="110"/>
+      <c r="BV10" s="110"/>
+      <c r="BW10" s="110"/>
+      <c r="BX10" s="111"/>
     </row>
     <row r="11" spans="2:76" ht="16.5">
       <c r="B11" s="35" t="s">
@@ -5267,180 +5382,180 @@
       </c>
     </row>
     <row r="16" spans="2:76" ht="15" customHeight="1">
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73" t="s">
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="66" t="s">
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="67" t="s">
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="74" t="s">
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="68"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="72"/>
     </row>
     <row r="17" spans="2:29" ht="15" customHeight="1">
-      <c r="B17" s="112">
+      <c r="B17" s="116">
         <v>1</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="115" t="s">
+      <c r="C17" s="117"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="75"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="77"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="80"/>
+      <c r="AA17" s="80"/>
+      <c r="AB17" s="80"/>
+      <c r="AC17" s="81"/>
     </row>
     <row r="18" spans="2:29" ht="15" customHeight="1">
-      <c r="B18" s="95">
+      <c r="B18" s="99">
         <v>2</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="98" t="s">
+      <c r="C18" s="100"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="88"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="90"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="93"/>
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="94"/>
     </row>
     <row r="19" spans="2:29" ht="15" customHeight="1">
-      <c r="B19" s="95">
+      <c r="B19" s="99">
         <v>3</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="98" t="s">
+      <c r="C19" s="100"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="88"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="89"/>
-      <c r="AC19" s="90"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="93"/>
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="94"/>
     </row>
     <row r="20" spans="2:29" ht="15" customHeight="1">
-      <c r="B20" s="108">
+      <c r="B20" s="112">
         <v>4</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111" t="s">
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="101"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="101"/>
-      <c r="V20" s="101"/>
-      <c r="W20" s="101"/>
-      <c r="X20" s="102"/>
-      <c r="Y20" s="100"/>
-      <c r="Z20" s="101"/>
-      <c r="AA20" s="101"/>
-      <c r="AB20" s="101"/>
-      <c r="AC20" s="102"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="105"/>
+      <c r="O20" s="105"/>
+      <c r="P20" s="105"/>
+      <c r="Q20" s="105"/>
+      <c r="R20" s="105"/>
+      <c r="S20" s="106"/>
+      <c r="T20" s="104"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="105"/>
+      <c r="W20" s="105"/>
+      <c r="X20" s="106"/>
+      <c r="Y20" s="104"/>
+      <c r="Z20" s="105"/>
+      <c r="AA20" s="105"/>
+      <c r="AB20" s="105"/>
+      <c r="AC20" s="106"/>
     </row>
     <row r="21" spans="2:29" ht="9" customHeight="1"/>
     <row r="22" spans="2:29" ht="9" customHeight="1"/>
@@ -5586,34 +5701,34 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="M17:M20">
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:BE10">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:AC20">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI4:BM10">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5675,13 +5790,13 @@
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="11" t="s">
         <v>15</v>
       </c>
@@ -5714,16 +5829,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="62"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:8" ht="37.5">
       <c r="A5" s="19">
@@ -5874,16 +5989,16 @@
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
     </row>
     <row r="13" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A13" s="19">
@@ -5995,16 +6110,16 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
     </row>
     <row r="19" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A19" s="19">
@@ -6123,26 +6238,26 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F5:F11">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F17">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F23">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6188,2093 +6303,2093 @@
       </c>
     </row>
     <row r="3" spans="2:76" ht="15" customHeight="1">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="66" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="74" t="s">
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="74" t="s">
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="67" t="s">
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="63" t="s">
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="63" t="s">
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="64"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="63" t="s">
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="AR3" s="64"/>
-      <c r="AS3" s="64"/>
-      <c r="AT3" s="64"/>
-      <c r="AU3" s="65"/>
-      <c r="AV3" s="64" t="s">
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="69"/>
+      <c r="AV3" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="AW3" s="64"/>
-      <c r="AX3" s="64"/>
-      <c r="AY3" s="64"/>
-      <c r="AZ3" s="65"/>
-      <c r="BA3" s="66" t="s">
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="69"/>
+      <c r="BA3" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="BB3" s="67"/>
-      <c r="BC3" s="67"/>
-      <c r="BD3" s="67"/>
-      <c r="BE3" s="68"/>
-      <c r="BF3" s="69" t="s">
+      <c r="BB3" s="71"/>
+      <c r="BC3" s="71"/>
+      <c r="BD3" s="71"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="BG3" s="70"/>
-      <c r="BH3" s="70"/>
-      <c r="BI3" s="64" t="s">
+      <c r="BG3" s="74"/>
+      <c r="BH3" s="74"/>
+      <c r="BI3" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="BJ3" s="64"/>
-      <c r="BK3" s="64"/>
-      <c r="BL3" s="64"/>
-      <c r="BM3" s="65"/>
-      <c r="BN3" s="71" t="s">
+      <c r="BJ3" s="68"/>
+      <c r="BK3" s="68"/>
+      <c r="BL3" s="68"/>
+      <c r="BM3" s="69"/>
+      <c r="BN3" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
-      <c r="BR3" s="71"/>
-      <c r="BS3" s="71"/>
-      <c r="BT3" s="71"/>
-      <c r="BU3" s="71"/>
-      <c r="BV3" s="71"/>
-      <c r="BW3" s="71"/>
-      <c r="BX3" s="72"/>
+      <c r="BO3" s="75"/>
+      <c r="BP3" s="75"/>
+      <c r="BQ3" s="75"/>
+      <c r="BR3" s="75"/>
+      <c r="BS3" s="75"/>
+      <c r="BT3" s="75"/>
+      <c r="BU3" s="75"/>
+      <c r="BV3" s="75"/>
+      <c r="BW3" s="75"/>
+      <c r="BX3" s="76"/>
     </row>
     <row r="4" spans="2:76" ht="15" customHeight="1">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="117"/>
-      <c r="AB4" s="117"/>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="117"/>
-      <c r="AE4" s="117"/>
-      <c r="AF4" s="117"/>
-      <c r="AG4" s="117"/>
-      <c r="AH4" s="117"/>
-      <c r="AI4" s="117"/>
-      <c r="AJ4" s="117"/>
-      <c r="AK4" s="117"/>
-      <c r="AL4" s="117"/>
-      <c r="AM4" s="117"/>
-      <c r="AN4" s="117"/>
-      <c r="AO4" s="117"/>
-      <c r="AP4" s="117"/>
-      <c r="AQ4" s="117"/>
-      <c r="AR4" s="117"/>
-      <c r="AS4" s="117"/>
-      <c r="AT4" s="117"/>
-      <c r="AU4" s="117"/>
-      <c r="AV4" s="117"/>
-      <c r="AW4" s="117"/>
-      <c r="AX4" s="117"/>
-      <c r="AY4" s="117"/>
-      <c r="AZ4" s="117"/>
-      <c r="BA4" s="117"/>
-      <c r="BB4" s="117"/>
-      <c r="BC4" s="117"/>
-      <c r="BD4" s="117"/>
-      <c r="BE4" s="117"/>
-      <c r="BF4" s="117"/>
-      <c r="BG4" s="117"/>
-      <c r="BH4" s="117"/>
-      <c r="BI4" s="117"/>
-      <c r="BJ4" s="117"/>
-      <c r="BK4" s="117"/>
-      <c r="BL4" s="117"/>
-      <c r="BM4" s="117"/>
-      <c r="BN4" s="117"/>
-      <c r="BO4" s="117"/>
-      <c r="BP4" s="117"/>
-      <c r="BQ4" s="117"/>
-      <c r="BR4" s="117"/>
-      <c r="BS4" s="117"/>
-      <c r="BT4" s="117"/>
-      <c r="BU4" s="117"/>
-      <c r="BV4" s="117"/>
-      <c r="BW4" s="117"/>
-      <c r="BX4" s="118"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="121"/>
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="121"/>
+      <c r="Y4" s="121"/>
+      <c r="Z4" s="121"/>
+      <c r="AA4" s="121"/>
+      <c r="AB4" s="121"/>
+      <c r="AC4" s="121"/>
+      <c r="AD4" s="121"/>
+      <c r="AE4" s="121"/>
+      <c r="AF4" s="121"/>
+      <c r="AG4" s="121"/>
+      <c r="AH4" s="121"/>
+      <c r="AI4" s="121"/>
+      <c r="AJ4" s="121"/>
+      <c r="AK4" s="121"/>
+      <c r="AL4" s="121"/>
+      <c r="AM4" s="121"/>
+      <c r="AN4" s="121"/>
+      <c r="AO4" s="121"/>
+      <c r="AP4" s="121"/>
+      <c r="AQ4" s="121"/>
+      <c r="AR4" s="121"/>
+      <c r="AS4" s="121"/>
+      <c r="AT4" s="121"/>
+      <c r="AU4" s="121"/>
+      <c r="AV4" s="121"/>
+      <c r="AW4" s="121"/>
+      <c r="AX4" s="121"/>
+      <c r="AY4" s="121"/>
+      <c r="AZ4" s="121"/>
+      <c r="BA4" s="121"/>
+      <c r="BB4" s="121"/>
+      <c r="BC4" s="121"/>
+      <c r="BD4" s="121"/>
+      <c r="BE4" s="121"/>
+      <c r="BF4" s="121"/>
+      <c r="BG4" s="121"/>
+      <c r="BH4" s="121"/>
+      <c r="BI4" s="121"/>
+      <c r="BJ4" s="121"/>
+      <c r="BK4" s="121"/>
+      <c r="BL4" s="121"/>
+      <c r="BM4" s="121"/>
+      <c r="BN4" s="121"/>
+      <c r="BO4" s="121"/>
+      <c r="BP4" s="121"/>
+      <c r="BQ4" s="121"/>
+      <c r="BR4" s="121"/>
+      <c r="BS4" s="121"/>
+      <c r="BT4" s="121"/>
+      <c r="BU4" s="121"/>
+      <c r="BV4" s="121"/>
+      <c r="BW4" s="121"/>
+      <c r="BX4" s="122"/>
     </row>
     <row r="5" spans="2:76" ht="16.5">
-      <c r="B5" s="112">
+      <c r="B5" s="116">
         <v>1</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="115" t="s">
+      <c r="C5" s="117"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
-      <c r="AF5" s="77"/>
-      <c r="AG5" s="75"/>
-      <c r="AH5" s="76"/>
-      <c r="AI5" s="76"/>
-      <c r="AJ5" s="76"/>
-      <c r="AK5" s="77"/>
-      <c r="AL5" s="75"/>
-      <c r="AM5" s="76"/>
-      <c r="AN5" s="76"/>
-      <c r="AO5" s="76"/>
-      <c r="AP5" s="77"/>
-      <c r="AQ5" s="87"/>
-      <c r="AR5" s="76"/>
-      <c r="AS5" s="76"/>
-      <c r="AT5" s="76"/>
-      <c r="AU5" s="77"/>
-      <c r="AV5" s="87"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="77"/>
-      <c r="BA5" s="87"/>
-      <c r="BB5" s="76"/>
-      <c r="BC5" s="76"/>
-      <c r="BD5" s="76"/>
-      <c r="BE5" s="77"/>
-      <c r="BF5" s="122" t="s">
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="81"/>
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="80"/>
+      <c r="AJ5" s="80"/>
+      <c r="AK5" s="81"/>
+      <c r="AL5" s="79"/>
+      <c r="AM5" s="80"/>
+      <c r="AN5" s="80"/>
+      <c r="AO5" s="80"/>
+      <c r="AP5" s="81"/>
+      <c r="AQ5" s="91"/>
+      <c r="AR5" s="80"/>
+      <c r="AS5" s="80"/>
+      <c r="AT5" s="80"/>
+      <c r="AU5" s="81"/>
+      <c r="AV5" s="91"/>
+      <c r="AW5" s="80"/>
+      <c r="AX5" s="80"/>
+      <c r="AY5" s="80"/>
+      <c r="AZ5" s="81"/>
+      <c r="BA5" s="91"/>
+      <c r="BB5" s="80"/>
+      <c r="BC5" s="80"/>
+      <c r="BD5" s="80"/>
+      <c r="BE5" s="81"/>
+      <c r="BF5" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="BG5" s="123"/>
-      <c r="BH5" s="124"/>
-      <c r="BI5" s="75"/>
-      <c r="BJ5" s="76"/>
-      <c r="BK5" s="76"/>
-      <c r="BL5" s="76"/>
-      <c r="BM5" s="77"/>
-      <c r="BN5" s="115"/>
-      <c r="BO5" s="80"/>
-      <c r="BP5" s="80"/>
-      <c r="BQ5" s="80"/>
-      <c r="BR5" s="80"/>
-      <c r="BS5" s="80"/>
-      <c r="BT5" s="80"/>
-      <c r="BU5" s="80"/>
-      <c r="BV5" s="80"/>
-      <c r="BW5" s="80"/>
-      <c r="BX5" s="81"/>
+      <c r="BG5" s="127"/>
+      <c r="BH5" s="128"/>
+      <c r="BI5" s="79"/>
+      <c r="BJ5" s="80"/>
+      <c r="BK5" s="80"/>
+      <c r="BL5" s="80"/>
+      <c r="BM5" s="81"/>
+      <c r="BN5" s="119"/>
+      <c r="BO5" s="84"/>
+      <c r="BP5" s="84"/>
+      <c r="BQ5" s="84"/>
+      <c r="BR5" s="84"/>
+      <c r="BS5" s="84"/>
+      <c r="BT5" s="84"/>
+      <c r="BU5" s="84"/>
+      <c r="BV5" s="84"/>
+      <c r="BW5" s="84"/>
+      <c r="BX5" s="85"/>
     </row>
     <row r="6" spans="2:76" ht="16.5">
-      <c r="B6" s="95">
+      <c r="B6" s="99">
         <v>2</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="98" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="89"/>
-      <c r="Z6" s="89"/>
-      <c r="AA6" s="90"/>
-      <c r="AB6" s="88"/>
-      <c r="AC6" s="89"/>
-      <c r="AD6" s="89"/>
-      <c r="AE6" s="89"/>
-      <c r="AF6" s="90"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="89"/>
-      <c r="AI6" s="89"/>
-      <c r="AJ6" s="89"/>
-      <c r="AK6" s="90"/>
-      <c r="AL6" s="88"/>
-      <c r="AM6" s="89"/>
-      <c r="AN6" s="89"/>
-      <c r="AO6" s="89"/>
-      <c r="AP6" s="90"/>
-      <c r="AQ6" s="88"/>
-      <c r="AR6" s="89"/>
-      <c r="AS6" s="89"/>
-      <c r="AT6" s="89"/>
-      <c r="AU6" s="90"/>
-      <c r="AV6" s="88"/>
-      <c r="AW6" s="89"/>
-      <c r="AX6" s="89"/>
-      <c r="AY6" s="89"/>
-      <c r="AZ6" s="90"/>
-      <c r="BA6" s="88"/>
-      <c r="BB6" s="89"/>
-      <c r="BC6" s="89"/>
-      <c r="BD6" s="89"/>
-      <c r="BE6" s="90"/>
-      <c r="BF6" s="91" t="s">
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="93"/>
+      <c r="Y6" s="93"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="93"/>
+      <c r="AD6" s="93"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="94"/>
+      <c r="AG6" s="92"/>
+      <c r="AH6" s="93"/>
+      <c r="AI6" s="93"/>
+      <c r="AJ6" s="93"/>
+      <c r="AK6" s="94"/>
+      <c r="AL6" s="92"/>
+      <c r="AM6" s="93"/>
+      <c r="AN6" s="93"/>
+      <c r="AO6" s="93"/>
+      <c r="AP6" s="94"/>
+      <c r="AQ6" s="92"/>
+      <c r="AR6" s="93"/>
+      <c r="AS6" s="93"/>
+      <c r="AT6" s="93"/>
+      <c r="AU6" s="94"/>
+      <c r="AV6" s="92"/>
+      <c r="AW6" s="93"/>
+      <c r="AX6" s="93"/>
+      <c r="AY6" s="93"/>
+      <c r="AZ6" s="94"/>
+      <c r="BA6" s="92"/>
+      <c r="BB6" s="93"/>
+      <c r="BC6" s="93"/>
+      <c r="BD6" s="93"/>
+      <c r="BE6" s="94"/>
+      <c r="BF6" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="BG6" s="92"/>
-      <c r="BH6" s="92"/>
-      <c r="BI6" s="88"/>
-      <c r="BJ6" s="89"/>
-      <c r="BK6" s="89"/>
-      <c r="BL6" s="89"/>
-      <c r="BM6" s="90"/>
-      <c r="BN6" s="93"/>
-      <c r="BO6" s="93"/>
-      <c r="BP6" s="93"/>
-      <c r="BQ6" s="93"/>
-      <c r="BR6" s="93"/>
-      <c r="BS6" s="93"/>
-      <c r="BT6" s="93"/>
-      <c r="BU6" s="93"/>
-      <c r="BV6" s="93"/>
-      <c r="BW6" s="93"/>
-      <c r="BX6" s="94"/>
+      <c r="BG6" s="96"/>
+      <c r="BH6" s="96"/>
+      <c r="BI6" s="92"/>
+      <c r="BJ6" s="93"/>
+      <c r="BK6" s="93"/>
+      <c r="BL6" s="93"/>
+      <c r="BM6" s="94"/>
+      <c r="BN6" s="97"/>
+      <c r="BO6" s="97"/>
+      <c r="BP6" s="97"/>
+      <c r="BQ6" s="97"/>
+      <c r="BR6" s="97"/>
+      <c r="BS6" s="97"/>
+      <c r="BT6" s="97"/>
+      <c r="BU6" s="97"/>
+      <c r="BV6" s="97"/>
+      <c r="BW6" s="97"/>
+      <c r="BX6" s="98"/>
     </row>
     <row r="7" spans="2:76" ht="16.5">
-      <c r="B7" s="95">
+      <c r="B7" s="99">
         <v>3</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="88"/>
-      <c r="AC7" s="89"/>
-      <c r="AD7" s="89"/>
-      <c r="AE7" s="89"/>
-      <c r="AF7" s="90"/>
-      <c r="AG7" s="99"/>
-      <c r="AH7" s="89"/>
-      <c r="AI7" s="89"/>
-      <c r="AJ7" s="89"/>
-      <c r="AK7" s="90"/>
-      <c r="AL7" s="88"/>
-      <c r="AM7" s="89"/>
-      <c r="AN7" s="89"/>
-      <c r="AO7" s="89"/>
-      <c r="AP7" s="90"/>
-      <c r="AQ7" s="88"/>
-      <c r="AR7" s="89"/>
-      <c r="AS7" s="89"/>
-      <c r="AT7" s="89"/>
-      <c r="AU7" s="90"/>
-      <c r="AV7" s="88"/>
-      <c r="AW7" s="89"/>
-      <c r="AX7" s="89"/>
-      <c r="AY7" s="89"/>
-      <c r="AZ7" s="90"/>
-      <c r="BA7" s="88"/>
-      <c r="BB7" s="89"/>
-      <c r="BC7" s="89"/>
-      <c r="BD7" s="89"/>
-      <c r="BE7" s="90"/>
-      <c r="BF7" s="91" t="s">
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="103"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="94"/>
+      <c r="AL7" s="92"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="93"/>
+      <c r="AO7" s="93"/>
+      <c r="AP7" s="94"/>
+      <c r="AQ7" s="92"/>
+      <c r="AR7" s="93"/>
+      <c r="AS7" s="93"/>
+      <c r="AT7" s="93"/>
+      <c r="AU7" s="94"/>
+      <c r="AV7" s="92"/>
+      <c r="AW7" s="93"/>
+      <c r="AX7" s="93"/>
+      <c r="AY7" s="93"/>
+      <c r="AZ7" s="94"/>
+      <c r="BA7" s="92"/>
+      <c r="BB7" s="93"/>
+      <c r="BC7" s="93"/>
+      <c r="BD7" s="93"/>
+      <c r="BE7" s="94"/>
+      <c r="BF7" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="BG7" s="92"/>
-      <c r="BH7" s="92"/>
-      <c r="BI7" s="88"/>
-      <c r="BJ7" s="89"/>
-      <c r="BK7" s="89"/>
-      <c r="BL7" s="89"/>
-      <c r="BM7" s="90"/>
-      <c r="BN7" s="93"/>
-      <c r="BO7" s="93"/>
-      <c r="BP7" s="93"/>
-      <c r="BQ7" s="93"/>
-      <c r="BR7" s="93"/>
-      <c r="BS7" s="93"/>
-      <c r="BT7" s="93"/>
-      <c r="BU7" s="93"/>
-      <c r="BV7" s="93"/>
-      <c r="BW7" s="93"/>
-      <c r="BX7" s="94"/>
+      <c r="BG7" s="96"/>
+      <c r="BH7" s="96"/>
+      <c r="BI7" s="92"/>
+      <c r="BJ7" s="93"/>
+      <c r="BK7" s="93"/>
+      <c r="BL7" s="93"/>
+      <c r="BM7" s="94"/>
+      <c r="BN7" s="97"/>
+      <c r="BO7" s="97"/>
+      <c r="BP7" s="97"/>
+      <c r="BQ7" s="97"/>
+      <c r="BR7" s="97"/>
+      <c r="BS7" s="97"/>
+      <c r="BT7" s="97"/>
+      <c r="BU7" s="97"/>
+      <c r="BV7" s="97"/>
+      <c r="BW7" s="97"/>
+      <c r="BX7" s="98"/>
     </row>
     <row r="8" spans="2:76" ht="35.1" customHeight="1">
-      <c r="B8" s="95">
+      <c r="B8" s="99">
         <v>4</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98" t="s">
+      <c r="C8" s="100"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="89"/>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="89"/>
-      <c r="AD8" s="89"/>
-      <c r="AE8" s="89"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="99"/>
-      <c r="AH8" s="89"/>
-      <c r="AI8" s="89"/>
-      <c r="AJ8" s="89"/>
-      <c r="AK8" s="90"/>
-      <c r="AL8" s="88"/>
-      <c r="AM8" s="89"/>
-      <c r="AN8" s="89"/>
-      <c r="AO8" s="89"/>
-      <c r="AP8" s="90"/>
-      <c r="AQ8" s="88"/>
-      <c r="AR8" s="89"/>
-      <c r="AS8" s="89"/>
-      <c r="AT8" s="89"/>
-      <c r="AU8" s="90"/>
-      <c r="AV8" s="88"/>
-      <c r="AW8" s="89"/>
-      <c r="AX8" s="89"/>
-      <c r="AY8" s="89"/>
-      <c r="AZ8" s="90"/>
-      <c r="BA8" s="88"/>
-      <c r="BB8" s="89"/>
-      <c r="BC8" s="89"/>
-      <c r="BD8" s="89"/>
-      <c r="BE8" s="90"/>
-      <c r="BF8" s="91" t="s">
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="94"/>
+      <c r="AG8" s="103"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="93"/>
+      <c r="AJ8" s="93"/>
+      <c r="AK8" s="94"/>
+      <c r="AL8" s="92"/>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="93"/>
+      <c r="AO8" s="93"/>
+      <c r="AP8" s="94"/>
+      <c r="AQ8" s="92"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="93"/>
+      <c r="AT8" s="93"/>
+      <c r="AU8" s="94"/>
+      <c r="AV8" s="92"/>
+      <c r="AW8" s="93"/>
+      <c r="AX8" s="93"/>
+      <c r="AY8" s="93"/>
+      <c r="AZ8" s="94"/>
+      <c r="BA8" s="92"/>
+      <c r="BB8" s="93"/>
+      <c r="BC8" s="93"/>
+      <c r="BD8" s="93"/>
+      <c r="BE8" s="94"/>
+      <c r="BF8" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="BG8" s="92"/>
-      <c r="BH8" s="92"/>
-      <c r="BI8" s="88"/>
-      <c r="BJ8" s="89"/>
-      <c r="BK8" s="89"/>
-      <c r="BL8" s="89"/>
-      <c r="BM8" s="90"/>
-      <c r="BN8" s="93"/>
-      <c r="BO8" s="93"/>
-      <c r="BP8" s="93"/>
-      <c r="BQ8" s="93"/>
-      <c r="BR8" s="93"/>
-      <c r="BS8" s="93"/>
-      <c r="BT8" s="93"/>
-      <c r="BU8" s="93"/>
-      <c r="BV8" s="93"/>
-      <c r="BW8" s="93"/>
-      <c r="BX8" s="94"/>
+      <c r="BG8" s="96"/>
+      <c r="BH8" s="96"/>
+      <c r="BI8" s="92"/>
+      <c r="BJ8" s="93"/>
+      <c r="BK8" s="93"/>
+      <c r="BL8" s="93"/>
+      <c r="BM8" s="94"/>
+      <c r="BN8" s="97"/>
+      <c r="BO8" s="97"/>
+      <c r="BP8" s="97"/>
+      <c r="BQ8" s="97"/>
+      <c r="BR8" s="97"/>
+      <c r="BS8" s="97"/>
+      <c r="BT8" s="97"/>
+      <c r="BU8" s="97"/>
+      <c r="BV8" s="97"/>
+      <c r="BW8" s="97"/>
+      <c r="BX8" s="98"/>
     </row>
     <row r="9" spans="2:76" ht="35.1" customHeight="1">
-      <c r="B9" s="95">
+      <c r="B9" s="99">
         <v>5</v>
       </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="98" t="s">
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="88"/>
-      <c r="AC9" s="89"/>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="89"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="99"/>
-      <c r="AH9" s="89"/>
-      <c r="AI9" s="89"/>
-      <c r="AJ9" s="89"/>
-      <c r="AK9" s="90"/>
-      <c r="AL9" s="88"/>
-      <c r="AM9" s="89"/>
-      <c r="AN9" s="89"/>
-      <c r="AO9" s="89"/>
-      <c r="AP9" s="90"/>
-      <c r="AQ9" s="88"/>
-      <c r="AR9" s="89"/>
-      <c r="AS9" s="89"/>
-      <c r="AT9" s="89"/>
-      <c r="AU9" s="90"/>
-      <c r="AV9" s="88"/>
-      <c r="AW9" s="89"/>
-      <c r="AX9" s="89"/>
-      <c r="AY9" s="89"/>
-      <c r="AZ9" s="90"/>
-      <c r="BA9" s="88"/>
-      <c r="BB9" s="89"/>
-      <c r="BC9" s="89"/>
-      <c r="BD9" s="89"/>
-      <c r="BE9" s="90"/>
-      <c r="BF9" s="91" t="s">
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="94"/>
+      <c r="AG9" s="103"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="93"/>
+      <c r="AJ9" s="93"/>
+      <c r="AK9" s="94"/>
+      <c r="AL9" s="92"/>
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="93"/>
+      <c r="AO9" s="93"/>
+      <c r="AP9" s="94"/>
+      <c r="AQ9" s="92"/>
+      <c r="AR9" s="93"/>
+      <c r="AS9" s="93"/>
+      <c r="AT9" s="93"/>
+      <c r="AU9" s="94"/>
+      <c r="AV9" s="92"/>
+      <c r="AW9" s="93"/>
+      <c r="AX9" s="93"/>
+      <c r="AY9" s="93"/>
+      <c r="AZ9" s="94"/>
+      <c r="BA9" s="92"/>
+      <c r="BB9" s="93"/>
+      <c r="BC9" s="93"/>
+      <c r="BD9" s="93"/>
+      <c r="BE9" s="94"/>
+      <c r="BF9" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="BG9" s="92"/>
-      <c r="BH9" s="92"/>
-      <c r="BI9" s="88"/>
-      <c r="BJ9" s="89"/>
-      <c r="BK9" s="89"/>
-      <c r="BL9" s="89"/>
-      <c r="BM9" s="90"/>
-      <c r="BN9" s="93"/>
-      <c r="BO9" s="93"/>
-      <c r="BP9" s="93"/>
-      <c r="BQ9" s="93"/>
-      <c r="BR9" s="93"/>
-      <c r="BS9" s="93"/>
-      <c r="BT9" s="93"/>
-      <c r="BU9" s="93"/>
-      <c r="BV9" s="93"/>
-      <c r="BW9" s="93"/>
-      <c r="BX9" s="94"/>
+      <c r="BG9" s="96"/>
+      <c r="BH9" s="96"/>
+      <c r="BI9" s="92"/>
+      <c r="BJ9" s="93"/>
+      <c r="BK9" s="93"/>
+      <c r="BL9" s="93"/>
+      <c r="BM9" s="94"/>
+      <c r="BN9" s="97"/>
+      <c r="BO9" s="97"/>
+      <c r="BP9" s="97"/>
+      <c r="BQ9" s="97"/>
+      <c r="BR9" s="97"/>
+      <c r="BS9" s="97"/>
+      <c r="BT9" s="97"/>
+      <c r="BU9" s="97"/>
+      <c r="BV9" s="97"/>
+      <c r="BW9" s="97"/>
+      <c r="BX9" s="98"/>
     </row>
     <row r="10" spans="2:76" ht="16.5">
-      <c r="B10" s="95">
+      <c r="B10" s="99">
         <v>6</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="98" t="s">
+      <c r="C10" s="100"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="90"/>
-      <c r="AB10" s="88"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="90"/>
-      <c r="AG10" s="99"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="90"/>
-      <c r="AL10" s="88"/>
-      <c r="AM10" s="89"/>
-      <c r="AN10" s="89"/>
-      <c r="AO10" s="89"/>
-      <c r="AP10" s="90"/>
-      <c r="AQ10" s="88"/>
-      <c r="AR10" s="89"/>
-      <c r="AS10" s="89"/>
-      <c r="AT10" s="89"/>
-      <c r="AU10" s="90"/>
-      <c r="AV10" s="88"/>
-      <c r="AW10" s="89"/>
-      <c r="AX10" s="89"/>
-      <c r="AY10" s="89"/>
-      <c r="AZ10" s="90"/>
-      <c r="BA10" s="88"/>
-      <c r="BB10" s="89"/>
-      <c r="BC10" s="89"/>
-      <c r="BD10" s="89"/>
-      <c r="BE10" s="90"/>
-      <c r="BF10" s="91" t="s">
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="93"/>
+      <c r="AD10" s="93"/>
+      <c r="AE10" s="93"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="103"/>
+      <c r="AH10" s="93"/>
+      <c r="AI10" s="93"/>
+      <c r="AJ10" s="93"/>
+      <c r="AK10" s="94"/>
+      <c r="AL10" s="92"/>
+      <c r="AM10" s="93"/>
+      <c r="AN10" s="93"/>
+      <c r="AO10" s="93"/>
+      <c r="AP10" s="94"/>
+      <c r="AQ10" s="92"/>
+      <c r="AR10" s="93"/>
+      <c r="AS10" s="93"/>
+      <c r="AT10" s="93"/>
+      <c r="AU10" s="94"/>
+      <c r="AV10" s="92"/>
+      <c r="AW10" s="93"/>
+      <c r="AX10" s="93"/>
+      <c r="AY10" s="93"/>
+      <c r="AZ10" s="94"/>
+      <c r="BA10" s="92"/>
+      <c r="BB10" s="93"/>
+      <c r="BC10" s="93"/>
+      <c r="BD10" s="93"/>
+      <c r="BE10" s="94"/>
+      <c r="BF10" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="BG10" s="92"/>
-      <c r="BH10" s="92"/>
-      <c r="BI10" s="88"/>
-      <c r="BJ10" s="89"/>
-      <c r="BK10" s="89"/>
-      <c r="BL10" s="89"/>
-      <c r="BM10" s="90"/>
-      <c r="BN10" s="93"/>
-      <c r="BO10" s="93"/>
-      <c r="BP10" s="93"/>
-      <c r="BQ10" s="93"/>
-      <c r="BR10" s="93"/>
-      <c r="BS10" s="93"/>
-      <c r="BT10" s="93"/>
-      <c r="BU10" s="93"/>
-      <c r="BV10" s="93"/>
-      <c r="BW10" s="93"/>
-      <c r="BX10" s="94"/>
+      <c r="BG10" s="96"/>
+      <c r="BH10" s="96"/>
+      <c r="BI10" s="92"/>
+      <c r="BJ10" s="93"/>
+      <c r="BK10" s="93"/>
+      <c r="BL10" s="93"/>
+      <c r="BM10" s="94"/>
+      <c r="BN10" s="97"/>
+      <c r="BO10" s="97"/>
+      <c r="BP10" s="97"/>
+      <c r="BQ10" s="97"/>
+      <c r="BR10" s="97"/>
+      <c r="BS10" s="97"/>
+      <c r="BT10" s="97"/>
+      <c r="BU10" s="97"/>
+      <c r="BV10" s="97"/>
+      <c r="BW10" s="97"/>
+      <c r="BX10" s="98"/>
     </row>
     <row r="11" spans="2:76" ht="16.5">
-      <c r="B11" s="95">
+      <c r="B11" s="99">
         <v>7</v>
       </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="98" t="s">
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="89"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="89"/>
-      <c r="AE11" s="89"/>
-      <c r="AF11" s="90"/>
-      <c r="AG11" s="99"/>
-      <c r="AH11" s="89"/>
-      <c r="AI11" s="89"/>
-      <c r="AJ11" s="89"/>
-      <c r="AK11" s="90"/>
-      <c r="AL11" s="88"/>
-      <c r="AM11" s="89"/>
-      <c r="AN11" s="89"/>
-      <c r="AO11" s="89"/>
-      <c r="AP11" s="90"/>
-      <c r="AQ11" s="88"/>
-      <c r="AR11" s="89"/>
-      <c r="AS11" s="89"/>
-      <c r="AT11" s="89"/>
-      <c r="AU11" s="90"/>
-      <c r="AV11" s="88"/>
-      <c r="AW11" s="89"/>
-      <c r="AX11" s="89"/>
-      <c r="AY11" s="89"/>
-      <c r="AZ11" s="90"/>
-      <c r="BA11" s="88"/>
-      <c r="BB11" s="89"/>
-      <c r="BC11" s="89"/>
-      <c r="BD11" s="89"/>
-      <c r="BE11" s="90"/>
-      <c r="BF11" s="91" t="s">
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="94"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="93"/>
+      <c r="AD11" s="93"/>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="103"/>
+      <c r="AH11" s="93"/>
+      <c r="AI11" s="93"/>
+      <c r="AJ11" s="93"/>
+      <c r="AK11" s="94"/>
+      <c r="AL11" s="92"/>
+      <c r="AM11" s="93"/>
+      <c r="AN11" s="93"/>
+      <c r="AO11" s="93"/>
+      <c r="AP11" s="94"/>
+      <c r="AQ11" s="92"/>
+      <c r="AR11" s="93"/>
+      <c r="AS11" s="93"/>
+      <c r="AT11" s="93"/>
+      <c r="AU11" s="94"/>
+      <c r="AV11" s="92"/>
+      <c r="AW11" s="93"/>
+      <c r="AX11" s="93"/>
+      <c r="AY11" s="93"/>
+      <c r="AZ11" s="94"/>
+      <c r="BA11" s="92"/>
+      <c r="BB11" s="93"/>
+      <c r="BC11" s="93"/>
+      <c r="BD11" s="93"/>
+      <c r="BE11" s="94"/>
+      <c r="BF11" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="BG11" s="92"/>
-      <c r="BH11" s="92"/>
-      <c r="BI11" s="88"/>
-      <c r="BJ11" s="89"/>
-      <c r="BK11" s="89"/>
-      <c r="BL11" s="89"/>
-      <c r="BM11" s="90"/>
-      <c r="BN11" s="93"/>
-      <c r="BO11" s="93"/>
-      <c r="BP11" s="93"/>
-      <c r="BQ11" s="93"/>
-      <c r="BR11" s="93"/>
-      <c r="BS11" s="93"/>
-      <c r="BT11" s="93"/>
-      <c r="BU11" s="93"/>
-      <c r="BV11" s="93"/>
-      <c r="BW11" s="93"/>
-      <c r="BX11" s="94"/>
+      <c r="BG11" s="96"/>
+      <c r="BH11" s="96"/>
+      <c r="BI11" s="92"/>
+      <c r="BJ11" s="93"/>
+      <c r="BK11" s="93"/>
+      <c r="BL11" s="93"/>
+      <c r="BM11" s="94"/>
+      <c r="BN11" s="97"/>
+      <c r="BO11" s="97"/>
+      <c r="BP11" s="97"/>
+      <c r="BQ11" s="97"/>
+      <c r="BR11" s="97"/>
+      <c r="BS11" s="97"/>
+      <c r="BT11" s="97"/>
+      <c r="BU11" s="97"/>
+      <c r="BV11" s="97"/>
+      <c r="BW11" s="97"/>
+      <c r="BX11" s="98"/>
     </row>
     <row r="12" spans="2:76" ht="16.5">
-      <c r="B12" s="95">
+      <c r="B12" s="99">
         <v>8</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="98" t="s">
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="90"/>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="89"/>
-      <c r="AE12" s="89"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="99"/>
-      <c r="AH12" s="89"/>
-      <c r="AI12" s="89"/>
-      <c r="AJ12" s="89"/>
-      <c r="AK12" s="90"/>
-      <c r="AL12" s="88"/>
-      <c r="AM12" s="89"/>
-      <c r="AN12" s="89"/>
-      <c r="AO12" s="89"/>
-      <c r="AP12" s="90"/>
-      <c r="AQ12" s="99"/>
-      <c r="AR12" s="89"/>
-      <c r="AS12" s="89"/>
-      <c r="AT12" s="89"/>
-      <c r="AU12" s="90"/>
-      <c r="AV12" s="99"/>
-      <c r="AW12" s="89"/>
-      <c r="AX12" s="89"/>
-      <c r="AY12" s="89"/>
-      <c r="AZ12" s="90"/>
-      <c r="BA12" s="99"/>
-      <c r="BB12" s="89"/>
-      <c r="BC12" s="89"/>
-      <c r="BD12" s="89"/>
-      <c r="BE12" s="90"/>
-      <c r="BF12" s="125" t="s">
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="103"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="103"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="103"/>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="93"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="103"/>
+      <c r="AH12" s="93"/>
+      <c r="AI12" s="93"/>
+      <c r="AJ12" s="93"/>
+      <c r="AK12" s="94"/>
+      <c r="AL12" s="92"/>
+      <c r="AM12" s="93"/>
+      <c r="AN12" s="93"/>
+      <c r="AO12" s="93"/>
+      <c r="AP12" s="94"/>
+      <c r="AQ12" s="103"/>
+      <c r="AR12" s="93"/>
+      <c r="AS12" s="93"/>
+      <c r="AT12" s="93"/>
+      <c r="AU12" s="94"/>
+      <c r="AV12" s="103"/>
+      <c r="AW12" s="93"/>
+      <c r="AX12" s="93"/>
+      <c r="AY12" s="93"/>
+      <c r="AZ12" s="94"/>
+      <c r="BA12" s="103"/>
+      <c r="BB12" s="93"/>
+      <c r="BC12" s="93"/>
+      <c r="BD12" s="93"/>
+      <c r="BE12" s="94"/>
+      <c r="BF12" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="BG12" s="126"/>
-      <c r="BH12" s="127"/>
-      <c r="BI12" s="88"/>
-      <c r="BJ12" s="89"/>
-      <c r="BK12" s="89"/>
-      <c r="BL12" s="89"/>
-      <c r="BM12" s="90"/>
-      <c r="BN12" s="98"/>
-      <c r="BO12" s="93"/>
-      <c r="BP12" s="93"/>
-      <c r="BQ12" s="93"/>
-      <c r="BR12" s="93"/>
-      <c r="BS12" s="93"/>
-      <c r="BT12" s="93"/>
-      <c r="BU12" s="93"/>
-      <c r="BV12" s="93"/>
-      <c r="BW12" s="93"/>
-      <c r="BX12" s="94"/>
+      <c r="BG12" s="130"/>
+      <c r="BH12" s="131"/>
+      <c r="BI12" s="92"/>
+      <c r="BJ12" s="93"/>
+      <c r="BK12" s="93"/>
+      <c r="BL12" s="93"/>
+      <c r="BM12" s="94"/>
+      <c r="BN12" s="102"/>
+      <c r="BO12" s="97"/>
+      <c r="BP12" s="97"/>
+      <c r="BQ12" s="97"/>
+      <c r="BR12" s="97"/>
+      <c r="BS12" s="97"/>
+      <c r="BT12" s="97"/>
+      <c r="BU12" s="97"/>
+      <c r="BV12" s="97"/>
+      <c r="BW12" s="97"/>
+      <c r="BX12" s="98"/>
     </row>
     <row r="13" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B13" s="95">
+      <c r="B13" s="99">
         <v>9</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="98" t="s">
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="90"/>
-      <c r="AB13" s="88"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="89"/>
-      <c r="AE13" s="89"/>
-      <c r="AF13" s="90"/>
-      <c r="AG13" s="99"/>
-      <c r="AH13" s="89"/>
-      <c r="AI13" s="89"/>
-      <c r="AJ13" s="89"/>
-      <c r="AK13" s="90"/>
-      <c r="AL13" s="88"/>
-      <c r="AM13" s="89"/>
-      <c r="AN13" s="89"/>
-      <c r="AO13" s="89"/>
-      <c r="AP13" s="90"/>
-      <c r="AQ13" s="88"/>
-      <c r="AR13" s="89"/>
-      <c r="AS13" s="89"/>
-      <c r="AT13" s="89"/>
-      <c r="AU13" s="90"/>
-      <c r="AV13" s="88"/>
-      <c r="AW13" s="89"/>
-      <c r="AX13" s="89"/>
-      <c r="AY13" s="89"/>
-      <c r="AZ13" s="90"/>
-      <c r="BA13" s="88"/>
-      <c r="BB13" s="89"/>
-      <c r="BC13" s="89"/>
-      <c r="BD13" s="89"/>
-      <c r="BE13" s="90"/>
-      <c r="BF13" s="91" t="s">
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="92"/>
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="103"/>
+      <c r="AH13" s="93"/>
+      <c r="AI13" s="93"/>
+      <c r="AJ13" s="93"/>
+      <c r="AK13" s="94"/>
+      <c r="AL13" s="92"/>
+      <c r="AM13" s="93"/>
+      <c r="AN13" s="93"/>
+      <c r="AO13" s="93"/>
+      <c r="AP13" s="94"/>
+      <c r="AQ13" s="92"/>
+      <c r="AR13" s="93"/>
+      <c r="AS13" s="93"/>
+      <c r="AT13" s="93"/>
+      <c r="AU13" s="94"/>
+      <c r="AV13" s="92"/>
+      <c r="AW13" s="93"/>
+      <c r="AX13" s="93"/>
+      <c r="AY13" s="93"/>
+      <c r="AZ13" s="94"/>
+      <c r="BA13" s="92"/>
+      <c r="BB13" s="93"/>
+      <c r="BC13" s="93"/>
+      <c r="BD13" s="93"/>
+      <c r="BE13" s="94"/>
+      <c r="BF13" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="BG13" s="92"/>
-      <c r="BH13" s="92"/>
-      <c r="BI13" s="88"/>
-      <c r="BJ13" s="89"/>
-      <c r="BK13" s="89"/>
-      <c r="BL13" s="89"/>
-      <c r="BM13" s="90"/>
-      <c r="BN13" s="93"/>
-      <c r="BO13" s="93"/>
-      <c r="BP13" s="93"/>
-      <c r="BQ13" s="93"/>
-      <c r="BR13" s="93"/>
-      <c r="BS13" s="93"/>
-      <c r="BT13" s="93"/>
-      <c r="BU13" s="93"/>
-      <c r="BV13" s="93"/>
-      <c r="BW13" s="93"/>
-      <c r="BX13" s="94"/>
+      <c r="BG13" s="96"/>
+      <c r="BH13" s="96"/>
+      <c r="BI13" s="92"/>
+      <c r="BJ13" s="93"/>
+      <c r="BK13" s="93"/>
+      <c r="BL13" s="93"/>
+      <c r="BM13" s="94"/>
+      <c r="BN13" s="97"/>
+      <c r="BO13" s="97"/>
+      <c r="BP13" s="97"/>
+      <c r="BQ13" s="97"/>
+      <c r="BR13" s="97"/>
+      <c r="BS13" s="97"/>
+      <c r="BT13" s="97"/>
+      <c r="BU13" s="97"/>
+      <c r="BV13" s="97"/>
+      <c r="BW13" s="97"/>
+      <c r="BX13" s="98"/>
     </row>
     <row r="14" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B14" s="95">
+      <c r="B14" s="99">
         <v>10</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="98" t="s">
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="88"/>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="89"/>
-      <c r="AE14" s="89"/>
-      <c r="AF14" s="90"/>
-      <c r="AG14" s="99"/>
-      <c r="AH14" s="89"/>
-      <c r="AI14" s="89"/>
-      <c r="AJ14" s="89"/>
-      <c r="AK14" s="90"/>
-      <c r="AL14" s="88"/>
-      <c r="AM14" s="89"/>
-      <c r="AN14" s="89"/>
-      <c r="AO14" s="89"/>
-      <c r="AP14" s="90"/>
-      <c r="AQ14" s="88"/>
-      <c r="AR14" s="89"/>
-      <c r="AS14" s="89"/>
-      <c r="AT14" s="89"/>
-      <c r="AU14" s="90"/>
-      <c r="AV14" s="88"/>
-      <c r="AW14" s="89"/>
-      <c r="AX14" s="89"/>
-      <c r="AY14" s="89"/>
-      <c r="AZ14" s="90"/>
-      <c r="BA14" s="88"/>
-      <c r="BB14" s="89"/>
-      <c r="BC14" s="89"/>
-      <c r="BD14" s="89"/>
-      <c r="BE14" s="90"/>
-      <c r="BF14" s="91" t="s">
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="92"/>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="93"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="103"/>
+      <c r="AH14" s="93"/>
+      <c r="AI14" s="93"/>
+      <c r="AJ14" s="93"/>
+      <c r="AK14" s="94"/>
+      <c r="AL14" s="92"/>
+      <c r="AM14" s="93"/>
+      <c r="AN14" s="93"/>
+      <c r="AO14" s="93"/>
+      <c r="AP14" s="94"/>
+      <c r="AQ14" s="92"/>
+      <c r="AR14" s="93"/>
+      <c r="AS14" s="93"/>
+      <c r="AT14" s="93"/>
+      <c r="AU14" s="94"/>
+      <c r="AV14" s="92"/>
+      <c r="AW14" s="93"/>
+      <c r="AX14" s="93"/>
+      <c r="AY14" s="93"/>
+      <c r="AZ14" s="94"/>
+      <c r="BA14" s="92"/>
+      <c r="BB14" s="93"/>
+      <c r="BC14" s="93"/>
+      <c r="BD14" s="93"/>
+      <c r="BE14" s="94"/>
+      <c r="BF14" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="BG14" s="92"/>
-      <c r="BH14" s="92"/>
-      <c r="BI14" s="88"/>
-      <c r="BJ14" s="89"/>
-      <c r="BK14" s="89"/>
-      <c r="BL14" s="89"/>
-      <c r="BM14" s="90"/>
-      <c r="BN14" s="93"/>
-      <c r="BO14" s="93"/>
-      <c r="BP14" s="93"/>
-      <c r="BQ14" s="93"/>
-      <c r="BR14" s="93"/>
-      <c r="BS14" s="93"/>
-      <c r="BT14" s="93"/>
-      <c r="BU14" s="93"/>
-      <c r="BV14" s="93"/>
-      <c r="BW14" s="93"/>
-      <c r="BX14" s="94"/>
+      <c r="BG14" s="96"/>
+      <c r="BH14" s="96"/>
+      <c r="BI14" s="92"/>
+      <c r="BJ14" s="93"/>
+      <c r="BK14" s="93"/>
+      <c r="BL14" s="93"/>
+      <c r="BM14" s="94"/>
+      <c r="BN14" s="97"/>
+      <c r="BO14" s="97"/>
+      <c r="BP14" s="97"/>
+      <c r="BQ14" s="97"/>
+      <c r="BR14" s="97"/>
+      <c r="BS14" s="97"/>
+      <c r="BT14" s="97"/>
+      <c r="BU14" s="97"/>
+      <c r="BV14" s="97"/>
+      <c r="BW14" s="97"/>
+      <c r="BX14" s="98"/>
     </row>
     <row r="15" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B15" s="108">
+      <c r="B15" s="112">
         <v>11</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="111" t="s">
+      <c r="C15" s="113"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="102"/>
-      <c r="W15" s="100"/>
-      <c r="X15" s="101"/>
-      <c r="Y15" s="101"/>
-      <c r="Z15" s="101"/>
-      <c r="AA15" s="102"/>
-      <c r="AB15" s="100"/>
-      <c r="AC15" s="101"/>
-      <c r="AD15" s="101"/>
-      <c r="AE15" s="101"/>
-      <c r="AF15" s="102"/>
-      <c r="AG15" s="103"/>
-      <c r="AH15" s="101"/>
-      <c r="AI15" s="101"/>
-      <c r="AJ15" s="101"/>
-      <c r="AK15" s="102"/>
-      <c r="AL15" s="100"/>
-      <c r="AM15" s="101"/>
-      <c r="AN15" s="101"/>
-      <c r="AO15" s="101"/>
-      <c r="AP15" s="102"/>
-      <c r="AQ15" s="100"/>
-      <c r="AR15" s="101"/>
-      <c r="AS15" s="101"/>
-      <c r="AT15" s="101"/>
-      <c r="AU15" s="102"/>
-      <c r="AV15" s="100"/>
-      <c r="AW15" s="101"/>
-      <c r="AX15" s="101"/>
-      <c r="AY15" s="101"/>
-      <c r="AZ15" s="102"/>
-      <c r="BA15" s="100"/>
-      <c r="BB15" s="101"/>
-      <c r="BC15" s="101"/>
-      <c r="BD15" s="101"/>
-      <c r="BE15" s="102"/>
-      <c r="BF15" s="104" t="s">
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="106"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="105"/>
+      <c r="Y15" s="105"/>
+      <c r="Z15" s="105"/>
+      <c r="AA15" s="106"/>
+      <c r="AB15" s="104"/>
+      <c r="AC15" s="105"/>
+      <c r="AD15" s="105"/>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="106"/>
+      <c r="AG15" s="107"/>
+      <c r="AH15" s="105"/>
+      <c r="AI15" s="105"/>
+      <c r="AJ15" s="105"/>
+      <c r="AK15" s="106"/>
+      <c r="AL15" s="104"/>
+      <c r="AM15" s="105"/>
+      <c r="AN15" s="105"/>
+      <c r="AO15" s="105"/>
+      <c r="AP15" s="106"/>
+      <c r="AQ15" s="104"/>
+      <c r="AR15" s="105"/>
+      <c r="AS15" s="105"/>
+      <c r="AT15" s="105"/>
+      <c r="AU15" s="106"/>
+      <c r="AV15" s="104"/>
+      <c r="AW15" s="105"/>
+      <c r="AX15" s="105"/>
+      <c r="AY15" s="105"/>
+      <c r="AZ15" s="106"/>
+      <c r="BA15" s="104"/>
+      <c r="BB15" s="105"/>
+      <c r="BC15" s="105"/>
+      <c r="BD15" s="105"/>
+      <c r="BE15" s="106"/>
+      <c r="BF15" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="BG15" s="105"/>
-      <c r="BH15" s="105"/>
-      <c r="BI15" s="100"/>
-      <c r="BJ15" s="101"/>
-      <c r="BK15" s="101"/>
-      <c r="BL15" s="101"/>
-      <c r="BM15" s="102"/>
-      <c r="BN15" s="106"/>
-      <c r="BO15" s="106"/>
-      <c r="BP15" s="106"/>
-      <c r="BQ15" s="106"/>
-      <c r="BR15" s="106"/>
-      <c r="BS15" s="106"/>
-      <c r="BT15" s="106"/>
-      <c r="BU15" s="106"/>
-      <c r="BV15" s="106"/>
-      <c r="BW15" s="106"/>
-      <c r="BX15" s="107"/>
+      <c r="BG15" s="109"/>
+      <c r="BH15" s="109"/>
+      <c r="BI15" s="104"/>
+      <c r="BJ15" s="105"/>
+      <c r="BK15" s="105"/>
+      <c r="BL15" s="105"/>
+      <c r="BM15" s="106"/>
+      <c r="BN15" s="110"/>
+      <c r="BO15" s="110"/>
+      <c r="BP15" s="110"/>
+      <c r="BQ15" s="110"/>
+      <c r="BR15" s="110"/>
+      <c r="BS15" s="110"/>
+      <c r="BT15" s="110"/>
+      <c r="BU15" s="110"/>
+      <c r="BV15" s="110"/>
+      <c r="BW15" s="110"/>
+      <c r="BX15" s="111"/>
     </row>
     <row r="16" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B16" s="116" t="s">
+      <c r="B16" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="117"/>
-      <c r="R16" s="117"/>
-      <c r="S16" s="117"/>
-      <c r="T16" s="117"/>
-      <c r="U16" s="117"/>
-      <c r="V16" s="117"/>
-      <c r="W16" s="117"/>
-      <c r="X16" s="117"/>
-      <c r="Y16" s="117"/>
-      <c r="Z16" s="117"/>
-      <c r="AA16" s="117"/>
-      <c r="AB16" s="117"/>
-      <c r="AC16" s="117"/>
-      <c r="AD16" s="117"/>
-      <c r="AE16" s="117"/>
-      <c r="AF16" s="117"/>
-      <c r="AG16" s="117"/>
-      <c r="AH16" s="117"/>
-      <c r="AI16" s="117"/>
-      <c r="AJ16" s="117"/>
-      <c r="AK16" s="117"/>
-      <c r="AL16" s="117"/>
-      <c r="AM16" s="117"/>
-      <c r="AN16" s="117"/>
-      <c r="AO16" s="117"/>
-      <c r="AP16" s="117"/>
-      <c r="AQ16" s="117"/>
-      <c r="AR16" s="117"/>
-      <c r="AS16" s="117"/>
-      <c r="AT16" s="117"/>
-      <c r="AU16" s="117"/>
-      <c r="AV16" s="117"/>
-      <c r="AW16" s="117"/>
-      <c r="AX16" s="117"/>
-      <c r="AY16" s="117"/>
-      <c r="AZ16" s="117"/>
-      <c r="BA16" s="117"/>
-      <c r="BB16" s="117"/>
-      <c r="BC16" s="117"/>
-      <c r="BD16" s="117"/>
-      <c r="BE16" s="117"/>
-      <c r="BF16" s="117"/>
-      <c r="BG16" s="117"/>
-      <c r="BH16" s="117"/>
-      <c r="BI16" s="117"/>
-      <c r="BJ16" s="117"/>
-      <c r="BK16" s="117"/>
-      <c r="BL16" s="117"/>
-      <c r="BM16" s="117"/>
-      <c r="BN16" s="117"/>
-      <c r="BO16" s="117"/>
-      <c r="BP16" s="117"/>
-      <c r="BQ16" s="117"/>
-      <c r="BR16" s="117"/>
-      <c r="BS16" s="117"/>
-      <c r="BT16" s="117"/>
-      <c r="BU16" s="117"/>
-      <c r="BV16" s="117"/>
-      <c r="BW16" s="117"/>
-      <c r="BX16" s="118"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="121"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="121"/>
+      <c r="S16" s="121"/>
+      <c r="T16" s="121"/>
+      <c r="U16" s="121"/>
+      <c r="V16" s="121"/>
+      <c r="W16" s="121"/>
+      <c r="X16" s="121"/>
+      <c r="Y16" s="121"/>
+      <c r="Z16" s="121"/>
+      <c r="AA16" s="121"/>
+      <c r="AB16" s="121"/>
+      <c r="AC16" s="121"/>
+      <c r="AD16" s="121"/>
+      <c r="AE16" s="121"/>
+      <c r="AF16" s="121"/>
+      <c r="AG16" s="121"/>
+      <c r="AH16" s="121"/>
+      <c r="AI16" s="121"/>
+      <c r="AJ16" s="121"/>
+      <c r="AK16" s="121"/>
+      <c r="AL16" s="121"/>
+      <c r="AM16" s="121"/>
+      <c r="AN16" s="121"/>
+      <c r="AO16" s="121"/>
+      <c r="AP16" s="121"/>
+      <c r="AQ16" s="121"/>
+      <c r="AR16" s="121"/>
+      <c r="AS16" s="121"/>
+      <c r="AT16" s="121"/>
+      <c r="AU16" s="121"/>
+      <c r="AV16" s="121"/>
+      <c r="AW16" s="121"/>
+      <c r="AX16" s="121"/>
+      <c r="AY16" s="121"/>
+      <c r="AZ16" s="121"/>
+      <c r="BA16" s="121"/>
+      <c r="BB16" s="121"/>
+      <c r="BC16" s="121"/>
+      <c r="BD16" s="121"/>
+      <c r="BE16" s="121"/>
+      <c r="BF16" s="121"/>
+      <c r="BG16" s="121"/>
+      <c r="BH16" s="121"/>
+      <c r="BI16" s="121"/>
+      <c r="BJ16" s="121"/>
+      <c r="BK16" s="121"/>
+      <c r="BL16" s="121"/>
+      <c r="BM16" s="121"/>
+      <c r="BN16" s="121"/>
+      <c r="BO16" s="121"/>
+      <c r="BP16" s="121"/>
+      <c r="BQ16" s="121"/>
+      <c r="BR16" s="121"/>
+      <c r="BS16" s="121"/>
+      <c r="BT16" s="121"/>
+      <c r="BU16" s="121"/>
+      <c r="BV16" s="121"/>
+      <c r="BW16" s="121"/>
+      <c r="BX16" s="122"/>
     </row>
     <row r="17" spans="2:76" ht="16.5">
-      <c r="B17" s="95">
+      <c r="B17" s="99">
         <v>12</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="98" t="s">
+      <c r="C17" s="100"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="99"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="90"/>
-      <c r="AB17" s="99"/>
-      <c r="AC17" s="89"/>
-      <c r="AD17" s="89"/>
-      <c r="AE17" s="89"/>
-      <c r="AF17" s="90"/>
-      <c r="AG17" s="88"/>
-      <c r="AH17" s="89"/>
-      <c r="AI17" s="89"/>
-      <c r="AJ17" s="89"/>
-      <c r="AK17" s="90"/>
-      <c r="AL17" s="88"/>
-      <c r="AM17" s="89"/>
-      <c r="AN17" s="89"/>
-      <c r="AO17" s="89"/>
-      <c r="AP17" s="90"/>
-      <c r="AQ17" s="99"/>
-      <c r="AR17" s="89"/>
-      <c r="AS17" s="89"/>
-      <c r="AT17" s="89"/>
-      <c r="AU17" s="90"/>
-      <c r="AV17" s="99"/>
-      <c r="AW17" s="89"/>
-      <c r="AX17" s="89"/>
-      <c r="AY17" s="89"/>
-      <c r="AZ17" s="90"/>
-      <c r="BA17" s="99"/>
-      <c r="BB17" s="89"/>
-      <c r="BC17" s="89"/>
-      <c r="BD17" s="89"/>
-      <c r="BE17" s="90"/>
-      <c r="BF17" s="91" t="s">
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="93"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="94"/>
+      <c r="AB17" s="103"/>
+      <c r="AC17" s="93"/>
+      <c r="AD17" s="93"/>
+      <c r="AE17" s="93"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="92"/>
+      <c r="AH17" s="93"/>
+      <c r="AI17" s="93"/>
+      <c r="AJ17" s="93"/>
+      <c r="AK17" s="94"/>
+      <c r="AL17" s="92"/>
+      <c r="AM17" s="93"/>
+      <c r="AN17" s="93"/>
+      <c r="AO17" s="93"/>
+      <c r="AP17" s="94"/>
+      <c r="AQ17" s="103"/>
+      <c r="AR17" s="93"/>
+      <c r="AS17" s="93"/>
+      <c r="AT17" s="93"/>
+      <c r="AU17" s="94"/>
+      <c r="AV17" s="103"/>
+      <c r="AW17" s="93"/>
+      <c r="AX17" s="93"/>
+      <c r="AY17" s="93"/>
+      <c r="AZ17" s="94"/>
+      <c r="BA17" s="103"/>
+      <c r="BB17" s="93"/>
+      <c r="BC17" s="93"/>
+      <c r="BD17" s="93"/>
+      <c r="BE17" s="94"/>
+      <c r="BF17" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="BG17" s="92"/>
-      <c r="BH17" s="92"/>
-      <c r="BI17" s="88"/>
-      <c r="BJ17" s="89"/>
-      <c r="BK17" s="89"/>
-      <c r="BL17" s="89"/>
-      <c r="BM17" s="90"/>
-      <c r="BN17" s="98"/>
-      <c r="BO17" s="93"/>
-      <c r="BP17" s="93"/>
-      <c r="BQ17" s="93"/>
-      <c r="BR17" s="93"/>
-      <c r="BS17" s="93"/>
-      <c r="BT17" s="93"/>
-      <c r="BU17" s="93"/>
-      <c r="BV17" s="93"/>
-      <c r="BW17" s="93"/>
-      <c r="BX17" s="94"/>
+      <c r="BG17" s="96"/>
+      <c r="BH17" s="96"/>
+      <c r="BI17" s="92"/>
+      <c r="BJ17" s="93"/>
+      <c r="BK17" s="93"/>
+      <c r="BL17" s="93"/>
+      <c r="BM17" s="94"/>
+      <c r="BN17" s="102"/>
+      <c r="BO17" s="97"/>
+      <c r="BP17" s="97"/>
+      <c r="BQ17" s="97"/>
+      <c r="BR17" s="97"/>
+      <c r="BS17" s="97"/>
+      <c r="BT17" s="97"/>
+      <c r="BU17" s="97"/>
+      <c r="BV17" s="97"/>
+      <c r="BW17" s="97"/>
+      <c r="BX17" s="98"/>
     </row>
     <row r="18" spans="2:76" ht="16.5">
-      <c r="B18" s="95">
+      <c r="B18" s="99">
         <v>13</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="98" t="s">
+      <c r="C18" s="100"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="88"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="90"/>
-      <c r="AB18" s="88"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="89"/>
-      <c r="AF18" s="90"/>
-      <c r="AG18" s="88"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="89"/>
-      <c r="AJ18" s="89"/>
-      <c r="AK18" s="90"/>
-      <c r="AL18" s="88"/>
-      <c r="AM18" s="89"/>
-      <c r="AN18" s="89"/>
-      <c r="AO18" s="89"/>
-      <c r="AP18" s="90"/>
-      <c r="AQ18" s="88"/>
-      <c r="AR18" s="89"/>
-      <c r="AS18" s="89"/>
-      <c r="AT18" s="89"/>
-      <c r="AU18" s="90"/>
-      <c r="AV18" s="88"/>
-      <c r="AW18" s="89"/>
-      <c r="AX18" s="89"/>
-      <c r="AY18" s="89"/>
-      <c r="AZ18" s="90"/>
-      <c r="BA18" s="88"/>
-      <c r="BB18" s="89"/>
-      <c r="BC18" s="89"/>
-      <c r="BD18" s="89"/>
-      <c r="BE18" s="90"/>
-      <c r="BF18" s="91" t="s">
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="94"/>
+      <c r="AB18" s="92"/>
+      <c r="AC18" s="93"/>
+      <c r="AD18" s="93"/>
+      <c r="AE18" s="93"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="93"/>
+      <c r="AI18" s="93"/>
+      <c r="AJ18" s="93"/>
+      <c r="AK18" s="94"/>
+      <c r="AL18" s="92"/>
+      <c r="AM18" s="93"/>
+      <c r="AN18" s="93"/>
+      <c r="AO18" s="93"/>
+      <c r="AP18" s="94"/>
+      <c r="AQ18" s="92"/>
+      <c r="AR18" s="93"/>
+      <c r="AS18" s="93"/>
+      <c r="AT18" s="93"/>
+      <c r="AU18" s="94"/>
+      <c r="AV18" s="92"/>
+      <c r="AW18" s="93"/>
+      <c r="AX18" s="93"/>
+      <c r="AY18" s="93"/>
+      <c r="AZ18" s="94"/>
+      <c r="BA18" s="92"/>
+      <c r="BB18" s="93"/>
+      <c r="BC18" s="93"/>
+      <c r="BD18" s="93"/>
+      <c r="BE18" s="94"/>
+      <c r="BF18" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="BG18" s="92"/>
-      <c r="BH18" s="92"/>
-      <c r="BI18" s="88"/>
-      <c r="BJ18" s="89"/>
-      <c r="BK18" s="89"/>
-      <c r="BL18" s="89"/>
-      <c r="BM18" s="90"/>
-      <c r="BN18" s="93"/>
-      <c r="BO18" s="93"/>
-      <c r="BP18" s="93"/>
-      <c r="BQ18" s="93"/>
-      <c r="BR18" s="93"/>
-      <c r="BS18" s="93"/>
-      <c r="BT18" s="93"/>
-      <c r="BU18" s="93"/>
-      <c r="BV18" s="93"/>
-      <c r="BW18" s="93"/>
-      <c r="BX18" s="94"/>
+      <c r="BG18" s="96"/>
+      <c r="BH18" s="96"/>
+      <c r="BI18" s="92"/>
+      <c r="BJ18" s="93"/>
+      <c r="BK18" s="93"/>
+      <c r="BL18" s="93"/>
+      <c r="BM18" s="94"/>
+      <c r="BN18" s="97"/>
+      <c r="BO18" s="97"/>
+      <c r="BP18" s="97"/>
+      <c r="BQ18" s="97"/>
+      <c r="BR18" s="97"/>
+      <c r="BS18" s="97"/>
+      <c r="BT18" s="97"/>
+      <c r="BU18" s="97"/>
+      <c r="BV18" s="97"/>
+      <c r="BW18" s="97"/>
+      <c r="BX18" s="98"/>
     </row>
     <row r="19" spans="2:76" ht="16.5">
-      <c r="B19" s="95">
+      <c r="B19" s="99">
         <v>14</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="98" t="s">
+      <c r="C19" s="100"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="88"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="90"/>
-      <c r="AB19" s="88"/>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="89"/>
-      <c r="AE19" s="89"/>
-      <c r="AF19" s="90"/>
-      <c r="AG19" s="99"/>
-      <c r="AH19" s="89"/>
-      <c r="AI19" s="89"/>
-      <c r="AJ19" s="89"/>
-      <c r="AK19" s="90"/>
-      <c r="AL19" s="88"/>
-      <c r="AM19" s="89"/>
-      <c r="AN19" s="89"/>
-      <c r="AO19" s="89"/>
-      <c r="AP19" s="90"/>
-      <c r="AQ19" s="88"/>
-      <c r="AR19" s="89"/>
-      <c r="AS19" s="89"/>
-      <c r="AT19" s="89"/>
-      <c r="AU19" s="90"/>
-      <c r="AV19" s="88"/>
-      <c r="AW19" s="89"/>
-      <c r="AX19" s="89"/>
-      <c r="AY19" s="89"/>
-      <c r="AZ19" s="90"/>
-      <c r="BA19" s="88"/>
-      <c r="BB19" s="89"/>
-      <c r="BC19" s="89"/>
-      <c r="BD19" s="89"/>
-      <c r="BE19" s="90"/>
-      <c r="BF19" s="91" t="s">
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="92"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="94"/>
+      <c r="AB19" s="92"/>
+      <c r="AC19" s="93"/>
+      <c r="AD19" s="93"/>
+      <c r="AE19" s="93"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="103"/>
+      <c r="AH19" s="93"/>
+      <c r="AI19" s="93"/>
+      <c r="AJ19" s="93"/>
+      <c r="AK19" s="94"/>
+      <c r="AL19" s="92"/>
+      <c r="AM19" s="93"/>
+      <c r="AN19" s="93"/>
+      <c r="AO19" s="93"/>
+      <c r="AP19" s="94"/>
+      <c r="AQ19" s="92"/>
+      <c r="AR19" s="93"/>
+      <c r="AS19" s="93"/>
+      <c r="AT19" s="93"/>
+      <c r="AU19" s="94"/>
+      <c r="AV19" s="92"/>
+      <c r="AW19" s="93"/>
+      <c r="AX19" s="93"/>
+      <c r="AY19" s="93"/>
+      <c r="AZ19" s="94"/>
+      <c r="BA19" s="92"/>
+      <c r="BB19" s="93"/>
+      <c r="BC19" s="93"/>
+      <c r="BD19" s="93"/>
+      <c r="BE19" s="94"/>
+      <c r="BF19" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="BG19" s="92"/>
-      <c r="BH19" s="92"/>
-      <c r="BI19" s="88"/>
-      <c r="BJ19" s="89"/>
-      <c r="BK19" s="89"/>
-      <c r="BL19" s="89"/>
-      <c r="BM19" s="90"/>
-      <c r="BN19" s="93"/>
-      <c r="BO19" s="93"/>
-      <c r="BP19" s="93"/>
-      <c r="BQ19" s="93"/>
-      <c r="BR19" s="93"/>
-      <c r="BS19" s="93"/>
-      <c r="BT19" s="93"/>
-      <c r="BU19" s="93"/>
-      <c r="BV19" s="93"/>
-      <c r="BW19" s="93"/>
-      <c r="BX19" s="94"/>
+      <c r="BG19" s="96"/>
+      <c r="BH19" s="96"/>
+      <c r="BI19" s="92"/>
+      <c r="BJ19" s="93"/>
+      <c r="BK19" s="93"/>
+      <c r="BL19" s="93"/>
+      <c r="BM19" s="94"/>
+      <c r="BN19" s="97"/>
+      <c r="BO19" s="97"/>
+      <c r="BP19" s="97"/>
+      <c r="BQ19" s="97"/>
+      <c r="BR19" s="97"/>
+      <c r="BS19" s="97"/>
+      <c r="BT19" s="97"/>
+      <c r="BU19" s="97"/>
+      <c r="BV19" s="97"/>
+      <c r="BW19" s="97"/>
+      <c r="BX19" s="98"/>
     </row>
     <row r="20" spans="2:76" ht="35.1" customHeight="1">
-      <c r="B20" s="95">
+      <c r="B20" s="99">
         <v>15</v>
       </c>
-      <c r="C20" s="96"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="98" t="s">
+      <c r="C20" s="100"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="90"/>
-      <c r="AB20" s="88"/>
-      <c r="AC20" s="89"/>
-      <c r="AD20" s="89"/>
-      <c r="AE20" s="89"/>
-      <c r="AF20" s="90"/>
-      <c r="AG20" s="99"/>
-      <c r="AH20" s="89"/>
-      <c r="AI20" s="89"/>
-      <c r="AJ20" s="89"/>
-      <c r="AK20" s="90"/>
-      <c r="AL20" s="88"/>
-      <c r="AM20" s="89"/>
-      <c r="AN20" s="89"/>
-      <c r="AO20" s="89"/>
-      <c r="AP20" s="90"/>
-      <c r="AQ20" s="88"/>
-      <c r="AR20" s="89"/>
-      <c r="AS20" s="89"/>
-      <c r="AT20" s="89"/>
-      <c r="AU20" s="90"/>
-      <c r="AV20" s="88"/>
-      <c r="AW20" s="89"/>
-      <c r="AX20" s="89"/>
-      <c r="AY20" s="89"/>
-      <c r="AZ20" s="90"/>
-      <c r="BA20" s="88"/>
-      <c r="BB20" s="89"/>
-      <c r="BC20" s="89"/>
-      <c r="BD20" s="89"/>
-      <c r="BE20" s="90"/>
-      <c r="BF20" s="91" t="s">
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="93"/>
+      <c r="T20" s="93"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="92"/>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="93"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="92"/>
+      <c r="AC20" s="93"/>
+      <c r="AD20" s="93"/>
+      <c r="AE20" s="93"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="103"/>
+      <c r="AH20" s="93"/>
+      <c r="AI20" s="93"/>
+      <c r="AJ20" s="93"/>
+      <c r="AK20" s="94"/>
+      <c r="AL20" s="92"/>
+      <c r="AM20" s="93"/>
+      <c r="AN20" s="93"/>
+      <c r="AO20" s="93"/>
+      <c r="AP20" s="94"/>
+      <c r="AQ20" s="92"/>
+      <c r="AR20" s="93"/>
+      <c r="AS20" s="93"/>
+      <c r="AT20" s="93"/>
+      <c r="AU20" s="94"/>
+      <c r="AV20" s="92"/>
+      <c r="AW20" s="93"/>
+      <c r="AX20" s="93"/>
+      <c r="AY20" s="93"/>
+      <c r="AZ20" s="94"/>
+      <c r="BA20" s="92"/>
+      <c r="BB20" s="93"/>
+      <c r="BC20" s="93"/>
+      <c r="BD20" s="93"/>
+      <c r="BE20" s="94"/>
+      <c r="BF20" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="BG20" s="92"/>
-      <c r="BH20" s="92"/>
-      <c r="BI20" s="88"/>
-      <c r="BJ20" s="89"/>
-      <c r="BK20" s="89"/>
-      <c r="BL20" s="89"/>
-      <c r="BM20" s="90"/>
-      <c r="BN20" s="93"/>
-      <c r="BO20" s="93"/>
-      <c r="BP20" s="93"/>
-      <c r="BQ20" s="93"/>
-      <c r="BR20" s="93"/>
-      <c r="BS20" s="93"/>
-      <c r="BT20" s="93"/>
-      <c r="BU20" s="93"/>
-      <c r="BV20" s="93"/>
-      <c r="BW20" s="93"/>
-      <c r="BX20" s="94"/>
+      <c r="BG20" s="96"/>
+      <c r="BH20" s="96"/>
+      <c r="BI20" s="92"/>
+      <c r="BJ20" s="93"/>
+      <c r="BK20" s="93"/>
+      <c r="BL20" s="93"/>
+      <c r="BM20" s="94"/>
+      <c r="BN20" s="97"/>
+      <c r="BO20" s="97"/>
+      <c r="BP20" s="97"/>
+      <c r="BQ20" s="97"/>
+      <c r="BR20" s="97"/>
+      <c r="BS20" s="97"/>
+      <c r="BT20" s="97"/>
+      <c r="BU20" s="97"/>
+      <c r="BV20" s="97"/>
+      <c r="BW20" s="97"/>
+      <c r="BX20" s="98"/>
     </row>
     <row r="21" spans="2:76" ht="35.1" customHeight="1">
-      <c r="B21" s="95">
+      <c r="B21" s="99">
         <v>16</v>
       </c>
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="98" t="s">
+      <c r="C21" s="100"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="90"/>
-      <c r="W21" s="88"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="90"/>
-      <c r="AB21" s="88"/>
-      <c r="AC21" s="89"/>
-      <c r="AD21" s="89"/>
-      <c r="AE21" s="89"/>
-      <c r="AF21" s="90"/>
-      <c r="AG21" s="99"/>
-      <c r="AH21" s="89"/>
-      <c r="AI21" s="89"/>
-      <c r="AJ21" s="89"/>
-      <c r="AK21" s="90"/>
-      <c r="AL21" s="88"/>
-      <c r="AM21" s="89"/>
-      <c r="AN21" s="89"/>
-      <c r="AO21" s="89"/>
-      <c r="AP21" s="90"/>
-      <c r="AQ21" s="88"/>
-      <c r="AR21" s="89"/>
-      <c r="AS21" s="89"/>
-      <c r="AT21" s="89"/>
-      <c r="AU21" s="90"/>
-      <c r="AV21" s="88"/>
-      <c r="AW21" s="89"/>
-      <c r="AX21" s="89"/>
-      <c r="AY21" s="89"/>
-      <c r="AZ21" s="90"/>
-      <c r="BA21" s="88"/>
-      <c r="BB21" s="89"/>
-      <c r="BC21" s="89"/>
-      <c r="BD21" s="89"/>
-      <c r="BE21" s="90"/>
-      <c r="BF21" s="91" t="s">
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="93"/>
+      <c r="T21" s="93"/>
+      <c r="U21" s="93"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="92"/>
+      <c r="X21" s="93"/>
+      <c r="Y21" s="93"/>
+      <c r="Z21" s="93"/>
+      <c r="AA21" s="94"/>
+      <c r="AB21" s="92"/>
+      <c r="AC21" s="93"/>
+      <c r="AD21" s="93"/>
+      <c r="AE21" s="93"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="103"/>
+      <c r="AH21" s="93"/>
+      <c r="AI21" s="93"/>
+      <c r="AJ21" s="93"/>
+      <c r="AK21" s="94"/>
+      <c r="AL21" s="92"/>
+      <c r="AM21" s="93"/>
+      <c r="AN21" s="93"/>
+      <c r="AO21" s="93"/>
+      <c r="AP21" s="94"/>
+      <c r="AQ21" s="92"/>
+      <c r="AR21" s="93"/>
+      <c r="AS21" s="93"/>
+      <c r="AT21" s="93"/>
+      <c r="AU21" s="94"/>
+      <c r="AV21" s="92"/>
+      <c r="AW21" s="93"/>
+      <c r="AX21" s="93"/>
+      <c r="AY21" s="93"/>
+      <c r="AZ21" s="94"/>
+      <c r="BA21" s="92"/>
+      <c r="BB21" s="93"/>
+      <c r="BC21" s="93"/>
+      <c r="BD21" s="93"/>
+      <c r="BE21" s="94"/>
+      <c r="BF21" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="BG21" s="92"/>
-      <c r="BH21" s="92"/>
-      <c r="BI21" s="88"/>
-      <c r="BJ21" s="89"/>
-      <c r="BK21" s="89"/>
-      <c r="BL21" s="89"/>
-      <c r="BM21" s="90"/>
-      <c r="BN21" s="93"/>
-      <c r="BO21" s="93"/>
-      <c r="BP21" s="93"/>
-      <c r="BQ21" s="93"/>
-      <c r="BR21" s="93"/>
-      <c r="BS21" s="93"/>
-      <c r="BT21" s="93"/>
-      <c r="BU21" s="93"/>
-      <c r="BV21" s="93"/>
-      <c r="BW21" s="93"/>
-      <c r="BX21" s="94"/>
+      <c r="BG21" s="96"/>
+      <c r="BH21" s="96"/>
+      <c r="BI21" s="92"/>
+      <c r="BJ21" s="93"/>
+      <c r="BK21" s="93"/>
+      <c r="BL21" s="93"/>
+      <c r="BM21" s="94"/>
+      <c r="BN21" s="97"/>
+      <c r="BO21" s="97"/>
+      <c r="BP21" s="97"/>
+      <c r="BQ21" s="97"/>
+      <c r="BR21" s="97"/>
+      <c r="BS21" s="97"/>
+      <c r="BT21" s="97"/>
+      <c r="BU21" s="97"/>
+      <c r="BV21" s="97"/>
+      <c r="BW21" s="97"/>
+      <c r="BX21" s="98"/>
     </row>
     <row r="22" spans="2:76" ht="16.5">
-      <c r="B22" s="95">
+      <c r="B22" s="99">
         <v>17</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="98" t="s">
+      <c r="C22" s="100"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="90"/>
-      <c r="AB22" s="88"/>
-      <c r="AC22" s="89"/>
-      <c r="AD22" s="89"/>
-      <c r="AE22" s="89"/>
-      <c r="AF22" s="90"/>
-      <c r="AG22" s="99"/>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="89"/>
-      <c r="AJ22" s="89"/>
-      <c r="AK22" s="90"/>
-      <c r="AL22" s="88"/>
-      <c r="AM22" s="89"/>
-      <c r="AN22" s="89"/>
-      <c r="AO22" s="89"/>
-      <c r="AP22" s="90"/>
-      <c r="AQ22" s="88"/>
-      <c r="AR22" s="89"/>
-      <c r="AS22" s="89"/>
-      <c r="AT22" s="89"/>
-      <c r="AU22" s="90"/>
-      <c r="AV22" s="88"/>
-      <c r="AW22" s="89"/>
-      <c r="AX22" s="89"/>
-      <c r="AY22" s="89"/>
-      <c r="AZ22" s="90"/>
-      <c r="BA22" s="88"/>
-      <c r="BB22" s="89"/>
-      <c r="BC22" s="89"/>
-      <c r="BD22" s="89"/>
-      <c r="BE22" s="90"/>
-      <c r="BF22" s="91" t="s">
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="93"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="94"/>
+      <c r="AB22" s="92"/>
+      <c r="AC22" s="93"/>
+      <c r="AD22" s="93"/>
+      <c r="AE22" s="93"/>
+      <c r="AF22" s="94"/>
+      <c r="AG22" s="103"/>
+      <c r="AH22" s="93"/>
+      <c r="AI22" s="93"/>
+      <c r="AJ22" s="93"/>
+      <c r="AK22" s="94"/>
+      <c r="AL22" s="92"/>
+      <c r="AM22" s="93"/>
+      <c r="AN22" s="93"/>
+      <c r="AO22" s="93"/>
+      <c r="AP22" s="94"/>
+      <c r="AQ22" s="92"/>
+      <c r="AR22" s="93"/>
+      <c r="AS22" s="93"/>
+      <c r="AT22" s="93"/>
+      <c r="AU22" s="94"/>
+      <c r="AV22" s="92"/>
+      <c r="AW22" s="93"/>
+      <c r="AX22" s="93"/>
+      <c r="AY22" s="93"/>
+      <c r="AZ22" s="94"/>
+      <c r="BA22" s="92"/>
+      <c r="BB22" s="93"/>
+      <c r="BC22" s="93"/>
+      <c r="BD22" s="93"/>
+      <c r="BE22" s="94"/>
+      <c r="BF22" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="BG22" s="92"/>
-      <c r="BH22" s="92"/>
-      <c r="BI22" s="88"/>
-      <c r="BJ22" s="89"/>
-      <c r="BK22" s="89"/>
-      <c r="BL22" s="89"/>
-      <c r="BM22" s="90"/>
-      <c r="BN22" s="93"/>
-      <c r="BO22" s="93"/>
-      <c r="BP22" s="93"/>
-      <c r="BQ22" s="93"/>
-      <c r="BR22" s="93"/>
-      <c r="BS22" s="93"/>
-      <c r="BT22" s="93"/>
-      <c r="BU22" s="93"/>
-      <c r="BV22" s="93"/>
-      <c r="BW22" s="93"/>
-      <c r="BX22" s="94"/>
+      <c r="BG22" s="96"/>
+      <c r="BH22" s="96"/>
+      <c r="BI22" s="92"/>
+      <c r="BJ22" s="93"/>
+      <c r="BK22" s="93"/>
+      <c r="BL22" s="93"/>
+      <c r="BM22" s="94"/>
+      <c r="BN22" s="97"/>
+      <c r="BO22" s="97"/>
+      <c r="BP22" s="97"/>
+      <c r="BQ22" s="97"/>
+      <c r="BR22" s="97"/>
+      <c r="BS22" s="97"/>
+      <c r="BT22" s="97"/>
+      <c r="BU22" s="97"/>
+      <c r="BV22" s="97"/>
+      <c r="BW22" s="97"/>
+      <c r="BX22" s="98"/>
     </row>
     <row r="23" spans="2:76" ht="16.5">
-      <c r="B23" s="95">
+      <c r="B23" s="99">
         <v>18</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="98" t="s">
+      <c r="C23" s="100"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="89"/>
-      <c r="T23" s="89"/>
-      <c r="U23" s="89"/>
-      <c r="V23" s="90"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="89"/>
-      <c r="AA23" s="90"/>
-      <c r="AB23" s="88"/>
-      <c r="AC23" s="89"/>
-      <c r="AD23" s="89"/>
-      <c r="AE23" s="89"/>
-      <c r="AF23" s="90"/>
-      <c r="AG23" s="99"/>
-      <c r="AH23" s="89"/>
-      <c r="AI23" s="89"/>
-      <c r="AJ23" s="89"/>
-      <c r="AK23" s="90"/>
-      <c r="AL23" s="88"/>
-      <c r="AM23" s="89"/>
-      <c r="AN23" s="89"/>
-      <c r="AO23" s="89"/>
-      <c r="AP23" s="90"/>
-      <c r="AQ23" s="88"/>
-      <c r="AR23" s="89"/>
-      <c r="AS23" s="89"/>
-      <c r="AT23" s="89"/>
-      <c r="AU23" s="90"/>
-      <c r="AV23" s="88"/>
-      <c r="AW23" s="89"/>
-      <c r="AX23" s="89"/>
-      <c r="AY23" s="89"/>
-      <c r="AZ23" s="90"/>
-      <c r="BA23" s="88"/>
-      <c r="BB23" s="89"/>
-      <c r="BC23" s="89"/>
-      <c r="BD23" s="89"/>
-      <c r="BE23" s="90"/>
-      <c r="BF23" s="91" t="s">
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="93"/>
+      <c r="T23" s="93"/>
+      <c r="U23" s="93"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="93"/>
+      <c r="Y23" s="93"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="94"/>
+      <c r="AB23" s="92"/>
+      <c r="AC23" s="93"/>
+      <c r="AD23" s="93"/>
+      <c r="AE23" s="93"/>
+      <c r="AF23" s="94"/>
+      <c r="AG23" s="103"/>
+      <c r="AH23" s="93"/>
+      <c r="AI23" s="93"/>
+      <c r="AJ23" s="93"/>
+      <c r="AK23" s="94"/>
+      <c r="AL23" s="92"/>
+      <c r="AM23" s="93"/>
+      <c r="AN23" s="93"/>
+      <c r="AO23" s="93"/>
+      <c r="AP23" s="94"/>
+      <c r="AQ23" s="92"/>
+      <c r="AR23" s="93"/>
+      <c r="AS23" s="93"/>
+      <c r="AT23" s="93"/>
+      <c r="AU23" s="94"/>
+      <c r="AV23" s="92"/>
+      <c r="AW23" s="93"/>
+      <c r="AX23" s="93"/>
+      <c r="AY23" s="93"/>
+      <c r="AZ23" s="94"/>
+      <c r="BA23" s="92"/>
+      <c r="BB23" s="93"/>
+      <c r="BC23" s="93"/>
+      <c r="BD23" s="93"/>
+      <c r="BE23" s="94"/>
+      <c r="BF23" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="BG23" s="92"/>
-      <c r="BH23" s="92"/>
-      <c r="BI23" s="88"/>
-      <c r="BJ23" s="89"/>
-      <c r="BK23" s="89"/>
-      <c r="BL23" s="89"/>
-      <c r="BM23" s="90"/>
-      <c r="BN23" s="93"/>
-      <c r="BO23" s="93"/>
-      <c r="BP23" s="93"/>
-      <c r="BQ23" s="93"/>
-      <c r="BR23" s="93"/>
-      <c r="BS23" s="93"/>
-      <c r="BT23" s="93"/>
-      <c r="BU23" s="93"/>
-      <c r="BV23" s="93"/>
-      <c r="BW23" s="93"/>
-      <c r="BX23" s="94"/>
+      <c r="BG23" s="96"/>
+      <c r="BH23" s="96"/>
+      <c r="BI23" s="92"/>
+      <c r="BJ23" s="93"/>
+      <c r="BK23" s="93"/>
+      <c r="BL23" s="93"/>
+      <c r="BM23" s="94"/>
+      <c r="BN23" s="97"/>
+      <c r="BO23" s="97"/>
+      <c r="BP23" s="97"/>
+      <c r="BQ23" s="97"/>
+      <c r="BR23" s="97"/>
+      <c r="BS23" s="97"/>
+      <c r="BT23" s="97"/>
+      <c r="BU23" s="97"/>
+      <c r="BV23" s="97"/>
+      <c r="BW23" s="97"/>
+      <c r="BX23" s="98"/>
     </row>
     <row r="24" spans="2:76" ht="16.5">
-      <c r="B24" s="95">
+      <c r="B24" s="99">
         <v>19</v>
       </c>
-      <c r="C24" s="96"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="98" t="s">
+      <c r="C24" s="100"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="89"/>
-      <c r="T24" s="89"/>
-      <c r="U24" s="89"/>
-      <c r="V24" s="90"/>
-      <c r="W24" s="99"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="90"/>
-      <c r="AB24" s="99"/>
-      <c r="AC24" s="89"/>
-      <c r="AD24" s="89"/>
-      <c r="AE24" s="89"/>
-      <c r="AF24" s="90"/>
-      <c r="AG24" s="99"/>
-      <c r="AH24" s="89"/>
-      <c r="AI24" s="89"/>
-      <c r="AJ24" s="89"/>
-      <c r="AK24" s="90"/>
-      <c r="AL24" s="88"/>
-      <c r="AM24" s="89"/>
-      <c r="AN24" s="89"/>
-      <c r="AO24" s="89"/>
-      <c r="AP24" s="90"/>
-      <c r="AQ24" s="99"/>
-      <c r="AR24" s="89"/>
-      <c r="AS24" s="89"/>
-      <c r="AT24" s="89"/>
-      <c r="AU24" s="90"/>
-      <c r="AV24" s="99"/>
-      <c r="AW24" s="89"/>
-      <c r="AX24" s="89"/>
-      <c r="AY24" s="89"/>
-      <c r="AZ24" s="90"/>
-      <c r="BA24" s="99"/>
-      <c r="BB24" s="89"/>
-      <c r="BC24" s="89"/>
-      <c r="BD24" s="89"/>
-      <c r="BE24" s="90"/>
-      <c r="BF24" s="91" t="s">
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="93"/>
+      <c r="T24" s="93"/>
+      <c r="U24" s="93"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="103"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="93"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="94"/>
+      <c r="AB24" s="103"/>
+      <c r="AC24" s="93"/>
+      <c r="AD24" s="93"/>
+      <c r="AE24" s="93"/>
+      <c r="AF24" s="94"/>
+      <c r="AG24" s="103"/>
+      <c r="AH24" s="93"/>
+      <c r="AI24" s="93"/>
+      <c r="AJ24" s="93"/>
+      <c r="AK24" s="94"/>
+      <c r="AL24" s="92"/>
+      <c r="AM24" s="93"/>
+      <c r="AN24" s="93"/>
+      <c r="AO24" s="93"/>
+      <c r="AP24" s="94"/>
+      <c r="AQ24" s="103"/>
+      <c r="AR24" s="93"/>
+      <c r="AS24" s="93"/>
+      <c r="AT24" s="93"/>
+      <c r="AU24" s="94"/>
+      <c r="AV24" s="103"/>
+      <c r="AW24" s="93"/>
+      <c r="AX24" s="93"/>
+      <c r="AY24" s="93"/>
+      <c r="AZ24" s="94"/>
+      <c r="BA24" s="103"/>
+      <c r="BB24" s="93"/>
+      <c r="BC24" s="93"/>
+      <c r="BD24" s="93"/>
+      <c r="BE24" s="94"/>
+      <c r="BF24" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="BG24" s="92"/>
-      <c r="BH24" s="92"/>
-      <c r="BI24" s="88"/>
-      <c r="BJ24" s="89"/>
-      <c r="BK24" s="89"/>
-      <c r="BL24" s="89"/>
-      <c r="BM24" s="90"/>
-      <c r="BN24" s="98"/>
-      <c r="BO24" s="93"/>
-      <c r="BP24" s="93"/>
-      <c r="BQ24" s="93"/>
-      <c r="BR24" s="93"/>
-      <c r="BS24" s="93"/>
-      <c r="BT24" s="93"/>
-      <c r="BU24" s="93"/>
-      <c r="BV24" s="93"/>
-      <c r="BW24" s="93"/>
-      <c r="BX24" s="94"/>
+      <c r="BG24" s="96"/>
+      <c r="BH24" s="96"/>
+      <c r="BI24" s="92"/>
+      <c r="BJ24" s="93"/>
+      <c r="BK24" s="93"/>
+      <c r="BL24" s="93"/>
+      <c r="BM24" s="94"/>
+      <c r="BN24" s="102"/>
+      <c r="BO24" s="97"/>
+      <c r="BP24" s="97"/>
+      <c r="BQ24" s="97"/>
+      <c r="BR24" s="97"/>
+      <c r="BS24" s="97"/>
+      <c r="BT24" s="97"/>
+      <c r="BU24" s="97"/>
+      <c r="BV24" s="97"/>
+      <c r="BW24" s="97"/>
+      <c r="BX24" s="98"/>
     </row>
     <row r="25" spans="2:76" ht="16.5">
-      <c r="B25" s="95">
+      <c r="B25" s="99">
         <v>20</v>
       </c>
-      <c r="C25" s="96"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="98" t="s">
+      <c r="C25" s="100"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="89"/>
-      <c r="U25" s="89"/>
-      <c r="V25" s="90"/>
-      <c r="W25" s="88"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="90"/>
-      <c r="AB25" s="88"/>
-      <c r="AC25" s="89"/>
-      <c r="AD25" s="89"/>
-      <c r="AE25" s="89"/>
-      <c r="AF25" s="90"/>
-      <c r="AG25" s="99"/>
-      <c r="AH25" s="89"/>
-      <c r="AI25" s="89"/>
-      <c r="AJ25" s="89"/>
-      <c r="AK25" s="90"/>
-      <c r="AL25" s="88"/>
-      <c r="AM25" s="89"/>
-      <c r="AN25" s="89"/>
-      <c r="AO25" s="89"/>
-      <c r="AP25" s="90"/>
-      <c r="AQ25" s="88"/>
-      <c r="AR25" s="89"/>
-      <c r="AS25" s="89"/>
-      <c r="AT25" s="89"/>
-      <c r="AU25" s="90"/>
-      <c r="AV25" s="88"/>
-      <c r="AW25" s="89"/>
-      <c r="AX25" s="89"/>
-      <c r="AY25" s="89"/>
-      <c r="AZ25" s="90"/>
-      <c r="BA25" s="88"/>
-      <c r="BB25" s="89"/>
-      <c r="BC25" s="89"/>
-      <c r="BD25" s="89"/>
-      <c r="BE25" s="90"/>
-      <c r="BF25" s="91" t="s">
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="93"/>
+      <c r="T25" s="93"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="92"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="93"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="94"/>
+      <c r="AB25" s="92"/>
+      <c r="AC25" s="93"/>
+      <c r="AD25" s="93"/>
+      <c r="AE25" s="93"/>
+      <c r="AF25" s="94"/>
+      <c r="AG25" s="103"/>
+      <c r="AH25" s="93"/>
+      <c r="AI25" s="93"/>
+      <c r="AJ25" s="93"/>
+      <c r="AK25" s="94"/>
+      <c r="AL25" s="92"/>
+      <c r="AM25" s="93"/>
+      <c r="AN25" s="93"/>
+      <c r="AO25" s="93"/>
+      <c r="AP25" s="94"/>
+      <c r="AQ25" s="92"/>
+      <c r="AR25" s="93"/>
+      <c r="AS25" s="93"/>
+      <c r="AT25" s="93"/>
+      <c r="AU25" s="94"/>
+      <c r="AV25" s="92"/>
+      <c r="AW25" s="93"/>
+      <c r="AX25" s="93"/>
+      <c r="AY25" s="93"/>
+      <c r="AZ25" s="94"/>
+      <c r="BA25" s="92"/>
+      <c r="BB25" s="93"/>
+      <c r="BC25" s="93"/>
+      <c r="BD25" s="93"/>
+      <c r="BE25" s="94"/>
+      <c r="BF25" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="BG25" s="92"/>
-      <c r="BH25" s="92"/>
-      <c r="BI25" s="88"/>
-      <c r="BJ25" s="89"/>
-      <c r="BK25" s="89"/>
-      <c r="BL25" s="89"/>
-      <c r="BM25" s="90"/>
-      <c r="BN25" s="93"/>
-      <c r="BO25" s="93"/>
-      <c r="BP25" s="93"/>
-      <c r="BQ25" s="93"/>
-      <c r="BR25" s="93"/>
-      <c r="BS25" s="93"/>
-      <c r="BT25" s="93"/>
-      <c r="BU25" s="93"/>
-      <c r="BV25" s="93"/>
-      <c r="BW25" s="93"/>
-      <c r="BX25" s="94"/>
+      <c r="BG25" s="96"/>
+      <c r="BH25" s="96"/>
+      <c r="BI25" s="92"/>
+      <c r="BJ25" s="93"/>
+      <c r="BK25" s="93"/>
+      <c r="BL25" s="93"/>
+      <c r="BM25" s="94"/>
+      <c r="BN25" s="97"/>
+      <c r="BO25" s="97"/>
+      <c r="BP25" s="97"/>
+      <c r="BQ25" s="97"/>
+      <c r="BR25" s="97"/>
+      <c r="BS25" s="97"/>
+      <c r="BT25" s="97"/>
+      <c r="BU25" s="97"/>
+      <c r="BV25" s="97"/>
+      <c r="BW25" s="97"/>
+      <c r="BX25" s="98"/>
     </row>
     <row r="26" spans="2:76" ht="16.5">
-      <c r="B26" s="95">
+      <c r="B26" s="99">
         <v>21</v>
       </c>
-      <c r="C26" s="96"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="98" t="s">
+      <c r="C26" s="100"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="89"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="89"/>
-      <c r="T26" s="89"/>
-      <c r="U26" s="89"/>
-      <c r="V26" s="90"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="90"/>
-      <c r="AB26" s="88"/>
-      <c r="AC26" s="89"/>
-      <c r="AD26" s="89"/>
-      <c r="AE26" s="89"/>
-      <c r="AF26" s="90"/>
-      <c r="AG26" s="99"/>
-      <c r="AH26" s="89"/>
-      <c r="AI26" s="89"/>
-      <c r="AJ26" s="89"/>
-      <c r="AK26" s="90"/>
-      <c r="AL26" s="88"/>
-      <c r="AM26" s="89"/>
-      <c r="AN26" s="89"/>
-      <c r="AO26" s="89"/>
-      <c r="AP26" s="90"/>
-      <c r="AQ26" s="88"/>
-      <c r="AR26" s="89"/>
-      <c r="AS26" s="89"/>
-      <c r="AT26" s="89"/>
-      <c r="AU26" s="90"/>
-      <c r="AV26" s="88"/>
-      <c r="AW26" s="89"/>
-      <c r="AX26" s="89"/>
-      <c r="AY26" s="89"/>
-      <c r="AZ26" s="90"/>
-      <c r="BA26" s="88"/>
-      <c r="BB26" s="89"/>
-      <c r="BC26" s="89"/>
-      <c r="BD26" s="89"/>
-      <c r="BE26" s="90"/>
-      <c r="BF26" s="91" t="s">
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="93"/>
+      <c r="T26" s="93"/>
+      <c r="U26" s="93"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="93"/>
+      <c r="Y26" s="93"/>
+      <c r="Z26" s="93"/>
+      <c r="AA26" s="94"/>
+      <c r="AB26" s="92"/>
+      <c r="AC26" s="93"/>
+      <c r="AD26" s="93"/>
+      <c r="AE26" s="93"/>
+      <c r="AF26" s="94"/>
+      <c r="AG26" s="103"/>
+      <c r="AH26" s="93"/>
+      <c r="AI26" s="93"/>
+      <c r="AJ26" s="93"/>
+      <c r="AK26" s="94"/>
+      <c r="AL26" s="92"/>
+      <c r="AM26" s="93"/>
+      <c r="AN26" s="93"/>
+      <c r="AO26" s="93"/>
+      <c r="AP26" s="94"/>
+      <c r="AQ26" s="92"/>
+      <c r="AR26" s="93"/>
+      <c r="AS26" s="93"/>
+      <c r="AT26" s="93"/>
+      <c r="AU26" s="94"/>
+      <c r="AV26" s="92"/>
+      <c r="AW26" s="93"/>
+      <c r="AX26" s="93"/>
+      <c r="AY26" s="93"/>
+      <c r="AZ26" s="94"/>
+      <c r="BA26" s="92"/>
+      <c r="BB26" s="93"/>
+      <c r="BC26" s="93"/>
+      <c r="BD26" s="93"/>
+      <c r="BE26" s="94"/>
+      <c r="BF26" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="BG26" s="92"/>
-      <c r="BH26" s="92"/>
-      <c r="BI26" s="88"/>
-      <c r="BJ26" s="89"/>
-      <c r="BK26" s="89"/>
-      <c r="BL26" s="89"/>
-      <c r="BM26" s="90"/>
-      <c r="BN26" s="93"/>
-      <c r="BO26" s="93"/>
-      <c r="BP26" s="93"/>
-      <c r="BQ26" s="93"/>
-      <c r="BR26" s="93"/>
-      <c r="BS26" s="93"/>
-      <c r="BT26" s="93"/>
-      <c r="BU26" s="93"/>
-      <c r="BV26" s="93"/>
-      <c r="BW26" s="93"/>
-      <c r="BX26" s="94"/>
+      <c r="BG26" s="96"/>
+      <c r="BH26" s="96"/>
+      <c r="BI26" s="92"/>
+      <c r="BJ26" s="93"/>
+      <c r="BK26" s="93"/>
+      <c r="BL26" s="93"/>
+      <c r="BM26" s="94"/>
+      <c r="BN26" s="97"/>
+      <c r="BO26" s="97"/>
+      <c r="BP26" s="97"/>
+      <c r="BQ26" s="97"/>
+      <c r="BR26" s="97"/>
+      <c r="BS26" s="97"/>
+      <c r="BT26" s="97"/>
+      <c r="BU26" s="97"/>
+      <c r="BV26" s="97"/>
+      <c r="BW26" s="97"/>
+      <c r="BX26" s="98"/>
     </row>
     <row r="27" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B27" s="108">
+      <c r="B27" s="112">
         <v>22</v>
       </c>
-      <c r="C27" s="109"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="111" t="s">
+      <c r="C27" s="113"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="101"/>
-      <c r="T27" s="101"/>
-      <c r="U27" s="101"/>
-      <c r="V27" s="102"/>
-      <c r="W27" s="100"/>
-      <c r="X27" s="101"/>
-      <c r="Y27" s="101"/>
-      <c r="Z27" s="101"/>
-      <c r="AA27" s="102"/>
-      <c r="AB27" s="100"/>
-      <c r="AC27" s="101"/>
-      <c r="AD27" s="101"/>
-      <c r="AE27" s="101"/>
-      <c r="AF27" s="102"/>
-      <c r="AG27" s="103"/>
-      <c r="AH27" s="101"/>
-      <c r="AI27" s="101"/>
-      <c r="AJ27" s="101"/>
-      <c r="AK27" s="102"/>
-      <c r="AL27" s="100"/>
-      <c r="AM27" s="101"/>
-      <c r="AN27" s="101"/>
-      <c r="AO27" s="101"/>
-      <c r="AP27" s="102"/>
-      <c r="AQ27" s="100"/>
-      <c r="AR27" s="101"/>
-      <c r="AS27" s="101"/>
-      <c r="AT27" s="101"/>
-      <c r="AU27" s="102"/>
-      <c r="AV27" s="100"/>
-      <c r="AW27" s="101"/>
-      <c r="AX27" s="101"/>
-      <c r="AY27" s="101"/>
-      <c r="AZ27" s="102"/>
-      <c r="BA27" s="100"/>
-      <c r="BB27" s="101"/>
-      <c r="BC27" s="101"/>
-      <c r="BD27" s="101"/>
-      <c r="BE27" s="102"/>
-      <c r="BF27" s="104" t="s">
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="105"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="106"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="105"/>
+      <c r="Y27" s="105"/>
+      <c r="Z27" s="105"/>
+      <c r="AA27" s="106"/>
+      <c r="AB27" s="104"/>
+      <c r="AC27" s="105"/>
+      <c r="AD27" s="105"/>
+      <c r="AE27" s="105"/>
+      <c r="AF27" s="106"/>
+      <c r="AG27" s="107"/>
+      <c r="AH27" s="105"/>
+      <c r="AI27" s="105"/>
+      <c r="AJ27" s="105"/>
+      <c r="AK27" s="106"/>
+      <c r="AL27" s="104"/>
+      <c r="AM27" s="105"/>
+      <c r="AN27" s="105"/>
+      <c r="AO27" s="105"/>
+      <c r="AP27" s="106"/>
+      <c r="AQ27" s="104"/>
+      <c r="AR27" s="105"/>
+      <c r="AS27" s="105"/>
+      <c r="AT27" s="105"/>
+      <c r="AU27" s="106"/>
+      <c r="AV27" s="104"/>
+      <c r="AW27" s="105"/>
+      <c r="AX27" s="105"/>
+      <c r="AY27" s="105"/>
+      <c r="AZ27" s="106"/>
+      <c r="BA27" s="104"/>
+      <c r="BB27" s="105"/>
+      <c r="BC27" s="105"/>
+      <c r="BD27" s="105"/>
+      <c r="BE27" s="106"/>
+      <c r="BF27" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="BG27" s="105"/>
-      <c r="BH27" s="105"/>
-      <c r="BI27" s="100"/>
-      <c r="BJ27" s="101"/>
-      <c r="BK27" s="101"/>
-      <c r="BL27" s="101"/>
-      <c r="BM27" s="102"/>
-      <c r="BN27" s="106"/>
-      <c r="BO27" s="106"/>
-      <c r="BP27" s="106"/>
-      <c r="BQ27" s="106"/>
-      <c r="BR27" s="106"/>
-      <c r="BS27" s="106"/>
-      <c r="BT27" s="106"/>
-      <c r="BU27" s="106"/>
-      <c r="BV27" s="106"/>
-      <c r="BW27" s="106"/>
-      <c r="BX27" s="107"/>
+      <c r="BG27" s="109"/>
+      <c r="BH27" s="109"/>
+      <c r="BI27" s="104"/>
+      <c r="BJ27" s="105"/>
+      <c r="BK27" s="105"/>
+      <c r="BL27" s="105"/>
+      <c r="BM27" s="106"/>
+      <c r="BN27" s="110"/>
+      <c r="BO27" s="110"/>
+      <c r="BP27" s="110"/>
+      <c r="BQ27" s="110"/>
+      <c r="BR27" s="110"/>
+      <c r="BS27" s="110"/>
+      <c r="BT27" s="110"/>
+      <c r="BU27" s="110"/>
+      <c r="BV27" s="110"/>
+      <c r="BW27" s="110"/>
+      <c r="BX27" s="111"/>
     </row>
     <row r="28" spans="2:76" ht="16.5">
       <c r="B28" s="35" t="s">
@@ -8298,98 +8413,98 @@
       </c>
     </row>
     <row r="33" spans="2:39" ht="15" customHeight="1">
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="73" t="s">
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="66" t="s">
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="67"/>
-      <c r="R33" s="67"/>
-      <c r="S33" s="67"/>
-      <c r="T33" s="67"/>
-      <c r="U33" s="67"/>
-      <c r="V33" s="66" t="s">
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="W33" s="67"/>
-      <c r="X33" s="67"/>
-      <c r="Y33" s="67"/>
-      <c r="Z33" s="67"/>
-      <c r="AA33" s="67"/>
-      <c r="AB33" s="67"/>
-      <c r="AC33" s="67"/>
-      <c r="AD33" s="67"/>
-      <c r="AE33" s="66" t="s">
+      <c r="W33" s="71"/>
+      <c r="X33" s="71"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="71"/>
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="71"/>
+      <c r="AD33" s="71"/>
+      <c r="AE33" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="AF33" s="67"/>
-      <c r="AG33" s="67"/>
-      <c r="AH33" s="67"/>
-      <c r="AI33" s="67"/>
-      <c r="AJ33" s="67"/>
-      <c r="AK33" s="67"/>
-      <c r="AL33" s="67"/>
-      <c r="AM33" s="68"/>
+      <c r="AF33" s="71"/>
+      <c r="AG33" s="71"/>
+      <c r="AH33" s="71"/>
+      <c r="AI33" s="71"/>
+      <c r="AJ33" s="71"/>
+      <c r="AK33" s="71"/>
+      <c r="AL33" s="71"/>
+      <c r="AM33" s="72"/>
     </row>
     <row r="34" spans="2:39" ht="15" customHeight="1">
-      <c r="B34" s="119">
+      <c r="B34" s="123">
         <v>1</v>
       </c>
-      <c r="C34" s="120"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="111" t="s">
+      <c r="C34" s="124"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="101"/>
-      <c r="S34" s="101"/>
-      <c r="T34" s="101"/>
-      <c r="U34" s="102"/>
-      <c r="V34" s="103"/>
-      <c r="W34" s="101"/>
-      <c r="X34" s="101"/>
-      <c r="Y34" s="101"/>
-      <c r="Z34" s="101"/>
-      <c r="AA34" s="101"/>
-      <c r="AB34" s="101"/>
-      <c r="AC34" s="101"/>
-      <c r="AD34" s="102"/>
-      <c r="AE34" s="103"/>
-      <c r="AF34" s="101"/>
-      <c r="AG34" s="101"/>
-      <c r="AH34" s="101"/>
-      <c r="AI34" s="101"/>
-      <c r="AJ34" s="101"/>
-      <c r="AK34" s="101"/>
-      <c r="AL34" s="101"/>
-      <c r="AM34" s="102"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="105"/>
+      <c r="S34" s="105"/>
+      <c r="T34" s="105"/>
+      <c r="U34" s="106"/>
+      <c r="V34" s="107"/>
+      <c r="W34" s="105"/>
+      <c r="X34" s="105"/>
+      <c r="Y34" s="105"/>
+      <c r="Z34" s="105"/>
+      <c r="AA34" s="105"/>
+      <c r="AB34" s="105"/>
+      <c r="AC34" s="105"/>
+      <c r="AD34" s="106"/>
+      <c r="AE34" s="107"/>
+      <c r="AF34" s="105"/>
+      <c r="AG34" s="105"/>
+      <c r="AH34" s="105"/>
+      <c r="AI34" s="105"/>
+      <c r="AJ34" s="105"/>
+      <c r="AK34" s="105"/>
+      <c r="AL34" s="105"/>
+      <c r="AM34" s="106"/>
     </row>
     <row r="35" spans="2:39" ht="9" customHeight="1"/>
     <row r="36" spans="2:39" ht="9" customHeight="1"/>
@@ -8732,10 +8847,10 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="M5:BE15 BI5:BM15 M17:BE27 BI17:BM27 M34 V34 AE34">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ8040_使用者マスタメンテナンス）.xlsx
+++ b/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ8040_使用者マスタメンテナンス）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\youkei\Documents\50.単体テスト\01_単体テスト設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\AIplus_NAS\養鶏-互助防疫システム\backup\12_Documents\50.単体テスト\01_単体テスト設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A17F84-F509-406F-81A0-2B4E58105B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103FBFEF-456F-46A5-BF00-D326A183781D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="880" activeTab="1" xr2:uid="{8AE4BD12-0B13-430A-A994-A2059EDE9970}"/>
   </bookViews>
@@ -216,7 +216,7 @@
     <definedName name="P.3">'[3]プロセス（課税明細書）'!$A$129</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GJ8040_使用者一覧表_チェックリスト!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">GJ8040_使用者一覧表_項目チェック!$A$1:$CA$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">GJ8041_使用者マスタメンテナンス_チェックリスト!$A$1:$I$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">GJ8041_使用者マスタメンテナンス_チェックリスト!$A$1:$I$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">GJ8041_使用者マスタメンテナンス_項目チェック!$A$1:$CA$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">実施結果報告書!$A$1:$K$20</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="179">
   <si>
     <t>新規登録</t>
     <rPh sb="0" eb="4">
@@ -508,16 +508,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>解像度1920×1080　ディスプレイ100%　ブラウザ150%で正常に表示できること</t>
-    <rPh sb="33" eb="35">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t>全体</t>
     <rPh sb="0" eb="2">
       <t>ゼンタイ</t>
@@ -1113,10 +1103,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>数字のみの入力</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プルダウンリスト項目</t>
     <rPh sb="8" eb="10">
       <t>コウモク</t>
@@ -1297,16 +1283,6 @@
       <t>シヨウショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>解像度1920×1080　ディスプレイ100%　ブラウザ100%で正常に表示できること</t>
-    <rPh sb="33" eb="35">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>テスト
@@ -1388,6 +1364,262 @@
       <t>イッチ</t>
     </rPh>
     <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>動作確認/メッセージ確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードは6桁以内の場合、現行システムと一致すること</t>
+    <rPh sb="7" eb="8">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>停止日＜登録日の場合、現行システムと一致すること</t>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>閉じる(新規モード)</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集なしの場合、現行システム※と一致すること</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>編集ありの場合、現行システム※と一致すること</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>閉じる(変更モード)</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用停止日が未入力の場合、使用停止理由が現行システムと一致すること</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用停止日が入力される場合、使用停止理由が現行システムと一致すること</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントロールマスタが設定されていない場合、現行システムと一致すること</t>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常処理</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>ユーザーIDが登録済みの場合、現行システムと一致すること</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用停止日/使用停止理由
+(変更モード)</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作確認/DB確認/メッセージ確認</t>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データが削除済みの場合、現行システムと一致すること</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>データが他のユーザによって更新済みの場合、エラーメッセージ※が表示されること</t>
+    <rPh sb="4" eb="5">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>※データを更新できません。他のユーザーによって変更された可能性があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作確認/DB確認/メッセージ確認</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>データが削除済みの場合、現行システム※と一致すること</t>
+    <rPh sb="20" eb="22">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>※既存システムの一覧画面にての削除ボタンを参照</t>
+    <rPh sb="1" eb="3">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字のみの入力</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解像度1920×1080　ディスプレイ150%　ブラウザ100%で正常に表示できること</t>
+    <rPh sb="33" eb="35">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>解像度1920×1080　ディスプレイ200%　ブラウザ100%で正常に表示できること</t>
+    <rPh sb="33" eb="35">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>仕様変更</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2257,7 +2489,7 @@
     <xf numFmtId="177" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="177" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2380,9 +2612,51 @@
     <xf numFmtId="177" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2407,42 +2681,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2455,6 +2693,150 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="41" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="45" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="43" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="44" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="21" fillId="5" borderId="46" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2464,155 +2846,38 @@
     <xf numFmtId="177" fontId="21" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="46" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="45" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="48" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="41" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="43" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="44" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="21" fillId="6" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2622,33 +2887,6 @@
     </xf>
     <xf numFmtId="177" fontId="21" fillId="6" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="48" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="47" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2660,21 +2898,7 @@
     <cellStyle name="標準 5" xfId="4" xr:uid="{995CF52B-56E0-4E71-A9B5-D761A557A3F5}"/>
     <cellStyle name="標準 6" xfId="5" xr:uid="{5AB37F2C-1356-43C0-A642-8019E4F0971A}"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
@@ -3672,146 +3896,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="60"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="50"/>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="51"/>
+      <c r="M3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="52"/>
+      <c r="M4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="M5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A6" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="M1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="42"/>
-      <c r="M2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="57"/>
-      <c r="M3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="58"/>
-      <c r="M4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A6" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="J6" s="53" t="s">
+      <c r="I6" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="54"/>
+      <c r="K6" s="47"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="56"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="49"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
@@ -3819,18 +4048,18 @@
       <c r="G8" s="41"/>
       <c r="H8" s="1"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="1"/>
@@ -3838,8 +4067,8 @@
       <c r="G9" s="41"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1">
       <c r="A10" s="1"/>
@@ -3851,8 +4080,8 @@
       <c r="G10" s="41"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
       <c r="A11" s="1"/>
@@ -3864,8 +4093,8 @@
       <c r="G11" s="41"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1">
       <c r="A12" s="1"/>
@@ -3877,8 +4106,8 @@
       <c r="G12" s="41"/>
       <c r="H12" s="1"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1">
       <c r="A13" s="1"/>
@@ -3890,8 +4119,8 @@
       <c r="G13" s="41"/>
       <c r="H13" s="1"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
       <c r="A14" s="1"/>
@@ -3903,8 +4132,8 @@
       <c r="G14" s="41"/>
       <c r="H14" s="1"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1">
       <c r="A15" s="1"/>
@@ -3916,8 +4145,8 @@
       <c r="G15" s="41"/>
       <c r="H15" s="1"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="1"/>
@@ -3929,8 +4158,8 @@
       <c r="G16" s="41"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1">
       <c r="A17" s="1"/>
@@ -3942,8 +4171,8 @@
       <c r="G17" s="41"/>
       <c r="H17" s="1"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1">
       <c r="A18" s="1"/>
@@ -3955,8 +4184,8 @@
       <c r="G18" s="41"/>
       <c r="H18" s="1"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1">
       <c r="A19" s="1"/>
@@ -3968,8 +4197,8 @@
       <c r="G19" s="41"/>
       <c r="H19" s="1"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1">
       <c r="A20" s="1"/>
@@ -3981,30 +4210,14 @@
       <c r="G20" s="41"/>
       <c r="H20" s="1"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1"/>
     <row r="22" spans="1:11" ht="18" customHeight="1"/>
     <row r="23" spans="1:11" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="J11:K11"/>
@@ -4021,13 +4234,29 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G8:G20">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4079,13 +4308,13 @@
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="B2" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="11" t="s">
         <v>15</v>
       </c>
@@ -4118,16 +4347,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75">
-      <c r="A4" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
+      <c r="A4" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="1:8" ht="37.5">
       <c r="A5" s="19">
@@ -4140,10 +4369,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="23"/>
@@ -4161,10 +4390,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="23"/>
@@ -4176,21 +4405,21 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
       <c r="H7" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="8" customFormat="1" ht="37.5">
@@ -4199,16 +4428,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="17"/>
@@ -4220,16 +4449,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="17"/>
@@ -4241,16 +4470,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
@@ -4262,16 +4491,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="E11" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
@@ -4283,16 +4512,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>32</v>
-      </c>
       <c r="E12" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="23"/>
@@ -4304,16 +4533,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>31</v>
-      </c>
       <c r="D13" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
@@ -4325,16 +4554,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>31</v>
-      </c>
       <c r="D14" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="23"/>
@@ -4346,34 +4575,34 @@
         <v>11</v>
       </c>
       <c r="B15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>31</v>
-      </c>
       <c r="D15" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="23"/>
       <c r="H15" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A16" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
+      <c r="A16" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
     </row>
     <row r="17" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A17" s="19">
@@ -4381,16 +4610,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
@@ -4402,34 +4631,34 @@
         <v>13</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A19" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="66"/>
+      <c r="A19" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="68"/>
     </row>
     <row r="20" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A20" s="19">
@@ -4437,16 +4666,16 @@
         <v>14</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
@@ -4458,16 +4687,16 @@
         <v>15</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
@@ -4479,16 +4708,16 @@
         <v>16</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -4500,16 +4729,16 @@
         <v>17</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="33"/>
@@ -4521,16 +4750,16 @@
         <v>18</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="37"/>
@@ -4542,16 +4771,16 @@
         <v>19</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="33"/>
@@ -4563,16 +4792,16 @@
         <v>20</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="33"/>
@@ -4584,21 +4813,21 @@
         <v>21</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="11.25" customHeight="1"/>
@@ -4611,26 +4840,26 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F5:F15">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F18">
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F27">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4641,7 +4870,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{94FB3709-BBF3-4836-A757-51F6A85510BB}">
           <x14:formula1>
-            <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
+            <xm:f>実施結果報告書!$M$1:$M$5</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F15 F17:F18 F20:F27</xm:sqref>
         </x14:dataValidation>
@@ -4672,919 +4901,993 @@
   <sheetData>
     <row r="2" spans="2:76" ht="15" customHeight="1">
       <c r="B2" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:76" ht="15" customHeight="1">
-      <c r="B3" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="70" t="s">
+      <c r="B3" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="78" t="s">
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="78" t="s">
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="71" t="s">
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH3" s="118"/>
+      <c r="AI3" s="118"/>
+      <c r="AJ3" s="118"/>
+      <c r="AK3" s="119"/>
+      <c r="AL3" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM3" s="118"/>
+      <c r="AN3" s="118"/>
+      <c r="AO3" s="118"/>
+      <c r="AP3" s="119"/>
+      <c r="AQ3" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR3" s="118"/>
+      <c r="AS3" s="118"/>
+      <c r="AT3" s="118"/>
+      <c r="AU3" s="119"/>
+      <c r="AV3" s="118" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW3" s="118"/>
+      <c r="AX3" s="118"/>
+      <c r="AY3" s="118"/>
+      <c r="AZ3" s="119"/>
+      <c r="BA3" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB3" s="94"/>
+      <c r="BC3" s="94"/>
+      <c r="BD3" s="94"/>
+      <c r="BE3" s="95"/>
+      <c r="BF3" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="69"/>
-      <c r="AV3" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="71"/>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG3" s="74"/>
-      <c r="BH3" s="74"/>
-      <c r="BI3" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ3" s="68"/>
-      <c r="BK3" s="68"/>
-      <c r="BL3" s="68"/>
-      <c r="BM3" s="69"/>
-      <c r="BN3" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="BO3" s="75"/>
-      <c r="BP3" s="75"/>
-      <c r="BQ3" s="75"/>
-      <c r="BR3" s="75"/>
-      <c r="BS3" s="75"/>
-      <c r="BT3" s="75"/>
-      <c r="BU3" s="75"/>
-      <c r="BV3" s="75"/>
-      <c r="BW3" s="75"/>
-      <c r="BX3" s="76"/>
+      <c r="BG3" s="121"/>
+      <c r="BH3" s="121"/>
+      <c r="BI3" s="118" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ3" s="118"/>
+      <c r="BK3" s="118"/>
+      <c r="BL3" s="118"/>
+      <c r="BM3" s="119"/>
+      <c r="BN3" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="BO3" s="91"/>
+      <c r="BP3" s="91"/>
+      <c r="BQ3" s="91"/>
+      <c r="BR3" s="91"/>
+      <c r="BS3" s="91"/>
+      <c r="BT3" s="91"/>
+      <c r="BU3" s="91"/>
+      <c r="BV3" s="91"/>
+      <c r="BW3" s="91"/>
+      <c r="BX3" s="92"/>
     </row>
     <row r="4" spans="2:76" ht="16.5">
-      <c r="B4" s="86">
+      <c r="B4" s="112">
         <v>1</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89" t="s">
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="105"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="104"/>
+      <c r="AL4" s="105"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="105"/>
+      <c r="AR4" s="103"/>
+      <c r="AS4" s="103"/>
+      <c r="AT4" s="103"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="105"/>
+      <c r="AW4" s="103"/>
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="103"/>
+      <c r="AZ4" s="104"/>
+      <c r="BA4" s="105"/>
+      <c r="BB4" s="103"/>
+      <c r="BC4" s="103"/>
+      <c r="BD4" s="103"/>
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG4" s="110"/>
+      <c r="BH4" s="110"/>
+      <c r="BI4" s="105"/>
+      <c r="BJ4" s="103"/>
+      <c r="BK4" s="103"/>
+      <c r="BL4" s="103"/>
+      <c r="BM4" s="104"/>
+      <c r="BN4" s="101"/>
+      <c r="BO4" s="101"/>
+      <c r="BP4" s="101"/>
+      <c r="BQ4" s="101"/>
+      <c r="BR4" s="101"/>
+      <c r="BS4" s="101"/>
+      <c r="BT4" s="101"/>
+      <c r="BU4" s="101"/>
+      <c r="BV4" s="101"/>
+      <c r="BW4" s="101"/>
+      <c r="BX4" s="111"/>
+    </row>
+    <row r="5" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B5" s="76">
+        <v>2</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="80"/>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="80"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="80"/>
-      <c r="AK4" s="81"/>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="80"/>
-      <c r="AP4" s="81"/>
-      <c r="AQ4" s="79"/>
-      <c r="AR4" s="80"/>
-      <c r="AS4" s="80"/>
-      <c r="AT4" s="80"/>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="79"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="80"/>
-      <c r="AZ4" s="81"/>
-      <c r="BA4" s="79"/>
-      <c r="BB4" s="80"/>
-      <c r="BC4" s="80"/>
-      <c r="BD4" s="80"/>
-      <c r="BE4" s="81"/>
-      <c r="BF4" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG4" s="83"/>
-      <c r="BH4" s="83"/>
-      <c r="BI4" s="79"/>
-      <c r="BJ4" s="80"/>
-      <c r="BK4" s="80"/>
-      <c r="BL4" s="80"/>
-      <c r="BM4" s="81"/>
-      <c r="BN4" s="84"/>
-      <c r="BO4" s="84"/>
-      <c r="BP4" s="84"/>
-      <c r="BQ4" s="84"/>
-      <c r="BR4" s="84"/>
-      <c r="BS4" s="84"/>
-      <c r="BT4" s="84"/>
-      <c r="BU4" s="84"/>
-      <c r="BV4" s="84"/>
-      <c r="BW4" s="84"/>
-      <c r="BX4" s="85"/>
-    </row>
-    <row r="5" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B5" s="99">
-        <v>2</v>
-      </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="102" t="s">
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="69"/>
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="70"/>
+      <c r="AE5" s="70"/>
+      <c r="AF5" s="71"/>
+      <c r="AG5" s="69"/>
+      <c r="AH5" s="70"/>
+      <c r="AI5" s="70"/>
+      <c r="AJ5" s="70"/>
+      <c r="AK5" s="71"/>
+      <c r="AL5" s="69"/>
+      <c r="AM5" s="70"/>
+      <c r="AN5" s="70"/>
+      <c r="AO5" s="70"/>
+      <c r="AP5" s="71"/>
+      <c r="AQ5" s="69"/>
+      <c r="AR5" s="70"/>
+      <c r="AS5" s="70"/>
+      <c r="AT5" s="70"/>
+      <c r="AU5" s="71"/>
+      <c r="AV5" s="69"/>
+      <c r="AW5" s="70"/>
+      <c r="AX5" s="70"/>
+      <c r="AY5" s="70"/>
+      <c r="AZ5" s="71"/>
+      <c r="BA5" s="69"/>
+      <c r="BB5" s="70"/>
+      <c r="BC5" s="70"/>
+      <c r="BD5" s="70"/>
+      <c r="BE5" s="71"/>
+      <c r="BF5" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG5" s="73"/>
+      <c r="BH5" s="73"/>
+      <c r="BI5" s="69"/>
+      <c r="BJ5" s="70"/>
+      <c r="BK5" s="70"/>
+      <c r="BL5" s="70"/>
+      <c r="BM5" s="71"/>
+      <c r="BN5" s="74"/>
+      <c r="BO5" s="74"/>
+      <c r="BP5" s="74"/>
+      <c r="BQ5" s="74"/>
+      <c r="BR5" s="74"/>
+      <c r="BS5" s="74"/>
+      <c r="BT5" s="74"/>
+      <c r="BU5" s="74"/>
+      <c r="BV5" s="74"/>
+      <c r="BW5" s="74"/>
+      <c r="BX5" s="75"/>
+    </row>
+    <row r="6" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B6" s="76">
+        <v>3</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="94"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="93"/>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="94"/>
-      <c r="AG5" s="92"/>
-      <c r="AH5" s="93"/>
-      <c r="AI5" s="93"/>
-      <c r="AJ5" s="93"/>
-      <c r="AK5" s="94"/>
-      <c r="AL5" s="92"/>
-      <c r="AM5" s="93"/>
-      <c r="AN5" s="93"/>
-      <c r="AO5" s="93"/>
-      <c r="AP5" s="94"/>
-      <c r="AQ5" s="92"/>
-      <c r="AR5" s="93"/>
-      <c r="AS5" s="93"/>
-      <c r="AT5" s="93"/>
-      <c r="AU5" s="94"/>
-      <c r="AV5" s="92"/>
-      <c r="AW5" s="93"/>
-      <c r="AX5" s="93"/>
-      <c r="AY5" s="93"/>
-      <c r="AZ5" s="94"/>
-      <c r="BA5" s="92"/>
-      <c r="BB5" s="93"/>
-      <c r="BC5" s="93"/>
-      <c r="BD5" s="93"/>
-      <c r="BE5" s="94"/>
-      <c r="BF5" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG5" s="96"/>
-      <c r="BH5" s="96"/>
-      <c r="BI5" s="92"/>
-      <c r="BJ5" s="93"/>
-      <c r="BK5" s="93"/>
-      <c r="BL5" s="93"/>
-      <c r="BM5" s="94"/>
-      <c r="BN5" s="97"/>
-      <c r="BO5" s="97"/>
-      <c r="BP5" s="97"/>
-      <c r="BQ5" s="97"/>
-      <c r="BR5" s="97"/>
-      <c r="BS5" s="97"/>
-      <c r="BT5" s="97"/>
-      <c r="BU5" s="97"/>
-      <c r="BV5" s="97"/>
-      <c r="BW5" s="97"/>
-      <c r="BX5" s="98"/>
-    </row>
-    <row r="6" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B6" s="99">
-        <v>3</v>
-      </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="102" t="s">
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="70"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="69"/>
+      <c r="AH6" s="70"/>
+      <c r="AI6" s="70"/>
+      <c r="AJ6" s="70"/>
+      <c r="AK6" s="71"/>
+      <c r="AL6" s="69"/>
+      <c r="AM6" s="70"/>
+      <c r="AN6" s="70"/>
+      <c r="AO6" s="70"/>
+      <c r="AP6" s="71"/>
+      <c r="AQ6" s="69"/>
+      <c r="AR6" s="70"/>
+      <c r="AS6" s="70"/>
+      <c r="AT6" s="70"/>
+      <c r="AU6" s="71"/>
+      <c r="AV6" s="69"/>
+      <c r="AW6" s="70"/>
+      <c r="AX6" s="70"/>
+      <c r="AY6" s="70"/>
+      <c r="AZ6" s="71"/>
+      <c r="BA6" s="69"/>
+      <c r="BB6" s="70"/>
+      <c r="BC6" s="70"/>
+      <c r="BD6" s="70"/>
+      <c r="BE6" s="71"/>
+      <c r="BF6" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG6" s="73"/>
+      <c r="BH6" s="73"/>
+      <c r="BI6" s="69"/>
+      <c r="BJ6" s="70"/>
+      <c r="BK6" s="70"/>
+      <c r="BL6" s="70"/>
+      <c r="BM6" s="71"/>
+      <c r="BN6" s="74"/>
+      <c r="BO6" s="74"/>
+      <c r="BP6" s="74"/>
+      <c r="BQ6" s="74"/>
+      <c r="BR6" s="74"/>
+      <c r="BS6" s="74"/>
+      <c r="BT6" s="74"/>
+      <c r="BU6" s="74"/>
+      <c r="BV6" s="74"/>
+      <c r="BW6" s="74"/>
+      <c r="BX6" s="75"/>
+    </row>
+    <row r="7" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B7" s="76">
+        <v>4</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="93"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="93"/>
-      <c r="Y6" s="93"/>
-      <c r="Z6" s="93"/>
-      <c r="AA6" s="94"/>
-      <c r="AB6" s="92"/>
-      <c r="AC6" s="93"/>
-      <c r="AD6" s="93"/>
-      <c r="AE6" s="93"/>
-      <c r="AF6" s="94"/>
-      <c r="AG6" s="92"/>
-      <c r="AH6" s="93"/>
-      <c r="AI6" s="93"/>
-      <c r="AJ6" s="93"/>
-      <c r="AK6" s="94"/>
-      <c r="AL6" s="92"/>
-      <c r="AM6" s="93"/>
-      <c r="AN6" s="93"/>
-      <c r="AO6" s="93"/>
-      <c r="AP6" s="94"/>
-      <c r="AQ6" s="92"/>
-      <c r="AR6" s="93"/>
-      <c r="AS6" s="93"/>
-      <c r="AT6" s="93"/>
-      <c r="AU6" s="94"/>
-      <c r="AV6" s="92"/>
-      <c r="AW6" s="93"/>
-      <c r="AX6" s="93"/>
-      <c r="AY6" s="93"/>
-      <c r="AZ6" s="94"/>
-      <c r="BA6" s="92"/>
-      <c r="BB6" s="93"/>
-      <c r="BC6" s="93"/>
-      <c r="BD6" s="93"/>
-      <c r="BE6" s="94"/>
-      <c r="BF6" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG6" s="96"/>
-      <c r="BH6" s="96"/>
-      <c r="BI6" s="92"/>
-      <c r="BJ6" s="93"/>
-      <c r="BK6" s="93"/>
-      <c r="BL6" s="93"/>
-      <c r="BM6" s="94"/>
-      <c r="BN6" s="97"/>
-      <c r="BO6" s="97"/>
-      <c r="BP6" s="97"/>
-      <c r="BQ6" s="97"/>
-      <c r="BR6" s="97"/>
-      <c r="BS6" s="97"/>
-      <c r="BT6" s="97"/>
-      <c r="BU6" s="97"/>
-      <c r="BV6" s="97"/>
-      <c r="BW6" s="97"/>
-      <c r="BX6" s="98"/>
-    </row>
-    <row r="7" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B7" s="99">
-        <v>4</v>
-      </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="102" t="s">
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="69"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="69"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="71"/>
+      <c r="AL7" s="69"/>
+      <c r="AM7" s="70"/>
+      <c r="AN7" s="70"/>
+      <c r="AO7" s="70"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="70"/>
+      <c r="AS7" s="70"/>
+      <c r="AT7" s="70"/>
+      <c r="AU7" s="71"/>
+      <c r="AV7" s="69"/>
+      <c r="AW7" s="70"/>
+      <c r="AX7" s="70"/>
+      <c r="AY7" s="70"/>
+      <c r="AZ7" s="71"/>
+      <c r="BA7" s="69"/>
+      <c r="BB7" s="70"/>
+      <c r="BC7" s="70"/>
+      <c r="BD7" s="70"/>
+      <c r="BE7" s="71"/>
+      <c r="BF7" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG7" s="73"/>
+      <c r="BH7" s="73"/>
+      <c r="BI7" s="69"/>
+      <c r="BJ7" s="70"/>
+      <c r="BK7" s="70"/>
+      <c r="BL7" s="70"/>
+      <c r="BM7" s="71"/>
+      <c r="BN7" s="74"/>
+      <c r="BO7" s="74"/>
+      <c r="BP7" s="74"/>
+      <c r="BQ7" s="74"/>
+      <c r="BR7" s="74"/>
+      <c r="BS7" s="74"/>
+      <c r="BT7" s="74"/>
+      <c r="BU7" s="74"/>
+      <c r="BV7" s="74"/>
+      <c r="BW7" s="74"/>
+      <c r="BX7" s="75"/>
+    </row>
+    <row r="8" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B8" s="76">
+        <v>5</v>
+      </c>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="92"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="94"/>
-      <c r="AG7" s="92"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="93"/>
-      <c r="AJ7" s="93"/>
-      <c r="AK7" s="94"/>
-      <c r="AL7" s="92"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="93"/>
-      <c r="AO7" s="93"/>
-      <c r="AP7" s="94"/>
-      <c r="AQ7" s="92"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="93"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="94"/>
-      <c r="AV7" s="92"/>
-      <c r="AW7" s="93"/>
-      <c r="AX7" s="93"/>
-      <c r="AY7" s="93"/>
-      <c r="AZ7" s="94"/>
-      <c r="BA7" s="92"/>
-      <c r="BB7" s="93"/>
-      <c r="BC7" s="93"/>
-      <c r="BD7" s="93"/>
-      <c r="BE7" s="94"/>
-      <c r="BF7" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG7" s="96"/>
-      <c r="BH7" s="96"/>
-      <c r="BI7" s="92"/>
-      <c r="BJ7" s="93"/>
-      <c r="BK7" s="93"/>
-      <c r="BL7" s="93"/>
-      <c r="BM7" s="94"/>
-      <c r="BN7" s="97"/>
-      <c r="BO7" s="97"/>
-      <c r="BP7" s="97"/>
-      <c r="BQ7" s="97"/>
-      <c r="BR7" s="97"/>
-      <c r="BS7" s="97"/>
-      <c r="BT7" s="97"/>
-      <c r="BU7" s="97"/>
-      <c r="BV7" s="97"/>
-      <c r="BW7" s="97"/>
-      <c r="BX7" s="98"/>
-    </row>
-    <row r="8" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B8" s="99">
-        <v>5</v>
-      </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="94"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
-      <c r="Z8" s="93"/>
-      <c r="AA8" s="94"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="93"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="93"/>
-      <c r="AF8" s="94"/>
-      <c r="AG8" s="92"/>
-      <c r="AH8" s="93"/>
-      <c r="AI8" s="93"/>
-      <c r="AJ8" s="93"/>
-      <c r="AK8" s="94"/>
-      <c r="AL8" s="92"/>
-      <c r="AM8" s="93"/>
-      <c r="AN8" s="93"/>
-      <c r="AO8" s="93"/>
-      <c r="AP8" s="94"/>
-      <c r="AQ8" s="92"/>
-      <c r="AR8" s="93"/>
-      <c r="AS8" s="93"/>
-      <c r="AT8" s="93"/>
-      <c r="AU8" s="94"/>
-      <c r="AV8" s="92"/>
-      <c r="AW8" s="93"/>
-      <c r="AX8" s="93"/>
-      <c r="AY8" s="93"/>
-      <c r="AZ8" s="94"/>
-      <c r="BA8" s="92"/>
-      <c r="BB8" s="93"/>
-      <c r="BC8" s="93"/>
-      <c r="BD8" s="93"/>
-      <c r="BE8" s="94"/>
-      <c r="BF8" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG8" s="96"/>
-      <c r="BH8" s="96"/>
-      <c r="BI8" s="92"/>
-      <c r="BJ8" s="93"/>
-      <c r="BK8" s="93"/>
-      <c r="BL8" s="93"/>
-      <c r="BM8" s="94"/>
-      <c r="BN8" s="97"/>
-      <c r="BO8" s="97"/>
-      <c r="BP8" s="97"/>
-      <c r="BQ8" s="97"/>
-      <c r="BR8" s="97"/>
-      <c r="BS8" s="97"/>
-      <c r="BT8" s="97"/>
-      <c r="BU8" s="97"/>
-      <c r="BV8" s="97"/>
-      <c r="BW8" s="97"/>
-      <c r="BX8" s="98"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="70"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="70"/>
+      <c r="AI8" s="70"/>
+      <c r="AJ8" s="70"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="69"/>
+      <c r="AM8" s="70"/>
+      <c r="AN8" s="70"/>
+      <c r="AO8" s="70"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="69"/>
+      <c r="AR8" s="70"/>
+      <c r="AS8" s="70"/>
+      <c r="AT8" s="70"/>
+      <c r="AU8" s="71"/>
+      <c r="AV8" s="69"/>
+      <c r="AW8" s="70"/>
+      <c r="AX8" s="70"/>
+      <c r="AY8" s="70"/>
+      <c r="AZ8" s="71"/>
+      <c r="BA8" s="69"/>
+      <c r="BB8" s="70"/>
+      <c r="BC8" s="70"/>
+      <c r="BD8" s="70"/>
+      <c r="BE8" s="71"/>
+      <c r="BF8" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG8" s="73"/>
+      <c r="BH8" s="73"/>
+      <c r="BI8" s="69"/>
+      <c r="BJ8" s="70"/>
+      <c r="BK8" s="70"/>
+      <c r="BL8" s="70"/>
+      <c r="BM8" s="71"/>
+      <c r="BN8" s="74"/>
+      <c r="BO8" s="74"/>
+      <c r="BP8" s="74"/>
+      <c r="BQ8" s="74"/>
+      <c r="BR8" s="74"/>
+      <c r="BS8" s="74"/>
+      <c r="BT8" s="74"/>
+      <c r="BU8" s="74"/>
+      <c r="BV8" s="74"/>
+      <c r="BW8" s="74"/>
+      <c r="BX8" s="75"/>
     </row>
     <row r="9" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B9" s="99">
+      <c r="B9" s="76">
         <v>6</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="102" t="s">
+      <c r="C9" s="77"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="94"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="94"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="93"/>
-      <c r="AJ9" s="93"/>
-      <c r="AK9" s="94"/>
-      <c r="AL9" s="92"/>
-      <c r="AM9" s="93"/>
-      <c r="AN9" s="93"/>
-      <c r="AO9" s="93"/>
-      <c r="AP9" s="94"/>
-      <c r="AQ9" s="92"/>
-      <c r="AR9" s="93"/>
-      <c r="AS9" s="93"/>
-      <c r="AT9" s="93"/>
-      <c r="AU9" s="94"/>
-      <c r="AV9" s="92"/>
-      <c r="AW9" s="93"/>
-      <c r="AX9" s="93"/>
-      <c r="AY9" s="93"/>
-      <c r="AZ9" s="94"/>
-      <c r="BA9" s="92"/>
-      <c r="BB9" s="93"/>
-      <c r="BC9" s="93"/>
-      <c r="BD9" s="93"/>
-      <c r="BE9" s="94"/>
-      <c r="BF9" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG9" s="96"/>
-      <c r="BH9" s="96"/>
-      <c r="BI9" s="92"/>
-      <c r="BJ9" s="93"/>
-      <c r="BK9" s="93"/>
-      <c r="BL9" s="93"/>
-      <c r="BM9" s="94"/>
-      <c r="BN9" s="97"/>
-      <c r="BO9" s="97"/>
-      <c r="BP9" s="97"/>
-      <c r="BQ9" s="97"/>
-      <c r="BR9" s="97"/>
-      <c r="BS9" s="97"/>
-      <c r="BT9" s="97"/>
-      <c r="BU9" s="97"/>
-      <c r="BV9" s="97"/>
-      <c r="BW9" s="97"/>
-      <c r="BX9" s="98"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="69"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="69"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="71"/>
+      <c r="AL9" s="69"/>
+      <c r="AM9" s="70"/>
+      <c r="AN9" s="70"/>
+      <c r="AO9" s="70"/>
+      <c r="AP9" s="71"/>
+      <c r="AQ9" s="69"/>
+      <c r="AR9" s="70"/>
+      <c r="AS9" s="70"/>
+      <c r="AT9" s="70"/>
+      <c r="AU9" s="71"/>
+      <c r="AV9" s="69"/>
+      <c r="AW9" s="70"/>
+      <c r="AX9" s="70"/>
+      <c r="AY9" s="70"/>
+      <c r="AZ9" s="71"/>
+      <c r="BA9" s="69"/>
+      <c r="BB9" s="70"/>
+      <c r="BC9" s="70"/>
+      <c r="BD9" s="70"/>
+      <c r="BE9" s="71"/>
+      <c r="BF9" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG9" s="73"/>
+      <c r="BH9" s="73"/>
+      <c r="BI9" s="69"/>
+      <c r="BJ9" s="70"/>
+      <c r="BK9" s="70"/>
+      <c r="BL9" s="70"/>
+      <c r="BM9" s="71"/>
+      <c r="BN9" s="74"/>
+      <c r="BO9" s="74"/>
+      <c r="BP9" s="74"/>
+      <c r="BQ9" s="74"/>
+      <c r="BR9" s="74"/>
+      <c r="BS9" s="74"/>
+      <c r="BT9" s="74"/>
+      <c r="BU9" s="74"/>
+      <c r="BV9" s="74"/>
+      <c r="BW9" s="74"/>
+      <c r="BX9" s="75"/>
     </row>
     <row r="10" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B10" s="112">
+      <c r="B10" s="81">
         <v>7</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="105"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="104"/>
-      <c r="X10" s="105"/>
-      <c r="Y10" s="105"/>
-      <c r="Z10" s="105"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="104"/>
-      <c r="AC10" s="105"/>
-      <c r="AD10" s="105"/>
-      <c r="AE10" s="105"/>
-      <c r="AF10" s="106"/>
-      <c r="AG10" s="104"/>
-      <c r="AH10" s="105"/>
-      <c r="AI10" s="105"/>
-      <c r="AJ10" s="105"/>
-      <c r="AK10" s="106"/>
-      <c r="AL10" s="104"/>
-      <c r="AM10" s="105"/>
-      <c r="AN10" s="105"/>
-      <c r="AO10" s="105"/>
-      <c r="AP10" s="106"/>
-      <c r="AQ10" s="104"/>
-      <c r="AR10" s="105"/>
-      <c r="AS10" s="105"/>
-      <c r="AT10" s="105"/>
-      <c r="AU10" s="106"/>
-      <c r="AV10" s="104"/>
-      <c r="AW10" s="105"/>
-      <c r="AX10" s="105"/>
-      <c r="AY10" s="105"/>
-      <c r="AZ10" s="106"/>
-      <c r="BA10" s="107"/>
-      <c r="BB10" s="105"/>
-      <c r="BC10" s="105"/>
-      <c r="BD10" s="105"/>
-      <c r="BE10" s="106"/>
-      <c r="BF10" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG10" s="109"/>
-      <c r="BH10" s="109"/>
-      <c r="BI10" s="104"/>
-      <c r="BJ10" s="105"/>
-      <c r="BK10" s="105"/>
-      <c r="BL10" s="105"/>
-      <c r="BM10" s="106"/>
-      <c r="BN10" s="110"/>
-      <c r="BO10" s="110"/>
-      <c r="BP10" s="110"/>
-      <c r="BQ10" s="110"/>
-      <c r="BR10" s="110"/>
-      <c r="BS10" s="110"/>
-      <c r="BT10" s="110"/>
-      <c r="BU10" s="110"/>
-      <c r="BV10" s="110"/>
-      <c r="BW10" s="110"/>
-      <c r="BX10" s="111"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="88"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="88"/>
+      <c r="AG10" s="89"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="88"/>
+      <c r="AL10" s="89"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="88"/>
+      <c r="AQ10" s="89"/>
+      <c r="AR10" s="87"/>
+      <c r="AS10" s="87"/>
+      <c r="AT10" s="87"/>
+      <c r="AU10" s="88"/>
+      <c r="AV10" s="89"/>
+      <c r="AW10" s="87"/>
+      <c r="AX10" s="87"/>
+      <c r="AY10" s="87"/>
+      <c r="AZ10" s="88"/>
+      <c r="BA10" s="86"/>
+      <c r="BB10" s="87"/>
+      <c r="BC10" s="87"/>
+      <c r="BD10" s="87"/>
+      <c r="BE10" s="88"/>
+      <c r="BF10" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG10" s="107"/>
+      <c r="BH10" s="107"/>
+      <c r="BI10" s="89"/>
+      <c r="BJ10" s="87"/>
+      <c r="BK10" s="87"/>
+      <c r="BL10" s="87"/>
+      <c r="BM10" s="88"/>
+      <c r="BN10" s="85"/>
+      <c r="BO10" s="85"/>
+      <c r="BP10" s="85"/>
+      <c r="BQ10" s="85"/>
+      <c r="BR10" s="85"/>
+      <c r="BS10" s="85"/>
+      <c r="BT10" s="85"/>
+      <c r="BU10" s="85"/>
+      <c r="BV10" s="85"/>
+      <c r="BW10" s="85"/>
+      <c r="BX10" s="108"/>
     </row>
     <row r="11" spans="2:76" ht="16.5">
       <c r="B11" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:76" ht="16.5">
       <c r="I12" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="2:76" ht="16.5">
       <c r="I13" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="2:76" ht="15" customHeight="1">
       <c r="B15" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:76" ht="15" customHeight="1">
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="91"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="70" t="s">
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="71" t="s">
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="72"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="94"/>
+      <c r="AC16" s="95"/>
     </row>
     <row r="17" spans="2:29" ht="15" customHeight="1">
-      <c r="B17" s="116">
+      <c r="B17" s="97">
         <v>1</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="119" t="s">
+      <c r="C17" s="98"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="105"/>
+      <c r="Z17" s="103"/>
+      <c r="AA17" s="103"/>
+      <c r="AB17" s="103"/>
+      <c r="AC17" s="104"/>
+    </row>
+    <row r="18" spans="2:29" ht="15" customHeight="1">
+      <c r="B18" s="76">
+        <v>2</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="80"/>
-      <c r="V17" s="80"/>
-      <c r="W17" s="80"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="80"/>
-      <c r="AA17" s="80"/>
-      <c r="AB17" s="80"/>
-      <c r="AC17" s="81"/>
-    </row>
-    <row r="18" spans="2:29" ht="15" customHeight="1">
-      <c r="B18" s="99">
-        <v>2</v>
-      </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102" t="s">
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="69"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="70"/>
+      <c r="AB18" s="70"/>
+      <c r="AC18" s="71"/>
+    </row>
+    <row r="19" spans="2:29" ht="15" customHeight="1">
+      <c r="B19" s="76">
+        <v>3</v>
+      </c>
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="92"/>
-      <c r="Z18" s="93"/>
-      <c r="AA18" s="93"/>
-      <c r="AB18" s="93"/>
-      <c r="AC18" s="94"/>
-    </row>
-    <row r="19" spans="2:29" ht="15" customHeight="1">
-      <c r="B19" s="99">
-        <v>3</v>
-      </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102" t="s">
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="71"/>
+    </row>
+    <row r="20" spans="2:29" ht="15" customHeight="1">
+      <c r="B20" s="81">
+        <v>4</v>
+      </c>
+      <c r="C20" s="82"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="93"/>
-      <c r="AB19" s="93"/>
-      <c r="AC19" s="94"/>
-    </row>
-    <row r="20" spans="2:29" ht="15" customHeight="1">
-      <c r="B20" s="112">
-        <v>4</v>
-      </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="105"/>
-      <c r="O20" s="105"/>
-      <c r="P20" s="105"/>
-      <c r="Q20" s="105"/>
-      <c r="R20" s="105"/>
-      <c r="S20" s="106"/>
-      <c r="T20" s="104"/>
-      <c r="U20" s="105"/>
-      <c r="V20" s="105"/>
-      <c r="W20" s="105"/>
-      <c r="X20" s="106"/>
-      <c r="Y20" s="104"/>
-      <c r="Z20" s="105"/>
-      <c r="AA20" s="105"/>
-      <c r="AB20" s="105"/>
-      <c r="AC20" s="106"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="87"/>
+      <c r="V20" s="87"/>
+      <c r="W20" s="87"/>
+      <c r="X20" s="88"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="87"/>
+      <c r="AA20" s="87"/>
+      <c r="AB20" s="87"/>
+      <c r="AC20" s="88"/>
     </row>
     <row r="21" spans="2:29" ht="9" customHeight="1"/>
     <row r="22" spans="2:29" ht="9" customHeight="1"/>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BM8"/>
-    <mergeCell ref="BN8:BX8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AB8:AF8"/>
-    <mergeCell ref="AG8:AK8"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="M19:S19"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="Y19:AC19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="M20:S20"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="AQ3:AU3"/>
+    <mergeCell ref="AV3:AZ3"/>
+    <mergeCell ref="BA3:BE3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BM3"/>
+    <mergeCell ref="BN3:BX3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AL3:AP3"/>
+    <mergeCell ref="AQ4:AU4"/>
+    <mergeCell ref="AV4:AZ4"/>
+    <mergeCell ref="BA4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BM4"/>
+    <mergeCell ref="BN4:BX4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="AB4:AF4"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="AL4:AP4"/>
+    <mergeCell ref="AQ5:AU5"/>
+    <mergeCell ref="AV5:AZ5"/>
+    <mergeCell ref="BA5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BM5"/>
+    <mergeCell ref="BN5:BX5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="AB5:AF5"/>
+    <mergeCell ref="AG5:AK5"/>
+    <mergeCell ref="AL5:AP5"/>
+    <mergeCell ref="AQ6:AU6"/>
+    <mergeCell ref="AV6:AZ6"/>
+    <mergeCell ref="BA6:BE6"/>
+    <mergeCell ref="BF6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="BN6:BX6"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="AB6:AF6"/>
+    <mergeCell ref="AG6:AK6"/>
+    <mergeCell ref="AL6:AP6"/>
+    <mergeCell ref="AQ7:AU7"/>
+    <mergeCell ref="AV7:AZ7"/>
+    <mergeCell ref="BA7:BE7"/>
+    <mergeCell ref="BF7:BH7"/>
+    <mergeCell ref="BI7:BM7"/>
+    <mergeCell ref="BN7:BX7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="AL7:AP7"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BA9:BE9"/>
+    <mergeCell ref="BF9:BH9"/>
+    <mergeCell ref="BI9:BM9"/>
+    <mergeCell ref="BN9:BX9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="AL9:AP9"/>
+    <mergeCell ref="AQ10:AU10"/>
+    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="BF10:BH10"/>
+    <mergeCell ref="BI10:BM10"/>
+    <mergeCell ref="BN10:BX10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AL10:AP10"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:L18"/>
     <mergeCell ref="M18:S18"/>
@@ -5600,135 +5903,61 @@
     <mergeCell ref="M17:S17"/>
     <mergeCell ref="T17:X17"/>
     <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="AQ10:AU10"/>
-    <mergeCell ref="AV10:AZ10"/>
-    <mergeCell ref="BA10:BE10"/>
-    <mergeCell ref="BF10:BH10"/>
-    <mergeCell ref="BI10:BM10"/>
-    <mergeCell ref="BN10:BX10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="BA9:BE9"/>
-    <mergeCell ref="BF9:BH9"/>
-    <mergeCell ref="BI9:BM9"/>
-    <mergeCell ref="BN9:BX9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="W9:AA9"/>
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="AL9:AP9"/>
-    <mergeCell ref="AQ7:AU7"/>
-    <mergeCell ref="AV7:AZ7"/>
-    <mergeCell ref="BA7:BE7"/>
-    <mergeCell ref="BF7:BH7"/>
-    <mergeCell ref="BI7:BM7"/>
-    <mergeCell ref="BN7:BX7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="AG7:AK7"/>
-    <mergeCell ref="AL7:AP7"/>
-    <mergeCell ref="AQ6:AU6"/>
-    <mergeCell ref="AV6:AZ6"/>
-    <mergeCell ref="BA6:BE6"/>
-    <mergeCell ref="BF6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN6:BX6"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="AB6:AF6"/>
-    <mergeCell ref="AG6:AK6"/>
-    <mergeCell ref="AL6:AP6"/>
-    <mergeCell ref="AQ5:AU5"/>
-    <mergeCell ref="AV5:AZ5"/>
-    <mergeCell ref="BA5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BM5"/>
-    <mergeCell ref="BN5:BX5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="AB5:AF5"/>
-    <mergeCell ref="AG5:AK5"/>
-    <mergeCell ref="AL5:AP5"/>
-    <mergeCell ref="AQ4:AU4"/>
-    <mergeCell ref="AV4:AZ4"/>
-    <mergeCell ref="BA4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BM4"/>
-    <mergeCell ref="BN4:BX4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="AB4:AF4"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="AL4:AP4"/>
-    <mergeCell ref="AQ3:AU3"/>
-    <mergeCell ref="AV3:AZ3"/>
-    <mergeCell ref="BA3:BE3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BM3"/>
-    <mergeCell ref="BN3:BX3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AL3:AP3"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="M19:S19"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="M20:S20"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BM8"/>
+    <mergeCell ref="BN8:BX8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="AL8:AP8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="M17:M20">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:BE10">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:AC20">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI4:BM10">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5742,7 +5971,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E196A8D9-7549-430E-A3AB-7497B8F56F8E}">
           <x14:formula1>
-            <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
+            <xm:f>実施結果報告書!$M$1:$M$5</xm:f>
           </x14:formula1>
           <xm:sqref>M17:M20 M4:BE10 BI4:BM10 T17:AC20</xm:sqref>
         </x14:dataValidation>
@@ -5754,7 +5983,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D71E6D0-331A-491E-BD3D-2DFFDC27A3B8}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -5762,9 +5991,9 @@
   <cols>
     <col min="1" max="1" width="10.625" style="29" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="30.375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="62.25" style="30" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="31" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="31" customWidth="1"/>
     <col min="8" max="8" width="60.875" style="9" bestFit="1" customWidth="1"/>
@@ -5790,13 +6019,13 @@
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="B2" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="11" t="s">
         <v>15</v>
       </c>
@@ -5829,16 +6058,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75">
-      <c r="A4" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
+      <c r="A4" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="1:8" ht="37.5">
       <c r="A5" s="19">
@@ -5851,10 +6080,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="23"/>
@@ -5872,10 +6101,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="23"/>
@@ -5887,21 +6116,21 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
       <c r="H7" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -5910,16 +6139,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="17"/>
@@ -5931,133 +6160,133 @@
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75">
+    <row r="10" spans="1:8" s="8" customFormat="1" ht="37.5">
       <c r="A10" s="19">
-        <f ca="1">IF(ISNUMBER(OFFSET(A10, -1, 0)), OFFSET(A10, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
+        <f ca="1">IF(ISNUMBER(OFFSET(A10, -1, 0)), OFFSET(A10, -1, 0) + 1, OFFSET(A6, -1, 0) + 1)</f>
         <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" s="8" customFormat="1" ht="37.5">
+      <c r="A11" s="19">
+        <f ca="1">IF(ISNUMBER(OFFSET(A11, -1, 0)), OFFSET(A11, -1, 0) + 1, OFFSET(A7, -1, 0) + 1)</f>
+        <v>7</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75">
+      <c r="A12" s="19">
+        <f ca="1">IF(ISNUMBER(OFFSET(A12, -1, 0)), OFFSET(A12, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
+        <v>8</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="D12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.75">
+      <c r="A13" s="19">
+        <f t="shared" ref="A13:A15" ca="1" si="2">IF(ISNUMBER(OFFSET(A13, -1, 0)), OFFSET(A13, -1, 0) + 1, OFFSET(A12, -1, 0) + 1)</f>
+        <v>9</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="E13" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75">
-      <c r="A11" s="19">
-        <f t="shared" ref="A11:A13" ca="1" si="2">IF(ISNUMBER(OFFSET(A11, -1, 0)), OFFSET(A11, -1, 0) + 1, OFFSET(A10, -1, 0) + 1)</f>
-        <v>7</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A12" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
-    </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A13" s="19">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>89</v>
-      </c>
       <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A14" s="19">
-        <f ca="1">IF(ISNUMBER(OFFSET(A14, -1, 0)), OFFSET(A14, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
-        <v>9</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="24"/>
+      <c r="A14" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
     </row>
     <row r="15" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A15" s="19">
-        <f ca="1">IF(ISNUMBER(OFFSET(A15, -1, 0)), OFFSET(A15, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -6069,22 +6298,20 @@
         <v>11</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="24" t="s">
-        <v>125</v>
-      </c>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A17" s="19">
@@ -6092,168 +6319,441 @@
         <v>12</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="24" t="s">
-        <v>124</v>
-      </c>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A18" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66"/>
+      <c r="A18" s="19">
+        <f ca="1">IF(ISNUMBER(OFFSET(A18, -1, 0)), OFFSET(A18, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
+        <v>13</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="24" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="19" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A19" s="19">
-        <f t="shared" ref="A19:A22" ca="1" si="3">IF(ISNUMBER(OFFSET(A19, -1, 0)), OFFSET(A19, -1, 0) + 1, OFFSET(A18, -1, 0) + 1)</f>
-        <v>13</v>
+        <f ca="1">IF(ISNUMBER(OFFSET(A19, -1, 0)), OFFSET(A19, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
+        <v>14</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="H19" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="8" customFormat="1" ht="37.5">
       <c r="A20" s="19">
-        <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <f ca="1">IF(ISNUMBER(OFFSET(A20, -1, 0)), OFFSET(A20, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
+        <v>15</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="24"/>
     </row>
-    <row r="21" spans="1:8" s="8" customFormat="1" ht="18.75">
+    <row r="21" spans="1:8" s="8" customFormat="1" ht="37.5">
       <c r="A21" s="19">
-        <f t="shared" ca="1" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="B21" s="32" t="s">
+        <f ca="1">IF(ISNUMBER(OFFSET(A21, -1, 0)), OFFSET(A21, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
+        <v>16</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A22" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="68"/>
+    </row>
+    <row r="23" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A23" s="19">
+        <f t="shared" ref="A23" ca="1" si="3">IF(ISNUMBER(OFFSET(A23, -1, 0)), OFFSET(A23, -1, 0) + 1, OFFSET(A22, -1, 0) + 1)</f>
+        <v>17</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A24" s="19">
+        <f ca="1">IF(ISNUMBER(OFFSET(A24, -1, 0)), OFFSET(A24, -1, 0) + 1, OFFSET(A19, -1, 0) + 1)</f>
+        <v>18</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A25" s="19">
+        <f ca="1">IF(ISNUMBER(OFFSET(A25, -1, 0)), OFFSET(A25, -1, 0) + 1, OFFSET(A23, -1, 0) + 1)</f>
+        <v>19</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A26" s="19">
+        <f ca="1">IF(ISNUMBER(OFFSET(A26, -1, 0)), OFFSET(A26, -1, 0) + 1, OFFSET(A23, -1, 0) + 1)</f>
+        <v>20</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
-    </row>
-    <row r="22" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A22" s="19">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="32" t="s">
+      <c r="C26" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A27" s="19">
+        <f ca="1">IF(ISNUMBER(OFFSET(A27, -1, 0)), OFFSET(A27, -1, 0) + 1, OFFSET(A22, -1, 0) + 1)</f>
+        <v>21</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A28" s="19">
+        <f ca="1">IF(ISNUMBER(OFFSET(A28, -1, 0)), OFFSET(A28, -1, 0) + 1, OFFSET(A20, -1, 0) + 1)</f>
+        <v>22</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="24"/>
+    </row>
+    <row r="29" spans="1:8" s="8" customFormat="1" ht="37.5">
+      <c r="A29" s="19">
+        <f t="shared" ref="A29:A31" ca="1" si="4">IF(ISNUMBER(OFFSET(A29, -1, 0)), OFFSET(A29, -1, 0) + 1, OFFSET(A28, -1, 0) + 1)</f>
+        <v>23</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A30" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
-    </row>
-    <row r="23" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A23" s="25">
-        <f ca="1">IF(ISNUMBER(OFFSET(A23, -1, 0)), OFFSET(A23, -1, 0) + 1, OFFSET(A20, -1, 0) + 1)</f>
-        <v>17</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="26" t="s">
+      <c r="C30" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="34"/>
+    </row>
+    <row r="31" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A31" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A32" s="19">
+        <f ca="1">IF(ISNUMBER(OFFSET(A32, -1, 0)), OFFSET(A32, -1, 0) + 1, OFFSET(A30, -1, 0) + 1)</f>
+        <v>26</v>
+      </c>
+      <c r="B32" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="C32" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
+    </row>
+    <row r="33" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A33" s="42">
+        <v>26</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="11.25" customHeight="1"/>
+    </row>
+    <row r="34" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A34" s="42">
+        <v>27</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A35" s="42">
+        <v>28</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A36" s="25">
+        <v>29</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F5:F11">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+  <conditionalFormatting sqref="F5:F13 F15:F21">
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F17">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"―"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F23">
+  <conditionalFormatting sqref="F23:F36">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
@@ -6262,15 +6762,15 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="36" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="35" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{35D92919-368A-4AC0-887B-2367C4FFAE56}">
           <x14:formula1>
-            <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
+            <xm:f>実施結果報告書!$M$1:$M$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F11 F19:F23 F13:F17</xm:sqref>
+          <xm:sqref>F5:F13 F15:F21 F23:F36</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6299,2292 +6799,2452 @@
   <sheetData>
     <row r="2" spans="2:76" ht="15" customHeight="1">
       <c r="B2" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:76" ht="15" customHeight="1">
-      <c r="B3" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="70" t="s">
+      <c r="B3" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="78" t="s">
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="78" t="s">
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="71" t="s">
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH3" s="118"/>
+      <c r="AI3" s="118"/>
+      <c r="AJ3" s="118"/>
+      <c r="AK3" s="119"/>
+      <c r="AL3" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM3" s="118"/>
+      <c r="AN3" s="118"/>
+      <c r="AO3" s="118"/>
+      <c r="AP3" s="119"/>
+      <c r="AQ3" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR3" s="118"/>
+      <c r="AS3" s="118"/>
+      <c r="AT3" s="118"/>
+      <c r="AU3" s="119"/>
+      <c r="AV3" s="118" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW3" s="118"/>
+      <c r="AX3" s="118"/>
+      <c r="AY3" s="118"/>
+      <c r="AZ3" s="119"/>
+      <c r="BA3" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB3" s="94"/>
+      <c r="BC3" s="94"/>
+      <c r="BD3" s="94"/>
+      <c r="BE3" s="95"/>
+      <c r="BF3" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="69"/>
-      <c r="AV3" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="71"/>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG3" s="74"/>
-      <c r="BH3" s="74"/>
-      <c r="BI3" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ3" s="68"/>
-      <c r="BK3" s="68"/>
-      <c r="BL3" s="68"/>
-      <c r="BM3" s="69"/>
-      <c r="BN3" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="BO3" s="75"/>
-      <c r="BP3" s="75"/>
-      <c r="BQ3" s="75"/>
-      <c r="BR3" s="75"/>
-      <c r="BS3" s="75"/>
-      <c r="BT3" s="75"/>
-      <c r="BU3" s="75"/>
-      <c r="BV3" s="75"/>
-      <c r="BW3" s="75"/>
-      <c r="BX3" s="76"/>
+      <c r="BG3" s="121"/>
+      <c r="BH3" s="121"/>
+      <c r="BI3" s="118" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ3" s="118"/>
+      <c r="BK3" s="118"/>
+      <c r="BL3" s="118"/>
+      <c r="BM3" s="119"/>
+      <c r="BN3" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="BO3" s="91"/>
+      <c r="BP3" s="91"/>
+      <c r="BQ3" s="91"/>
+      <c r="BR3" s="91"/>
+      <c r="BS3" s="91"/>
+      <c r="BT3" s="91"/>
+      <c r="BU3" s="91"/>
+      <c r="BV3" s="91"/>
+      <c r="BW3" s="91"/>
+      <c r="BX3" s="92"/>
     </row>
     <row r="4" spans="2:76" ht="15" customHeight="1">
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="131" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="132"/>
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="132"/>
+      <c r="AG4" s="132"/>
+      <c r="AH4" s="132"/>
+      <c r="AI4" s="132"/>
+      <c r="AJ4" s="132"/>
+      <c r="AK4" s="132"/>
+      <c r="AL4" s="132"/>
+      <c r="AM4" s="132"/>
+      <c r="AN4" s="132"/>
+      <c r="AO4" s="132"/>
+      <c r="AP4" s="132"/>
+      <c r="AQ4" s="132"/>
+      <c r="AR4" s="132"/>
+      <c r="AS4" s="132"/>
+      <c r="AT4" s="132"/>
+      <c r="AU4" s="132"/>
+      <c r="AV4" s="132"/>
+      <c r="AW4" s="132"/>
+      <c r="AX4" s="132"/>
+      <c r="AY4" s="132"/>
+      <c r="AZ4" s="132"/>
+      <c r="BA4" s="132"/>
+      <c r="BB4" s="132"/>
+      <c r="BC4" s="132"/>
+      <c r="BD4" s="132"/>
+      <c r="BE4" s="132"/>
+      <c r="BF4" s="132"/>
+      <c r="BG4" s="132"/>
+      <c r="BH4" s="132"/>
+      <c r="BI4" s="132"/>
+      <c r="BJ4" s="132"/>
+      <c r="BK4" s="132"/>
+      <c r="BL4" s="132"/>
+      <c r="BM4" s="132"/>
+      <c r="BN4" s="132"/>
+      <c r="BO4" s="132"/>
+      <c r="BP4" s="132"/>
+      <c r="BQ4" s="132"/>
+      <c r="BR4" s="132"/>
+      <c r="BS4" s="132"/>
+      <c r="BT4" s="132"/>
+      <c r="BU4" s="132"/>
+      <c r="BV4" s="132"/>
+      <c r="BW4" s="132"/>
+      <c r="BX4" s="133"/>
+    </row>
+    <row r="5" spans="2:76" ht="16.5">
+      <c r="B5" s="97">
+        <v>1</v>
+      </c>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="102"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="102"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="104"/>
+      <c r="AG5" s="105"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="104"/>
+      <c r="AL5" s="105"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="103"/>
+      <c r="AP5" s="104"/>
+      <c r="AQ5" s="102"/>
+      <c r="AR5" s="103"/>
+      <c r="AS5" s="103"/>
+      <c r="AT5" s="103"/>
+      <c r="AU5" s="104"/>
+      <c r="AV5" s="102"/>
+      <c r="AW5" s="103"/>
+      <c r="AX5" s="103"/>
+      <c r="AY5" s="103"/>
+      <c r="AZ5" s="104"/>
+      <c r="BA5" s="102"/>
+      <c r="BB5" s="103"/>
+      <c r="BC5" s="103"/>
+      <c r="BD5" s="103"/>
+      <c r="BE5" s="104"/>
+      <c r="BF5" s="125" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG5" s="126"/>
+      <c r="BH5" s="127"/>
+      <c r="BI5" s="105"/>
+      <c r="BJ5" s="103"/>
+      <c r="BK5" s="103"/>
+      <c r="BL5" s="103"/>
+      <c r="BM5" s="104"/>
+      <c r="BN5" s="100"/>
+      <c r="BO5" s="101"/>
+      <c r="BP5" s="101"/>
+      <c r="BQ5" s="101"/>
+      <c r="BR5" s="101"/>
+      <c r="BS5" s="101"/>
+      <c r="BT5" s="101"/>
+      <c r="BU5" s="101"/>
+      <c r="BV5" s="101"/>
+      <c r="BW5" s="101"/>
+      <c r="BX5" s="111"/>
+    </row>
+    <row r="6" spans="2:76" ht="16.5">
+      <c r="B6" s="76">
+        <v>2</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="70"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="69"/>
+      <c r="AH6" s="70"/>
+      <c r="AI6" s="70"/>
+      <c r="AJ6" s="70"/>
+      <c r="AK6" s="71"/>
+      <c r="AL6" s="69"/>
+      <c r="AM6" s="70"/>
+      <c r="AN6" s="70"/>
+      <c r="AO6" s="70"/>
+      <c r="AP6" s="71"/>
+      <c r="AQ6" s="69"/>
+      <c r="AR6" s="70"/>
+      <c r="AS6" s="70"/>
+      <c r="AT6" s="70"/>
+      <c r="AU6" s="71"/>
+      <c r="AV6" s="69"/>
+      <c r="AW6" s="70"/>
+      <c r="AX6" s="70"/>
+      <c r="AY6" s="70"/>
+      <c r="AZ6" s="71"/>
+      <c r="BA6" s="69"/>
+      <c r="BB6" s="70"/>
+      <c r="BC6" s="70"/>
+      <c r="BD6" s="70"/>
+      <c r="BE6" s="71"/>
+      <c r="BF6" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="121"/>
-      <c r="V4" s="121"/>
-      <c r="W4" s="121"/>
-      <c r="X4" s="121"/>
-      <c r="Y4" s="121"/>
-      <c r="Z4" s="121"/>
-      <c r="AA4" s="121"/>
-      <c r="AB4" s="121"/>
-      <c r="AC4" s="121"/>
-      <c r="AD4" s="121"/>
-      <c r="AE4" s="121"/>
-      <c r="AF4" s="121"/>
-      <c r="AG4" s="121"/>
-      <c r="AH4" s="121"/>
-      <c r="AI4" s="121"/>
-      <c r="AJ4" s="121"/>
-      <c r="AK4" s="121"/>
-      <c r="AL4" s="121"/>
-      <c r="AM4" s="121"/>
-      <c r="AN4" s="121"/>
-      <c r="AO4" s="121"/>
-      <c r="AP4" s="121"/>
-      <c r="AQ4" s="121"/>
-      <c r="AR4" s="121"/>
-      <c r="AS4" s="121"/>
-      <c r="AT4" s="121"/>
-      <c r="AU4" s="121"/>
-      <c r="AV4" s="121"/>
-      <c r="AW4" s="121"/>
-      <c r="AX4" s="121"/>
-      <c r="AY4" s="121"/>
-      <c r="AZ4" s="121"/>
-      <c r="BA4" s="121"/>
-      <c r="BB4" s="121"/>
-      <c r="BC4" s="121"/>
-      <c r="BD4" s="121"/>
-      <c r="BE4" s="121"/>
-      <c r="BF4" s="121"/>
-      <c r="BG4" s="121"/>
-      <c r="BH4" s="121"/>
-      <c r="BI4" s="121"/>
-      <c r="BJ4" s="121"/>
-      <c r="BK4" s="121"/>
-      <c r="BL4" s="121"/>
-      <c r="BM4" s="121"/>
-      <c r="BN4" s="121"/>
-      <c r="BO4" s="121"/>
-      <c r="BP4" s="121"/>
-      <c r="BQ4" s="121"/>
-      <c r="BR4" s="121"/>
-      <c r="BS4" s="121"/>
-      <c r="BT4" s="121"/>
-      <c r="BU4" s="121"/>
-      <c r="BV4" s="121"/>
-      <c r="BW4" s="121"/>
-      <c r="BX4" s="122"/>
-    </row>
-    <row r="5" spans="2:76" ht="16.5">
-      <c r="B5" s="116">
-        <v>1</v>
-      </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="91"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="91"/>
-      <c r="AC5" s="80"/>
-      <c r="AD5" s="80"/>
-      <c r="AE5" s="80"/>
-      <c r="AF5" s="81"/>
-      <c r="AG5" s="79"/>
-      <c r="AH5" s="80"/>
-      <c r="AI5" s="80"/>
-      <c r="AJ5" s="80"/>
-      <c r="AK5" s="81"/>
-      <c r="AL5" s="79"/>
-      <c r="AM5" s="80"/>
-      <c r="AN5" s="80"/>
-      <c r="AO5" s="80"/>
-      <c r="AP5" s="81"/>
-      <c r="AQ5" s="91"/>
-      <c r="AR5" s="80"/>
-      <c r="AS5" s="80"/>
-      <c r="AT5" s="80"/>
-      <c r="AU5" s="81"/>
-      <c r="AV5" s="91"/>
-      <c r="AW5" s="80"/>
-      <c r="AX5" s="80"/>
-      <c r="AY5" s="80"/>
-      <c r="AZ5" s="81"/>
-      <c r="BA5" s="91"/>
-      <c r="BB5" s="80"/>
-      <c r="BC5" s="80"/>
-      <c r="BD5" s="80"/>
-      <c r="BE5" s="81"/>
-      <c r="BF5" s="126" t="s">
-        <v>108</v>
-      </c>
-      <c r="BG5" s="127"/>
-      <c r="BH5" s="128"/>
-      <c r="BI5" s="79"/>
-      <c r="BJ5" s="80"/>
-      <c r="BK5" s="80"/>
-      <c r="BL5" s="80"/>
-      <c r="BM5" s="81"/>
-      <c r="BN5" s="119"/>
-      <c r="BO5" s="84"/>
-      <c r="BP5" s="84"/>
-      <c r="BQ5" s="84"/>
-      <c r="BR5" s="84"/>
-      <c r="BS5" s="84"/>
-      <c r="BT5" s="84"/>
-      <c r="BU5" s="84"/>
-      <c r="BV5" s="84"/>
-      <c r="BW5" s="84"/>
-      <c r="BX5" s="85"/>
-    </row>
-    <row r="6" spans="2:76" ht="16.5">
-      <c r="B6" s="99">
-        <v>2</v>
-      </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="102" t="s">
+      <c r="BG6" s="73"/>
+      <c r="BH6" s="73"/>
+      <c r="BI6" s="69"/>
+      <c r="BJ6" s="70"/>
+      <c r="BK6" s="70"/>
+      <c r="BL6" s="70"/>
+      <c r="BM6" s="71"/>
+      <c r="BN6" s="74"/>
+      <c r="BO6" s="74"/>
+      <c r="BP6" s="74"/>
+      <c r="BQ6" s="74"/>
+      <c r="BR6" s="74"/>
+      <c r="BS6" s="74"/>
+      <c r="BT6" s="74"/>
+      <c r="BU6" s="74"/>
+      <c r="BV6" s="74"/>
+      <c r="BW6" s="74"/>
+      <c r="BX6" s="75"/>
+    </row>
+    <row r="7" spans="2:76" ht="16.5">
+      <c r="B7" s="76">
+        <v>3</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="93"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="93"/>
-      <c r="Y6" s="93"/>
-      <c r="Z6" s="93"/>
-      <c r="AA6" s="94"/>
-      <c r="AB6" s="92"/>
-      <c r="AC6" s="93"/>
-      <c r="AD6" s="93"/>
-      <c r="AE6" s="93"/>
-      <c r="AF6" s="94"/>
-      <c r="AG6" s="92"/>
-      <c r="AH6" s="93"/>
-      <c r="AI6" s="93"/>
-      <c r="AJ6" s="93"/>
-      <c r="AK6" s="94"/>
-      <c r="AL6" s="92"/>
-      <c r="AM6" s="93"/>
-      <c r="AN6" s="93"/>
-      <c r="AO6" s="93"/>
-      <c r="AP6" s="94"/>
-      <c r="AQ6" s="92"/>
-      <c r="AR6" s="93"/>
-      <c r="AS6" s="93"/>
-      <c r="AT6" s="93"/>
-      <c r="AU6" s="94"/>
-      <c r="AV6" s="92"/>
-      <c r="AW6" s="93"/>
-      <c r="AX6" s="93"/>
-      <c r="AY6" s="93"/>
-      <c r="AZ6" s="94"/>
-      <c r="BA6" s="92"/>
-      <c r="BB6" s="93"/>
-      <c r="BC6" s="93"/>
-      <c r="BD6" s="93"/>
-      <c r="BE6" s="94"/>
-      <c r="BF6" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG6" s="96"/>
-      <c r="BH6" s="96"/>
-      <c r="BI6" s="92"/>
-      <c r="BJ6" s="93"/>
-      <c r="BK6" s="93"/>
-      <c r="BL6" s="93"/>
-      <c r="BM6" s="94"/>
-      <c r="BN6" s="97"/>
-      <c r="BO6" s="97"/>
-      <c r="BP6" s="97"/>
-      <c r="BQ6" s="97"/>
-      <c r="BR6" s="97"/>
-      <c r="BS6" s="97"/>
-      <c r="BT6" s="97"/>
-      <c r="BU6" s="97"/>
-      <c r="BV6" s="97"/>
-      <c r="BW6" s="97"/>
-      <c r="BX6" s="98"/>
-    </row>
-    <row r="7" spans="2:76" ht="16.5">
-      <c r="B7" s="99">
-        <v>3</v>
-      </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="102" t="s">
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="69"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="80"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="71"/>
+      <c r="AL7" s="69"/>
+      <c r="AM7" s="70"/>
+      <c r="AN7" s="70"/>
+      <c r="AO7" s="70"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="70"/>
+      <c r="AS7" s="70"/>
+      <c r="AT7" s="70"/>
+      <c r="AU7" s="71"/>
+      <c r="AV7" s="69"/>
+      <c r="AW7" s="70"/>
+      <c r="AX7" s="70"/>
+      <c r="AY7" s="70"/>
+      <c r="AZ7" s="71"/>
+      <c r="BA7" s="69"/>
+      <c r="BB7" s="70"/>
+      <c r="BC7" s="70"/>
+      <c r="BD7" s="70"/>
+      <c r="BE7" s="71"/>
+      <c r="BF7" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG7" s="73"/>
+      <c r="BH7" s="73"/>
+      <c r="BI7" s="69"/>
+      <c r="BJ7" s="70"/>
+      <c r="BK7" s="70"/>
+      <c r="BL7" s="70"/>
+      <c r="BM7" s="71"/>
+      <c r="BN7" s="74"/>
+      <c r="BO7" s="74"/>
+      <c r="BP7" s="74"/>
+      <c r="BQ7" s="74"/>
+      <c r="BR7" s="74"/>
+      <c r="BS7" s="74"/>
+      <c r="BT7" s="74"/>
+      <c r="BU7" s="74"/>
+      <c r="BV7" s="74"/>
+      <c r="BW7" s="74"/>
+      <c r="BX7" s="75"/>
+    </row>
+    <row r="8" spans="2:76" ht="35.1" customHeight="1">
+      <c r="B8" s="76">
+        <v>4</v>
+      </c>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="92"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="94"/>
-      <c r="AG7" s="103"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="93"/>
-      <c r="AJ7" s="93"/>
-      <c r="AK7" s="94"/>
-      <c r="AL7" s="92"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="93"/>
-      <c r="AO7" s="93"/>
-      <c r="AP7" s="94"/>
-      <c r="AQ7" s="92"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="93"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="94"/>
-      <c r="AV7" s="92"/>
-      <c r="AW7" s="93"/>
-      <c r="AX7" s="93"/>
-      <c r="AY7" s="93"/>
-      <c r="AZ7" s="94"/>
-      <c r="BA7" s="92"/>
-      <c r="BB7" s="93"/>
-      <c r="BC7" s="93"/>
-      <c r="BD7" s="93"/>
-      <c r="BE7" s="94"/>
-      <c r="BF7" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG7" s="96"/>
-      <c r="BH7" s="96"/>
-      <c r="BI7" s="92"/>
-      <c r="BJ7" s="93"/>
-      <c r="BK7" s="93"/>
-      <c r="BL7" s="93"/>
-      <c r="BM7" s="94"/>
-      <c r="BN7" s="97"/>
-      <c r="BO7" s="97"/>
-      <c r="BP7" s="97"/>
-      <c r="BQ7" s="97"/>
-      <c r="BR7" s="97"/>
-      <c r="BS7" s="97"/>
-      <c r="BT7" s="97"/>
-      <c r="BU7" s="97"/>
-      <c r="BV7" s="97"/>
-      <c r="BW7" s="97"/>
-      <c r="BX7" s="98"/>
-    </row>
-    <row r="8" spans="2:76" ht="35.1" customHeight="1">
-      <c r="B8" s="99">
-        <v>4</v>
-      </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102" t="s">
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="70"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="80"/>
+      <c r="AH8" s="70"/>
+      <c r="AI8" s="70"/>
+      <c r="AJ8" s="70"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="69"/>
+      <c r="AM8" s="70"/>
+      <c r="AN8" s="70"/>
+      <c r="AO8" s="70"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="69"/>
+      <c r="AR8" s="70"/>
+      <c r="AS8" s="70"/>
+      <c r="AT8" s="70"/>
+      <c r="AU8" s="71"/>
+      <c r="AV8" s="69"/>
+      <c r="AW8" s="70"/>
+      <c r="AX8" s="70"/>
+      <c r="AY8" s="70"/>
+      <c r="AZ8" s="71"/>
+      <c r="BA8" s="69"/>
+      <c r="BB8" s="70"/>
+      <c r="BC8" s="70"/>
+      <c r="BD8" s="70"/>
+      <c r="BE8" s="71"/>
+      <c r="BF8" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG8" s="73"/>
+      <c r="BH8" s="73"/>
+      <c r="BI8" s="69"/>
+      <c r="BJ8" s="70"/>
+      <c r="BK8" s="70"/>
+      <c r="BL8" s="70"/>
+      <c r="BM8" s="71"/>
+      <c r="BN8" s="74"/>
+      <c r="BO8" s="74"/>
+      <c r="BP8" s="74"/>
+      <c r="BQ8" s="74"/>
+      <c r="BR8" s="74"/>
+      <c r="BS8" s="74"/>
+      <c r="BT8" s="74"/>
+      <c r="BU8" s="74"/>
+      <c r="BV8" s="74"/>
+      <c r="BW8" s="74"/>
+      <c r="BX8" s="75"/>
+    </row>
+    <row r="9" spans="2:76" ht="35.1" customHeight="1">
+      <c r="B9" s="76">
+        <v>5</v>
+      </c>
+      <c r="C9" s="77"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="94"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
-      <c r="Z8" s="93"/>
-      <c r="AA8" s="94"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="93"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="93"/>
-      <c r="AF8" s="94"/>
-      <c r="AG8" s="103"/>
-      <c r="AH8" s="93"/>
-      <c r="AI8" s="93"/>
-      <c r="AJ8" s="93"/>
-      <c r="AK8" s="94"/>
-      <c r="AL8" s="92"/>
-      <c r="AM8" s="93"/>
-      <c r="AN8" s="93"/>
-      <c r="AO8" s="93"/>
-      <c r="AP8" s="94"/>
-      <c r="AQ8" s="92"/>
-      <c r="AR8" s="93"/>
-      <c r="AS8" s="93"/>
-      <c r="AT8" s="93"/>
-      <c r="AU8" s="94"/>
-      <c r="AV8" s="92"/>
-      <c r="AW8" s="93"/>
-      <c r="AX8" s="93"/>
-      <c r="AY8" s="93"/>
-      <c r="AZ8" s="94"/>
-      <c r="BA8" s="92"/>
-      <c r="BB8" s="93"/>
-      <c r="BC8" s="93"/>
-      <c r="BD8" s="93"/>
-      <c r="BE8" s="94"/>
-      <c r="BF8" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG8" s="96"/>
-      <c r="BH8" s="96"/>
-      <c r="BI8" s="92"/>
-      <c r="BJ8" s="93"/>
-      <c r="BK8" s="93"/>
-      <c r="BL8" s="93"/>
-      <c r="BM8" s="94"/>
-      <c r="BN8" s="97"/>
-      <c r="BO8" s="97"/>
-      <c r="BP8" s="97"/>
-      <c r="BQ8" s="97"/>
-      <c r="BR8" s="97"/>
-      <c r="BS8" s="97"/>
-      <c r="BT8" s="97"/>
-      <c r="BU8" s="97"/>
-      <c r="BV8" s="97"/>
-      <c r="BW8" s="97"/>
-      <c r="BX8" s="98"/>
-    </row>
-    <row r="9" spans="2:76" ht="35.1" customHeight="1">
-      <c r="B9" s="99">
-        <v>5</v>
-      </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="102" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="94"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="94"/>
-      <c r="AG9" s="103"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="93"/>
-      <c r="AJ9" s="93"/>
-      <c r="AK9" s="94"/>
-      <c r="AL9" s="92"/>
-      <c r="AM9" s="93"/>
-      <c r="AN9" s="93"/>
-      <c r="AO9" s="93"/>
-      <c r="AP9" s="94"/>
-      <c r="AQ9" s="92"/>
-      <c r="AR9" s="93"/>
-      <c r="AS9" s="93"/>
-      <c r="AT9" s="93"/>
-      <c r="AU9" s="94"/>
-      <c r="AV9" s="92"/>
-      <c r="AW9" s="93"/>
-      <c r="AX9" s="93"/>
-      <c r="AY9" s="93"/>
-      <c r="AZ9" s="94"/>
-      <c r="BA9" s="92"/>
-      <c r="BB9" s="93"/>
-      <c r="BC9" s="93"/>
-      <c r="BD9" s="93"/>
-      <c r="BE9" s="94"/>
-      <c r="BF9" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG9" s="96"/>
-      <c r="BH9" s="96"/>
-      <c r="BI9" s="92"/>
-      <c r="BJ9" s="93"/>
-      <c r="BK9" s="93"/>
-      <c r="BL9" s="93"/>
-      <c r="BM9" s="94"/>
-      <c r="BN9" s="97"/>
-      <c r="BO9" s="97"/>
-      <c r="BP9" s="97"/>
-      <c r="BQ9" s="97"/>
-      <c r="BR9" s="97"/>
-      <c r="BS9" s="97"/>
-      <c r="BT9" s="97"/>
-      <c r="BU9" s="97"/>
-      <c r="BV9" s="97"/>
-      <c r="BW9" s="97"/>
-      <c r="BX9" s="98"/>
-    </row>
-    <row r="10" spans="2:76" ht="16.5">
-      <c r="B10" s="99">
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="69"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="80"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="71"/>
+      <c r="AL9" s="69"/>
+      <c r="AM9" s="70"/>
+      <c r="AN9" s="70"/>
+      <c r="AO9" s="70"/>
+      <c r="AP9" s="71"/>
+      <c r="AQ9" s="69"/>
+      <c r="AR9" s="70"/>
+      <c r="AS9" s="70"/>
+      <c r="AT9" s="70"/>
+      <c r="AU9" s="71"/>
+      <c r="AV9" s="69"/>
+      <c r="AW9" s="70"/>
+      <c r="AX9" s="70"/>
+      <c r="AY9" s="70"/>
+      <c r="AZ9" s="71"/>
+      <c r="BA9" s="69"/>
+      <c r="BB9" s="70"/>
+      <c r="BC9" s="70"/>
+      <c r="BD9" s="70"/>
+      <c r="BE9" s="71"/>
+      <c r="BF9" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG9" s="73"/>
+      <c r="BH9" s="73"/>
+      <c r="BI9" s="69"/>
+      <c r="BJ9" s="70"/>
+      <c r="BK9" s="70"/>
+      <c r="BL9" s="70"/>
+      <c r="BM9" s="71"/>
+      <c r="BN9" s="74"/>
+      <c r="BO9" s="74"/>
+      <c r="BP9" s="74"/>
+      <c r="BQ9" s="74"/>
+      <c r="BR9" s="74"/>
+      <c r="BS9" s="74"/>
+      <c r="BT9" s="74"/>
+      <c r="BU9" s="74"/>
+      <c r="BV9" s="74"/>
+      <c r="BW9" s="74"/>
+      <c r="BX9" s="75"/>
+    </row>
+    <row r="10" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B10" s="76">
         <v>6</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="102" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="70"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="80"/>
+      <c r="AH10" s="70"/>
+      <c r="AI10" s="70"/>
+      <c r="AJ10" s="70"/>
+      <c r="AK10" s="71"/>
+      <c r="AL10" s="69"/>
+      <c r="AM10" s="70"/>
+      <c r="AN10" s="70"/>
+      <c r="AO10" s="70"/>
+      <c r="AP10" s="71"/>
+      <c r="AQ10" s="69"/>
+      <c r="AR10" s="70"/>
+      <c r="AS10" s="70"/>
+      <c r="AT10" s="70"/>
+      <c r="AU10" s="71"/>
+      <c r="AV10" s="69"/>
+      <c r="AW10" s="70"/>
+      <c r="AX10" s="70"/>
+      <c r="AY10" s="70"/>
+      <c r="AZ10" s="71"/>
+      <c r="BA10" s="69"/>
+      <c r="BB10" s="70"/>
+      <c r="BC10" s="70"/>
+      <c r="BD10" s="70"/>
+      <c r="BE10" s="71"/>
+      <c r="BF10" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG10" s="73"/>
+      <c r="BH10" s="73"/>
+      <c r="BI10" s="69"/>
+      <c r="BJ10" s="70"/>
+      <c r="BK10" s="70"/>
+      <c r="BL10" s="70"/>
+      <c r="BM10" s="71"/>
+      <c r="BN10" s="74"/>
+      <c r="BO10" s="74"/>
+      <c r="BP10" s="74"/>
+      <c r="BQ10" s="74"/>
+      <c r="BR10" s="74"/>
+      <c r="BS10" s="74"/>
+      <c r="BT10" s="74"/>
+      <c r="BU10" s="74"/>
+      <c r="BV10" s="74"/>
+      <c r="BW10" s="74"/>
+      <c r="BX10" s="75"/>
+    </row>
+    <row r="11" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B11" s="76">
+        <v>7</v>
+      </c>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="94"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="94"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="93"/>
-      <c r="AD10" s="93"/>
-      <c r="AE10" s="93"/>
-      <c r="AF10" s="94"/>
-      <c r="AG10" s="103"/>
-      <c r="AH10" s="93"/>
-      <c r="AI10" s="93"/>
-      <c r="AJ10" s="93"/>
-      <c r="AK10" s="94"/>
-      <c r="AL10" s="92"/>
-      <c r="AM10" s="93"/>
-      <c r="AN10" s="93"/>
-      <c r="AO10" s="93"/>
-      <c r="AP10" s="94"/>
-      <c r="AQ10" s="92"/>
-      <c r="AR10" s="93"/>
-      <c r="AS10" s="93"/>
-      <c r="AT10" s="93"/>
-      <c r="AU10" s="94"/>
-      <c r="AV10" s="92"/>
-      <c r="AW10" s="93"/>
-      <c r="AX10" s="93"/>
-      <c r="AY10" s="93"/>
-      <c r="AZ10" s="94"/>
-      <c r="BA10" s="92"/>
-      <c r="BB10" s="93"/>
-      <c r="BC10" s="93"/>
-      <c r="BD10" s="93"/>
-      <c r="BE10" s="94"/>
-      <c r="BF10" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="BG10" s="96"/>
-      <c r="BH10" s="96"/>
-      <c r="BI10" s="92"/>
-      <c r="BJ10" s="93"/>
-      <c r="BK10" s="93"/>
-      <c r="BL10" s="93"/>
-      <c r="BM10" s="94"/>
-      <c r="BN10" s="97"/>
-      <c r="BO10" s="97"/>
-      <c r="BP10" s="97"/>
-      <c r="BQ10" s="97"/>
-      <c r="BR10" s="97"/>
-      <c r="BS10" s="97"/>
-      <c r="BT10" s="97"/>
-      <c r="BU10" s="97"/>
-      <c r="BV10" s="97"/>
-      <c r="BW10" s="97"/>
-      <c r="BX10" s="98"/>
-    </row>
-    <row r="11" spans="2:76" ht="16.5">
-      <c r="B11" s="99">
-        <v>7</v>
-      </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="102" t="s">
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="69"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="70"/>
+      <c r="AF11" s="71"/>
+      <c r="AG11" s="80"/>
+      <c r="AH11" s="70"/>
+      <c r="AI11" s="70"/>
+      <c r="AJ11" s="70"/>
+      <c r="AK11" s="71"/>
+      <c r="AL11" s="69"/>
+      <c r="AM11" s="70"/>
+      <c r="AN11" s="70"/>
+      <c r="AO11" s="70"/>
+      <c r="AP11" s="71"/>
+      <c r="AQ11" s="69"/>
+      <c r="AR11" s="70"/>
+      <c r="AS11" s="70"/>
+      <c r="AT11" s="70"/>
+      <c r="AU11" s="71"/>
+      <c r="AV11" s="69"/>
+      <c r="AW11" s="70"/>
+      <c r="AX11" s="70"/>
+      <c r="AY11" s="70"/>
+      <c r="AZ11" s="71"/>
+      <c r="BA11" s="69"/>
+      <c r="BB11" s="70"/>
+      <c r="BC11" s="70"/>
+      <c r="BD11" s="70"/>
+      <c r="BE11" s="71"/>
+      <c r="BF11" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG11" s="73"/>
+      <c r="BH11" s="73"/>
+      <c r="BI11" s="69"/>
+      <c r="BJ11" s="70"/>
+      <c r="BK11" s="70"/>
+      <c r="BL11" s="70"/>
+      <c r="BM11" s="71"/>
+      <c r="BN11" s="74"/>
+      <c r="BO11" s="74"/>
+      <c r="BP11" s="74"/>
+      <c r="BQ11" s="74"/>
+      <c r="BR11" s="74"/>
+      <c r="BS11" s="74"/>
+      <c r="BT11" s="74"/>
+      <c r="BU11" s="74"/>
+      <c r="BV11" s="74"/>
+      <c r="BW11" s="74"/>
+      <c r="BX11" s="75"/>
+    </row>
+    <row r="12" spans="2:76" ht="16.5">
+      <c r="B12" s="76">
+        <v>8</v>
+      </c>
+      <c r="C12" s="77"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="94"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="94"/>
-      <c r="AG11" s="103"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="93"/>
-      <c r="AJ11" s="93"/>
-      <c r="AK11" s="94"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="93"/>
-      <c r="AN11" s="93"/>
-      <c r="AO11" s="93"/>
-      <c r="AP11" s="94"/>
-      <c r="AQ11" s="92"/>
-      <c r="AR11" s="93"/>
-      <c r="AS11" s="93"/>
-      <c r="AT11" s="93"/>
-      <c r="AU11" s="94"/>
-      <c r="AV11" s="92"/>
-      <c r="AW11" s="93"/>
-      <c r="AX11" s="93"/>
-      <c r="AY11" s="93"/>
-      <c r="AZ11" s="94"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="93"/>
-      <c r="BC11" s="93"/>
-      <c r="BD11" s="93"/>
-      <c r="BE11" s="94"/>
-      <c r="BF11" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG11" s="96"/>
-      <c r="BH11" s="96"/>
-      <c r="BI11" s="92"/>
-      <c r="BJ11" s="93"/>
-      <c r="BK11" s="93"/>
-      <c r="BL11" s="93"/>
-      <c r="BM11" s="94"/>
-      <c r="BN11" s="97"/>
-      <c r="BO11" s="97"/>
-      <c r="BP11" s="97"/>
-      <c r="BQ11" s="97"/>
-      <c r="BR11" s="97"/>
-      <c r="BS11" s="97"/>
-      <c r="BT11" s="97"/>
-      <c r="BU11" s="97"/>
-      <c r="BV11" s="97"/>
-      <c r="BW11" s="97"/>
-      <c r="BX11" s="98"/>
-    </row>
-    <row r="12" spans="2:76" ht="16.5">
-      <c r="B12" s="99">
-        <v>8</v>
-      </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="103"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="103"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="103"/>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="93"/>
-      <c r="AE12" s="93"/>
-      <c r="AF12" s="94"/>
-      <c r="AG12" s="103"/>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="93"/>
-      <c r="AJ12" s="93"/>
-      <c r="AK12" s="94"/>
-      <c r="AL12" s="92"/>
-      <c r="AM12" s="93"/>
-      <c r="AN12" s="93"/>
-      <c r="AO12" s="93"/>
-      <c r="AP12" s="94"/>
-      <c r="AQ12" s="103"/>
-      <c r="AR12" s="93"/>
-      <c r="AS12" s="93"/>
-      <c r="AT12" s="93"/>
-      <c r="AU12" s="94"/>
-      <c r="AV12" s="103"/>
-      <c r="AW12" s="93"/>
-      <c r="AX12" s="93"/>
-      <c r="AY12" s="93"/>
-      <c r="AZ12" s="94"/>
-      <c r="BA12" s="103"/>
-      <c r="BB12" s="93"/>
-      <c r="BC12" s="93"/>
-      <c r="BD12" s="93"/>
-      <c r="BE12" s="94"/>
-      <c r="BF12" s="129" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG12" s="130"/>
-      <c r="BH12" s="131"/>
-      <c r="BI12" s="92"/>
-      <c r="BJ12" s="93"/>
-      <c r="BK12" s="93"/>
-      <c r="BL12" s="93"/>
-      <c r="BM12" s="94"/>
-      <c r="BN12" s="102"/>
-      <c r="BO12" s="97"/>
-      <c r="BP12" s="97"/>
-      <c r="BQ12" s="97"/>
-      <c r="BR12" s="97"/>
-      <c r="BS12" s="97"/>
-      <c r="BT12" s="97"/>
-      <c r="BU12" s="97"/>
-      <c r="BV12" s="97"/>
-      <c r="BW12" s="97"/>
-      <c r="BX12" s="98"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="70"/>
+      <c r="AE12" s="70"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="80"/>
+      <c r="AH12" s="70"/>
+      <c r="AI12" s="70"/>
+      <c r="AJ12" s="70"/>
+      <c r="AK12" s="71"/>
+      <c r="AL12" s="69"/>
+      <c r="AM12" s="70"/>
+      <c r="AN12" s="70"/>
+      <c r="AO12" s="70"/>
+      <c r="AP12" s="71"/>
+      <c r="AQ12" s="80"/>
+      <c r="AR12" s="70"/>
+      <c r="AS12" s="70"/>
+      <c r="AT12" s="70"/>
+      <c r="AU12" s="71"/>
+      <c r="AV12" s="80"/>
+      <c r="AW12" s="70"/>
+      <c r="AX12" s="70"/>
+      <c r="AY12" s="70"/>
+      <c r="AZ12" s="71"/>
+      <c r="BA12" s="80"/>
+      <c r="BB12" s="70"/>
+      <c r="BC12" s="70"/>
+      <c r="BD12" s="70"/>
+      <c r="BE12" s="71"/>
+      <c r="BF12" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG12" s="123"/>
+      <c r="BH12" s="124"/>
+      <c r="BI12" s="69"/>
+      <c r="BJ12" s="70"/>
+      <c r="BK12" s="70"/>
+      <c r="BL12" s="70"/>
+      <c r="BM12" s="71"/>
+      <c r="BN12" s="79"/>
+      <c r="BO12" s="74"/>
+      <c r="BP12" s="74"/>
+      <c r="BQ12" s="74"/>
+      <c r="BR12" s="74"/>
+      <c r="BS12" s="74"/>
+      <c r="BT12" s="74"/>
+      <c r="BU12" s="74"/>
+      <c r="BV12" s="74"/>
+      <c r="BW12" s="74"/>
+      <c r="BX12" s="75"/>
     </row>
     <row r="13" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B13" s="99">
+      <c r="B13" s="76">
         <v>9</v>
       </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102" t="s">
+      <c r="C13" s="77"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="69"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="71"/>
+      <c r="AG13" s="80"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="70"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="71"/>
+      <c r="AL13" s="69"/>
+      <c r="AM13" s="70"/>
+      <c r="AN13" s="70"/>
+      <c r="AO13" s="70"/>
+      <c r="AP13" s="71"/>
+      <c r="AQ13" s="69"/>
+      <c r="AR13" s="70"/>
+      <c r="AS13" s="70"/>
+      <c r="AT13" s="70"/>
+      <c r="AU13" s="71"/>
+      <c r="AV13" s="69"/>
+      <c r="AW13" s="70"/>
+      <c r="AX13" s="70"/>
+      <c r="AY13" s="70"/>
+      <c r="AZ13" s="71"/>
+      <c r="BA13" s="69"/>
+      <c r="BB13" s="70"/>
+      <c r="BC13" s="70"/>
+      <c r="BD13" s="70"/>
+      <c r="BE13" s="71"/>
+      <c r="BF13" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG13" s="73"/>
+      <c r="BH13" s="73"/>
+      <c r="BI13" s="69"/>
+      <c r="BJ13" s="70"/>
+      <c r="BK13" s="70"/>
+      <c r="BL13" s="70"/>
+      <c r="BM13" s="71"/>
+      <c r="BN13" s="74"/>
+      <c r="BO13" s="74"/>
+      <c r="BP13" s="74"/>
+      <c r="BQ13" s="74"/>
+      <c r="BR13" s="74"/>
+      <c r="BS13" s="74"/>
+      <c r="BT13" s="74"/>
+      <c r="BU13" s="74"/>
+      <c r="BV13" s="74"/>
+      <c r="BW13" s="74"/>
+      <c r="BX13" s="75"/>
+    </row>
+    <row r="14" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B14" s="76">
+        <v>10</v>
+      </c>
+      <c r="C14" s="77"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="92"/>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="94"/>
-      <c r="AG13" s="103"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="93"/>
-      <c r="AJ13" s="93"/>
-      <c r="AK13" s="94"/>
-      <c r="AL13" s="92"/>
-      <c r="AM13" s="93"/>
-      <c r="AN13" s="93"/>
-      <c r="AO13" s="93"/>
-      <c r="AP13" s="94"/>
-      <c r="AQ13" s="92"/>
-      <c r="AR13" s="93"/>
-      <c r="AS13" s="93"/>
-      <c r="AT13" s="93"/>
-      <c r="AU13" s="94"/>
-      <c r="AV13" s="92"/>
-      <c r="AW13" s="93"/>
-      <c r="AX13" s="93"/>
-      <c r="AY13" s="93"/>
-      <c r="AZ13" s="94"/>
-      <c r="BA13" s="92"/>
-      <c r="BB13" s="93"/>
-      <c r="BC13" s="93"/>
-      <c r="BD13" s="93"/>
-      <c r="BE13" s="94"/>
-      <c r="BF13" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG13" s="96"/>
-      <c r="BH13" s="96"/>
-      <c r="BI13" s="92"/>
-      <c r="BJ13" s="93"/>
-      <c r="BK13" s="93"/>
-      <c r="BL13" s="93"/>
-      <c r="BM13" s="94"/>
-      <c r="BN13" s="97"/>
-      <c r="BO13" s="97"/>
-      <c r="BP13" s="97"/>
-      <c r="BQ13" s="97"/>
-      <c r="BR13" s="97"/>
-      <c r="BS13" s="97"/>
-      <c r="BT13" s="97"/>
-      <c r="BU13" s="97"/>
-      <c r="BV13" s="97"/>
-      <c r="BW13" s="97"/>
-      <c r="BX13" s="98"/>
-    </row>
-    <row r="14" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B14" s="99">
-        <v>10</v>
-      </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="92"/>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="93"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="103"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="93"/>
-      <c r="AJ14" s="93"/>
-      <c r="AK14" s="94"/>
-      <c r="AL14" s="92"/>
-      <c r="AM14" s="93"/>
-      <c r="AN14" s="93"/>
-      <c r="AO14" s="93"/>
-      <c r="AP14" s="94"/>
-      <c r="AQ14" s="92"/>
-      <c r="AR14" s="93"/>
-      <c r="AS14" s="93"/>
-      <c r="AT14" s="93"/>
-      <c r="AU14" s="94"/>
-      <c r="AV14" s="92"/>
-      <c r="AW14" s="93"/>
-      <c r="AX14" s="93"/>
-      <c r="AY14" s="93"/>
-      <c r="AZ14" s="94"/>
-      <c r="BA14" s="92"/>
-      <c r="BB14" s="93"/>
-      <c r="BC14" s="93"/>
-      <c r="BD14" s="93"/>
-      <c r="BE14" s="94"/>
-      <c r="BF14" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG14" s="96"/>
-      <c r="BH14" s="96"/>
-      <c r="BI14" s="92"/>
-      <c r="BJ14" s="93"/>
-      <c r="BK14" s="93"/>
-      <c r="BL14" s="93"/>
-      <c r="BM14" s="94"/>
-      <c r="BN14" s="97"/>
-      <c r="BO14" s="97"/>
-      <c r="BP14" s="97"/>
-      <c r="BQ14" s="97"/>
-      <c r="BR14" s="97"/>
-      <c r="BS14" s="97"/>
-      <c r="BT14" s="97"/>
-      <c r="BU14" s="97"/>
-      <c r="BV14" s="97"/>
-      <c r="BW14" s="97"/>
-      <c r="BX14" s="98"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="69"/>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="70"/>
+      <c r="AE14" s="70"/>
+      <c r="AF14" s="71"/>
+      <c r="AG14" s="80"/>
+      <c r="AH14" s="70"/>
+      <c r="AI14" s="70"/>
+      <c r="AJ14" s="70"/>
+      <c r="AK14" s="71"/>
+      <c r="AL14" s="69"/>
+      <c r="AM14" s="70"/>
+      <c r="AN14" s="70"/>
+      <c r="AO14" s="70"/>
+      <c r="AP14" s="71"/>
+      <c r="AQ14" s="69"/>
+      <c r="AR14" s="70"/>
+      <c r="AS14" s="70"/>
+      <c r="AT14" s="70"/>
+      <c r="AU14" s="71"/>
+      <c r="AV14" s="69"/>
+      <c r="AW14" s="70"/>
+      <c r="AX14" s="70"/>
+      <c r="AY14" s="70"/>
+      <c r="AZ14" s="71"/>
+      <c r="BA14" s="69"/>
+      <c r="BB14" s="70"/>
+      <c r="BC14" s="70"/>
+      <c r="BD14" s="70"/>
+      <c r="BE14" s="71"/>
+      <c r="BF14" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG14" s="73"/>
+      <c r="BH14" s="73"/>
+      <c r="BI14" s="69"/>
+      <c r="BJ14" s="70"/>
+      <c r="BK14" s="70"/>
+      <c r="BL14" s="70"/>
+      <c r="BM14" s="71"/>
+      <c r="BN14" s="74"/>
+      <c r="BO14" s="74"/>
+      <c r="BP14" s="74"/>
+      <c r="BQ14" s="74"/>
+      <c r="BR14" s="74"/>
+      <c r="BS14" s="74"/>
+      <c r="BT14" s="74"/>
+      <c r="BU14" s="74"/>
+      <c r="BV14" s="74"/>
+      <c r="BW14" s="74"/>
+      <c r="BX14" s="75"/>
     </row>
     <row r="15" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B15" s="112">
+      <c r="B15" s="81">
         <v>11</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="115" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="105"/>
-      <c r="T15" s="105"/>
-      <c r="U15" s="105"/>
-      <c r="V15" s="106"/>
-      <c r="W15" s="104"/>
-      <c r="X15" s="105"/>
-      <c r="Y15" s="105"/>
-      <c r="Z15" s="105"/>
-      <c r="AA15" s="106"/>
-      <c r="AB15" s="104"/>
-      <c r="AC15" s="105"/>
-      <c r="AD15" s="105"/>
-      <c r="AE15" s="105"/>
-      <c r="AF15" s="106"/>
-      <c r="AG15" s="107"/>
-      <c r="AH15" s="105"/>
-      <c r="AI15" s="105"/>
-      <c r="AJ15" s="105"/>
-      <c r="AK15" s="106"/>
-      <c r="AL15" s="104"/>
-      <c r="AM15" s="105"/>
-      <c r="AN15" s="105"/>
-      <c r="AO15" s="105"/>
-      <c r="AP15" s="106"/>
-      <c r="AQ15" s="104"/>
-      <c r="AR15" s="105"/>
-      <c r="AS15" s="105"/>
-      <c r="AT15" s="105"/>
-      <c r="AU15" s="106"/>
-      <c r="AV15" s="104"/>
-      <c r="AW15" s="105"/>
-      <c r="AX15" s="105"/>
-      <c r="AY15" s="105"/>
-      <c r="AZ15" s="106"/>
-      <c r="BA15" s="104"/>
-      <c r="BB15" s="105"/>
-      <c r="BC15" s="105"/>
-      <c r="BD15" s="105"/>
-      <c r="BE15" s="106"/>
-      <c r="BF15" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG15" s="109"/>
-      <c r="BH15" s="109"/>
-      <c r="BI15" s="104"/>
-      <c r="BJ15" s="105"/>
-      <c r="BK15" s="105"/>
-      <c r="BL15" s="105"/>
-      <c r="BM15" s="106"/>
-      <c r="BN15" s="110"/>
-      <c r="BO15" s="110"/>
-      <c r="BP15" s="110"/>
-      <c r="BQ15" s="110"/>
-      <c r="BR15" s="110"/>
-      <c r="BS15" s="110"/>
-      <c r="BT15" s="110"/>
-      <c r="BU15" s="110"/>
-      <c r="BV15" s="110"/>
-      <c r="BW15" s="110"/>
-      <c r="BX15" s="111"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="88"/>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="87"/>
+      <c r="AE15" s="87"/>
+      <c r="AF15" s="88"/>
+      <c r="AG15" s="86"/>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="87"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="88"/>
+      <c r="AL15" s="89"/>
+      <c r="AM15" s="87"/>
+      <c r="AN15" s="87"/>
+      <c r="AO15" s="87"/>
+      <c r="AP15" s="88"/>
+      <c r="AQ15" s="89"/>
+      <c r="AR15" s="87"/>
+      <c r="AS15" s="87"/>
+      <c r="AT15" s="87"/>
+      <c r="AU15" s="88"/>
+      <c r="AV15" s="89"/>
+      <c r="AW15" s="87"/>
+      <c r="AX15" s="87"/>
+      <c r="AY15" s="87"/>
+      <c r="AZ15" s="88"/>
+      <c r="BA15" s="89"/>
+      <c r="BB15" s="87"/>
+      <c r="BC15" s="87"/>
+      <c r="BD15" s="87"/>
+      <c r="BE15" s="88"/>
+      <c r="BF15" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG15" s="107"/>
+      <c r="BH15" s="107"/>
+      <c r="BI15" s="89"/>
+      <c r="BJ15" s="87"/>
+      <c r="BK15" s="87"/>
+      <c r="BL15" s="87"/>
+      <c r="BM15" s="88"/>
+      <c r="BN15" s="85"/>
+      <c r="BO15" s="85"/>
+      <c r="BP15" s="85"/>
+      <c r="BQ15" s="85"/>
+      <c r="BR15" s="85"/>
+      <c r="BS15" s="85"/>
+      <c r="BT15" s="85"/>
+      <c r="BU15" s="85"/>
+      <c r="BV15" s="85"/>
+      <c r="BW15" s="85"/>
+      <c r="BX15" s="108"/>
     </row>
     <row r="16" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B16" s="120" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="121"/>
-      <c r="Q16" s="121"/>
-      <c r="R16" s="121"/>
-      <c r="S16" s="121"/>
-      <c r="T16" s="121"/>
-      <c r="U16" s="121"/>
-      <c r="V16" s="121"/>
-      <c r="W16" s="121"/>
-      <c r="X16" s="121"/>
-      <c r="Y16" s="121"/>
-      <c r="Z16" s="121"/>
-      <c r="AA16" s="121"/>
-      <c r="AB16" s="121"/>
-      <c r="AC16" s="121"/>
-      <c r="AD16" s="121"/>
-      <c r="AE16" s="121"/>
-      <c r="AF16" s="121"/>
-      <c r="AG16" s="121"/>
-      <c r="AH16" s="121"/>
-      <c r="AI16" s="121"/>
-      <c r="AJ16" s="121"/>
-      <c r="AK16" s="121"/>
-      <c r="AL16" s="121"/>
-      <c r="AM16" s="121"/>
-      <c r="AN16" s="121"/>
-      <c r="AO16" s="121"/>
-      <c r="AP16" s="121"/>
-      <c r="AQ16" s="121"/>
-      <c r="AR16" s="121"/>
-      <c r="AS16" s="121"/>
-      <c r="AT16" s="121"/>
-      <c r="AU16" s="121"/>
-      <c r="AV16" s="121"/>
-      <c r="AW16" s="121"/>
-      <c r="AX16" s="121"/>
-      <c r="AY16" s="121"/>
-      <c r="AZ16" s="121"/>
-      <c r="BA16" s="121"/>
-      <c r="BB16" s="121"/>
-      <c r="BC16" s="121"/>
-      <c r="BD16" s="121"/>
-      <c r="BE16" s="121"/>
-      <c r="BF16" s="121"/>
-      <c r="BG16" s="121"/>
-      <c r="BH16" s="121"/>
-      <c r="BI16" s="121"/>
-      <c r="BJ16" s="121"/>
-      <c r="BK16" s="121"/>
-      <c r="BL16" s="121"/>
-      <c r="BM16" s="121"/>
-      <c r="BN16" s="121"/>
-      <c r="BO16" s="121"/>
-      <c r="BP16" s="121"/>
-      <c r="BQ16" s="121"/>
-      <c r="BR16" s="121"/>
-      <c r="BS16" s="121"/>
-      <c r="BT16" s="121"/>
-      <c r="BU16" s="121"/>
-      <c r="BV16" s="121"/>
-      <c r="BW16" s="121"/>
-      <c r="BX16" s="122"/>
+      <c r="B16" s="131" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="132"/>
+      <c r="Q16" s="132"/>
+      <c r="R16" s="132"/>
+      <c r="S16" s="132"/>
+      <c r="T16" s="132"/>
+      <c r="U16" s="132"/>
+      <c r="V16" s="132"/>
+      <c r="W16" s="132"/>
+      <c r="X16" s="132"/>
+      <c r="Y16" s="132"/>
+      <c r="Z16" s="132"/>
+      <c r="AA16" s="132"/>
+      <c r="AB16" s="132"/>
+      <c r="AC16" s="132"/>
+      <c r="AD16" s="132"/>
+      <c r="AE16" s="132"/>
+      <c r="AF16" s="132"/>
+      <c r="AG16" s="132"/>
+      <c r="AH16" s="132"/>
+      <c r="AI16" s="132"/>
+      <c r="AJ16" s="132"/>
+      <c r="AK16" s="132"/>
+      <c r="AL16" s="132"/>
+      <c r="AM16" s="132"/>
+      <c r="AN16" s="132"/>
+      <c r="AO16" s="132"/>
+      <c r="AP16" s="132"/>
+      <c r="AQ16" s="132"/>
+      <c r="AR16" s="132"/>
+      <c r="AS16" s="132"/>
+      <c r="AT16" s="132"/>
+      <c r="AU16" s="132"/>
+      <c r="AV16" s="132"/>
+      <c r="AW16" s="132"/>
+      <c r="AX16" s="132"/>
+      <c r="AY16" s="132"/>
+      <c r="AZ16" s="132"/>
+      <c r="BA16" s="132"/>
+      <c r="BB16" s="132"/>
+      <c r="BC16" s="132"/>
+      <c r="BD16" s="132"/>
+      <c r="BE16" s="132"/>
+      <c r="BF16" s="132"/>
+      <c r="BG16" s="132"/>
+      <c r="BH16" s="132"/>
+      <c r="BI16" s="132"/>
+      <c r="BJ16" s="132"/>
+      <c r="BK16" s="132"/>
+      <c r="BL16" s="132"/>
+      <c r="BM16" s="132"/>
+      <c r="BN16" s="132"/>
+      <c r="BO16" s="132"/>
+      <c r="BP16" s="132"/>
+      <c r="BQ16" s="132"/>
+      <c r="BR16" s="132"/>
+      <c r="BS16" s="132"/>
+      <c r="BT16" s="132"/>
+      <c r="BU16" s="132"/>
+      <c r="BV16" s="132"/>
+      <c r="BW16" s="132"/>
+      <c r="BX16" s="133"/>
     </row>
     <row r="17" spans="2:76" ht="16.5">
-      <c r="B17" s="99">
+      <c r="B17" s="76">
         <v>12</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="94"/>
-      <c r="W17" s="103"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="94"/>
-      <c r="AB17" s="103"/>
-      <c r="AC17" s="93"/>
-      <c r="AD17" s="93"/>
-      <c r="AE17" s="93"/>
-      <c r="AF17" s="94"/>
-      <c r="AG17" s="92"/>
-      <c r="AH17" s="93"/>
-      <c r="AI17" s="93"/>
-      <c r="AJ17" s="93"/>
-      <c r="AK17" s="94"/>
-      <c r="AL17" s="92"/>
-      <c r="AM17" s="93"/>
-      <c r="AN17" s="93"/>
-      <c r="AO17" s="93"/>
-      <c r="AP17" s="94"/>
-      <c r="AQ17" s="103"/>
-      <c r="AR17" s="93"/>
-      <c r="AS17" s="93"/>
-      <c r="AT17" s="93"/>
-      <c r="AU17" s="94"/>
-      <c r="AV17" s="103"/>
-      <c r="AW17" s="93"/>
-      <c r="AX17" s="93"/>
-      <c r="AY17" s="93"/>
-      <c r="AZ17" s="94"/>
-      <c r="BA17" s="103"/>
-      <c r="BB17" s="93"/>
-      <c r="BC17" s="93"/>
-      <c r="BD17" s="93"/>
-      <c r="BE17" s="94"/>
-      <c r="BF17" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG17" s="96"/>
-      <c r="BH17" s="96"/>
-      <c r="BI17" s="92"/>
-      <c r="BJ17" s="93"/>
-      <c r="BK17" s="93"/>
-      <c r="BL17" s="93"/>
-      <c r="BM17" s="94"/>
-      <c r="BN17" s="102"/>
-      <c r="BO17" s="97"/>
-      <c r="BP17" s="97"/>
-      <c r="BQ17" s="97"/>
-      <c r="BR17" s="97"/>
-      <c r="BS17" s="97"/>
-      <c r="BT17" s="97"/>
-      <c r="BU17" s="97"/>
-      <c r="BV17" s="97"/>
-      <c r="BW17" s="97"/>
-      <c r="BX17" s="98"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="80"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="70"/>
+      <c r="AK17" s="71"/>
+      <c r="AL17" s="69"/>
+      <c r="AM17" s="70"/>
+      <c r="AN17" s="70"/>
+      <c r="AO17" s="70"/>
+      <c r="AP17" s="71"/>
+      <c r="AQ17" s="80"/>
+      <c r="AR17" s="70"/>
+      <c r="AS17" s="70"/>
+      <c r="AT17" s="70"/>
+      <c r="AU17" s="71"/>
+      <c r="AV17" s="80"/>
+      <c r="AW17" s="70"/>
+      <c r="AX17" s="70"/>
+      <c r="AY17" s="70"/>
+      <c r="AZ17" s="71"/>
+      <c r="BA17" s="80"/>
+      <c r="BB17" s="70"/>
+      <c r="BC17" s="70"/>
+      <c r="BD17" s="70"/>
+      <c r="BE17" s="71"/>
+      <c r="BF17" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG17" s="73"/>
+      <c r="BH17" s="73"/>
+      <c r="BI17" s="69"/>
+      <c r="BJ17" s="70"/>
+      <c r="BK17" s="70"/>
+      <c r="BL17" s="70"/>
+      <c r="BM17" s="71"/>
+      <c r="BN17" s="79"/>
+      <c r="BO17" s="74"/>
+      <c r="BP17" s="74"/>
+      <c r="BQ17" s="74"/>
+      <c r="BR17" s="74"/>
+      <c r="BS17" s="74"/>
+      <c r="BT17" s="74"/>
+      <c r="BU17" s="74"/>
+      <c r="BV17" s="74"/>
+      <c r="BW17" s="74"/>
+      <c r="BX17" s="75"/>
     </row>
     <row r="18" spans="2:76" ht="16.5">
-      <c r="B18" s="99">
+      <c r="B18" s="76">
         <v>13</v>
       </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102" t="s">
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="69"/>
+      <c r="AC18" s="70"/>
+      <c r="AD18" s="70"/>
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="71"/>
+      <c r="AG18" s="69"/>
+      <c r="AH18" s="70"/>
+      <c r="AI18" s="70"/>
+      <c r="AJ18" s="70"/>
+      <c r="AK18" s="71"/>
+      <c r="AL18" s="69"/>
+      <c r="AM18" s="70"/>
+      <c r="AN18" s="70"/>
+      <c r="AO18" s="70"/>
+      <c r="AP18" s="71"/>
+      <c r="AQ18" s="69"/>
+      <c r="AR18" s="70"/>
+      <c r="AS18" s="70"/>
+      <c r="AT18" s="70"/>
+      <c r="AU18" s="71"/>
+      <c r="AV18" s="69"/>
+      <c r="AW18" s="70"/>
+      <c r="AX18" s="70"/>
+      <c r="AY18" s="70"/>
+      <c r="AZ18" s="71"/>
+      <c r="BA18" s="69"/>
+      <c r="BB18" s="70"/>
+      <c r="BC18" s="70"/>
+      <c r="BD18" s="70"/>
+      <c r="BE18" s="71"/>
+      <c r="BF18" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG18" s="73"/>
+      <c r="BH18" s="73"/>
+      <c r="BI18" s="69"/>
+      <c r="BJ18" s="70"/>
+      <c r="BK18" s="70"/>
+      <c r="BL18" s="70"/>
+      <c r="BM18" s="71"/>
+      <c r="BN18" s="74"/>
+      <c r="BO18" s="74"/>
+      <c r="BP18" s="74"/>
+      <c r="BQ18" s="74"/>
+      <c r="BR18" s="74"/>
+      <c r="BS18" s="74"/>
+      <c r="BT18" s="74"/>
+      <c r="BU18" s="74"/>
+      <c r="BV18" s="74"/>
+      <c r="BW18" s="74"/>
+      <c r="BX18" s="75"/>
+    </row>
+    <row r="19" spans="2:76" ht="16.5">
+      <c r="B19" s="76">
+        <v>14</v>
+      </c>
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="94"/>
-      <c r="W18" s="92"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="93"/>
-      <c r="AA18" s="94"/>
-      <c r="AB18" s="92"/>
-      <c r="AC18" s="93"/>
-      <c r="AD18" s="93"/>
-      <c r="AE18" s="93"/>
-      <c r="AF18" s="94"/>
-      <c r="AG18" s="92"/>
-      <c r="AH18" s="93"/>
-      <c r="AI18" s="93"/>
-      <c r="AJ18" s="93"/>
-      <c r="AK18" s="94"/>
-      <c r="AL18" s="92"/>
-      <c r="AM18" s="93"/>
-      <c r="AN18" s="93"/>
-      <c r="AO18" s="93"/>
-      <c r="AP18" s="94"/>
-      <c r="AQ18" s="92"/>
-      <c r="AR18" s="93"/>
-      <c r="AS18" s="93"/>
-      <c r="AT18" s="93"/>
-      <c r="AU18" s="94"/>
-      <c r="AV18" s="92"/>
-      <c r="AW18" s="93"/>
-      <c r="AX18" s="93"/>
-      <c r="AY18" s="93"/>
-      <c r="AZ18" s="94"/>
-      <c r="BA18" s="92"/>
-      <c r="BB18" s="93"/>
-      <c r="BC18" s="93"/>
-      <c r="BD18" s="93"/>
-      <c r="BE18" s="94"/>
-      <c r="BF18" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG18" s="96"/>
-      <c r="BH18" s="96"/>
-      <c r="BI18" s="92"/>
-      <c r="BJ18" s="93"/>
-      <c r="BK18" s="93"/>
-      <c r="BL18" s="93"/>
-      <c r="BM18" s="94"/>
-      <c r="BN18" s="97"/>
-      <c r="BO18" s="97"/>
-      <c r="BP18" s="97"/>
-      <c r="BQ18" s="97"/>
-      <c r="BR18" s="97"/>
-      <c r="BS18" s="97"/>
-      <c r="BT18" s="97"/>
-      <c r="BU18" s="97"/>
-      <c r="BV18" s="97"/>
-      <c r="BW18" s="97"/>
-      <c r="BX18" s="98"/>
-    </row>
-    <row r="19" spans="2:76" ht="16.5">
-      <c r="B19" s="99">
-        <v>14</v>
-      </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102" t="s">
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="69"/>
+      <c r="AC19" s="70"/>
+      <c r="AD19" s="70"/>
+      <c r="AE19" s="70"/>
+      <c r="AF19" s="71"/>
+      <c r="AG19" s="80"/>
+      <c r="AH19" s="70"/>
+      <c r="AI19" s="70"/>
+      <c r="AJ19" s="70"/>
+      <c r="AK19" s="71"/>
+      <c r="AL19" s="69"/>
+      <c r="AM19" s="70"/>
+      <c r="AN19" s="70"/>
+      <c r="AO19" s="70"/>
+      <c r="AP19" s="71"/>
+      <c r="AQ19" s="69"/>
+      <c r="AR19" s="70"/>
+      <c r="AS19" s="70"/>
+      <c r="AT19" s="70"/>
+      <c r="AU19" s="71"/>
+      <c r="AV19" s="69"/>
+      <c r="AW19" s="70"/>
+      <c r="AX19" s="70"/>
+      <c r="AY19" s="70"/>
+      <c r="AZ19" s="71"/>
+      <c r="BA19" s="69"/>
+      <c r="BB19" s="70"/>
+      <c r="BC19" s="70"/>
+      <c r="BD19" s="70"/>
+      <c r="BE19" s="71"/>
+      <c r="BF19" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG19" s="73"/>
+      <c r="BH19" s="73"/>
+      <c r="BI19" s="69"/>
+      <c r="BJ19" s="70"/>
+      <c r="BK19" s="70"/>
+      <c r="BL19" s="70"/>
+      <c r="BM19" s="71"/>
+      <c r="BN19" s="74"/>
+      <c r="BO19" s="74"/>
+      <c r="BP19" s="74"/>
+      <c r="BQ19" s="74"/>
+      <c r="BR19" s="74"/>
+      <c r="BS19" s="74"/>
+      <c r="BT19" s="74"/>
+      <c r="BU19" s="74"/>
+      <c r="BV19" s="74"/>
+      <c r="BW19" s="74"/>
+      <c r="BX19" s="75"/>
+    </row>
+    <row r="20" spans="2:76" ht="35.1" customHeight="1">
+      <c r="B20" s="76">
+        <v>15</v>
+      </c>
+      <c r="C20" s="77"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="92"/>
-      <c r="AC19" s="93"/>
-      <c r="AD19" s="93"/>
-      <c r="AE19" s="93"/>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="103"/>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="93"/>
-      <c r="AJ19" s="93"/>
-      <c r="AK19" s="94"/>
-      <c r="AL19" s="92"/>
-      <c r="AM19" s="93"/>
-      <c r="AN19" s="93"/>
-      <c r="AO19" s="93"/>
-      <c r="AP19" s="94"/>
-      <c r="AQ19" s="92"/>
-      <c r="AR19" s="93"/>
-      <c r="AS19" s="93"/>
-      <c r="AT19" s="93"/>
-      <c r="AU19" s="94"/>
-      <c r="AV19" s="92"/>
-      <c r="AW19" s="93"/>
-      <c r="AX19" s="93"/>
-      <c r="AY19" s="93"/>
-      <c r="AZ19" s="94"/>
-      <c r="BA19" s="92"/>
-      <c r="BB19" s="93"/>
-      <c r="BC19" s="93"/>
-      <c r="BD19" s="93"/>
-      <c r="BE19" s="94"/>
-      <c r="BF19" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG19" s="96"/>
-      <c r="BH19" s="96"/>
-      <c r="BI19" s="92"/>
-      <c r="BJ19" s="93"/>
-      <c r="BK19" s="93"/>
-      <c r="BL19" s="93"/>
-      <c r="BM19" s="94"/>
-      <c r="BN19" s="97"/>
-      <c r="BO19" s="97"/>
-      <c r="BP19" s="97"/>
-      <c r="BQ19" s="97"/>
-      <c r="BR19" s="97"/>
-      <c r="BS19" s="97"/>
-      <c r="BT19" s="97"/>
-      <c r="BU19" s="97"/>
-      <c r="BV19" s="97"/>
-      <c r="BW19" s="97"/>
-      <c r="BX19" s="98"/>
-    </row>
-    <row r="20" spans="2:76" ht="35.1" customHeight="1">
-      <c r="B20" s="99">
-        <v>15</v>
-      </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102" t="s">
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="69"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="80"/>
+      <c r="AH20" s="70"/>
+      <c r="AI20" s="70"/>
+      <c r="AJ20" s="70"/>
+      <c r="AK20" s="71"/>
+      <c r="AL20" s="69"/>
+      <c r="AM20" s="70"/>
+      <c r="AN20" s="70"/>
+      <c r="AO20" s="70"/>
+      <c r="AP20" s="71"/>
+      <c r="AQ20" s="69"/>
+      <c r="AR20" s="70"/>
+      <c r="AS20" s="70"/>
+      <c r="AT20" s="70"/>
+      <c r="AU20" s="71"/>
+      <c r="AV20" s="69"/>
+      <c r="AW20" s="70"/>
+      <c r="AX20" s="70"/>
+      <c r="AY20" s="70"/>
+      <c r="AZ20" s="71"/>
+      <c r="BA20" s="69"/>
+      <c r="BB20" s="70"/>
+      <c r="BC20" s="70"/>
+      <c r="BD20" s="70"/>
+      <c r="BE20" s="71"/>
+      <c r="BF20" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG20" s="73"/>
+      <c r="BH20" s="73"/>
+      <c r="BI20" s="69"/>
+      <c r="BJ20" s="70"/>
+      <c r="BK20" s="70"/>
+      <c r="BL20" s="70"/>
+      <c r="BM20" s="71"/>
+      <c r="BN20" s="74"/>
+      <c r="BO20" s="74"/>
+      <c r="BP20" s="74"/>
+      <c r="BQ20" s="74"/>
+      <c r="BR20" s="74"/>
+      <c r="BS20" s="74"/>
+      <c r="BT20" s="74"/>
+      <c r="BU20" s="74"/>
+      <c r="BV20" s="74"/>
+      <c r="BW20" s="74"/>
+      <c r="BX20" s="75"/>
+    </row>
+    <row r="21" spans="2:76" ht="35.1" customHeight="1">
+      <c r="B21" s="76">
+        <v>16</v>
+      </c>
+      <c r="C21" s="77"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="92"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="94"/>
-      <c r="W20" s="92"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="92"/>
-      <c r="AC20" s="93"/>
-      <c r="AD20" s="93"/>
-      <c r="AE20" s="93"/>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="103"/>
-      <c r="AH20" s="93"/>
-      <c r="AI20" s="93"/>
-      <c r="AJ20" s="93"/>
-      <c r="AK20" s="94"/>
-      <c r="AL20" s="92"/>
-      <c r="AM20" s="93"/>
-      <c r="AN20" s="93"/>
-      <c r="AO20" s="93"/>
-      <c r="AP20" s="94"/>
-      <c r="AQ20" s="92"/>
-      <c r="AR20" s="93"/>
-      <c r="AS20" s="93"/>
-      <c r="AT20" s="93"/>
-      <c r="AU20" s="94"/>
-      <c r="AV20" s="92"/>
-      <c r="AW20" s="93"/>
-      <c r="AX20" s="93"/>
-      <c r="AY20" s="93"/>
-      <c r="AZ20" s="94"/>
-      <c r="BA20" s="92"/>
-      <c r="BB20" s="93"/>
-      <c r="BC20" s="93"/>
-      <c r="BD20" s="93"/>
-      <c r="BE20" s="94"/>
-      <c r="BF20" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG20" s="96"/>
-      <c r="BH20" s="96"/>
-      <c r="BI20" s="92"/>
-      <c r="BJ20" s="93"/>
-      <c r="BK20" s="93"/>
-      <c r="BL20" s="93"/>
-      <c r="BM20" s="94"/>
-      <c r="BN20" s="97"/>
-      <c r="BO20" s="97"/>
-      <c r="BP20" s="97"/>
-      <c r="BQ20" s="97"/>
-      <c r="BR20" s="97"/>
-      <c r="BS20" s="97"/>
-      <c r="BT20" s="97"/>
-      <c r="BU20" s="97"/>
-      <c r="BV20" s="97"/>
-      <c r="BW20" s="97"/>
-      <c r="BX20" s="98"/>
-    </row>
-    <row r="21" spans="2:76" ht="35.1" customHeight="1">
-      <c r="B21" s="99">
-        <v>16</v>
-      </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="92"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="93"/>
-      <c r="U21" s="93"/>
-      <c r="V21" s="94"/>
-      <c r="W21" s="92"/>
-      <c r="X21" s="93"/>
-      <c r="Y21" s="93"/>
-      <c r="Z21" s="93"/>
-      <c r="AA21" s="94"/>
-      <c r="AB21" s="92"/>
-      <c r="AC21" s="93"/>
-      <c r="AD21" s="93"/>
-      <c r="AE21" s="93"/>
-      <c r="AF21" s="94"/>
-      <c r="AG21" s="103"/>
-      <c r="AH21" s="93"/>
-      <c r="AI21" s="93"/>
-      <c r="AJ21" s="93"/>
-      <c r="AK21" s="94"/>
-      <c r="AL21" s="92"/>
-      <c r="AM21" s="93"/>
-      <c r="AN21" s="93"/>
-      <c r="AO21" s="93"/>
-      <c r="AP21" s="94"/>
-      <c r="AQ21" s="92"/>
-      <c r="AR21" s="93"/>
-      <c r="AS21" s="93"/>
-      <c r="AT21" s="93"/>
-      <c r="AU21" s="94"/>
-      <c r="AV21" s="92"/>
-      <c r="AW21" s="93"/>
-      <c r="AX21" s="93"/>
-      <c r="AY21" s="93"/>
-      <c r="AZ21" s="94"/>
-      <c r="BA21" s="92"/>
-      <c r="BB21" s="93"/>
-      <c r="BC21" s="93"/>
-      <c r="BD21" s="93"/>
-      <c r="BE21" s="94"/>
-      <c r="BF21" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG21" s="96"/>
-      <c r="BH21" s="96"/>
-      <c r="BI21" s="92"/>
-      <c r="BJ21" s="93"/>
-      <c r="BK21" s="93"/>
-      <c r="BL21" s="93"/>
-      <c r="BM21" s="94"/>
-      <c r="BN21" s="97"/>
-      <c r="BO21" s="97"/>
-      <c r="BP21" s="97"/>
-      <c r="BQ21" s="97"/>
-      <c r="BR21" s="97"/>
-      <c r="BS21" s="97"/>
-      <c r="BT21" s="97"/>
-      <c r="BU21" s="97"/>
-      <c r="BV21" s="97"/>
-      <c r="BW21" s="97"/>
-      <c r="BX21" s="98"/>
-    </row>
-    <row r="22" spans="2:76" ht="16.5">
-      <c r="B22" s="99">
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="70"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="69"/>
+      <c r="AC21" s="70"/>
+      <c r="AD21" s="70"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="71"/>
+      <c r="AG21" s="80"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="70"/>
+      <c r="AJ21" s="70"/>
+      <c r="AK21" s="71"/>
+      <c r="AL21" s="69"/>
+      <c r="AM21" s="70"/>
+      <c r="AN21" s="70"/>
+      <c r="AO21" s="70"/>
+      <c r="AP21" s="71"/>
+      <c r="AQ21" s="69"/>
+      <c r="AR21" s="70"/>
+      <c r="AS21" s="70"/>
+      <c r="AT21" s="70"/>
+      <c r="AU21" s="71"/>
+      <c r="AV21" s="69"/>
+      <c r="AW21" s="70"/>
+      <c r="AX21" s="70"/>
+      <c r="AY21" s="70"/>
+      <c r="AZ21" s="71"/>
+      <c r="BA21" s="69"/>
+      <c r="BB21" s="70"/>
+      <c r="BC21" s="70"/>
+      <c r="BD21" s="70"/>
+      <c r="BE21" s="71"/>
+      <c r="BF21" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG21" s="73"/>
+      <c r="BH21" s="73"/>
+      <c r="BI21" s="69"/>
+      <c r="BJ21" s="70"/>
+      <c r="BK21" s="70"/>
+      <c r="BL21" s="70"/>
+      <c r="BM21" s="71"/>
+      <c r="BN21" s="74"/>
+      <c r="BO21" s="74"/>
+      <c r="BP21" s="74"/>
+      <c r="BQ21" s="74"/>
+      <c r="BR21" s="74"/>
+      <c r="BS21" s="74"/>
+      <c r="BT21" s="74"/>
+      <c r="BU21" s="74"/>
+      <c r="BV21" s="74"/>
+      <c r="BW21" s="74"/>
+      <c r="BX21" s="75"/>
+    </row>
+    <row r="22" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B22" s="76">
         <v>17</v>
       </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102" t="s">
+      <c r="C22" s="77"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="70"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="69"/>
+      <c r="AC22" s="70"/>
+      <c r="AD22" s="70"/>
+      <c r="AE22" s="70"/>
+      <c r="AF22" s="71"/>
+      <c r="AG22" s="80"/>
+      <c r="AH22" s="70"/>
+      <c r="AI22" s="70"/>
+      <c r="AJ22" s="70"/>
+      <c r="AK22" s="71"/>
+      <c r="AL22" s="69"/>
+      <c r="AM22" s="70"/>
+      <c r="AN22" s="70"/>
+      <c r="AO22" s="70"/>
+      <c r="AP22" s="71"/>
+      <c r="AQ22" s="69"/>
+      <c r="AR22" s="70"/>
+      <c r="AS22" s="70"/>
+      <c r="AT22" s="70"/>
+      <c r="AU22" s="71"/>
+      <c r="AV22" s="69"/>
+      <c r="AW22" s="70"/>
+      <c r="AX22" s="70"/>
+      <c r="AY22" s="70"/>
+      <c r="AZ22" s="71"/>
+      <c r="BA22" s="69"/>
+      <c r="BB22" s="70"/>
+      <c r="BC22" s="70"/>
+      <c r="BD22" s="70"/>
+      <c r="BE22" s="71"/>
+      <c r="BF22" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG22" s="73"/>
+      <c r="BH22" s="73"/>
+      <c r="BI22" s="69"/>
+      <c r="BJ22" s="70"/>
+      <c r="BK22" s="70"/>
+      <c r="BL22" s="70"/>
+      <c r="BM22" s="71"/>
+      <c r="BN22" s="74"/>
+      <c r="BO22" s="74"/>
+      <c r="BP22" s="74"/>
+      <c r="BQ22" s="74"/>
+      <c r="BR22" s="74"/>
+      <c r="BS22" s="74"/>
+      <c r="BT22" s="74"/>
+      <c r="BU22" s="74"/>
+      <c r="BV22" s="74"/>
+      <c r="BW22" s="74"/>
+      <c r="BX22" s="75"/>
+    </row>
+    <row r="23" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B23" s="76">
+        <v>18</v>
+      </c>
+      <c r="C23" s="77"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="92"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="94"/>
-      <c r="W22" s="92"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="93"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="92"/>
-      <c r="AC22" s="93"/>
-      <c r="AD22" s="93"/>
-      <c r="AE22" s="93"/>
-      <c r="AF22" s="94"/>
-      <c r="AG22" s="103"/>
-      <c r="AH22" s="93"/>
-      <c r="AI22" s="93"/>
-      <c r="AJ22" s="93"/>
-      <c r="AK22" s="94"/>
-      <c r="AL22" s="92"/>
-      <c r="AM22" s="93"/>
-      <c r="AN22" s="93"/>
-      <c r="AO22" s="93"/>
-      <c r="AP22" s="94"/>
-      <c r="AQ22" s="92"/>
-      <c r="AR22" s="93"/>
-      <c r="AS22" s="93"/>
-      <c r="AT22" s="93"/>
-      <c r="AU22" s="94"/>
-      <c r="AV22" s="92"/>
-      <c r="AW22" s="93"/>
-      <c r="AX22" s="93"/>
-      <c r="AY22" s="93"/>
-      <c r="AZ22" s="94"/>
-      <c r="BA22" s="92"/>
-      <c r="BB22" s="93"/>
-      <c r="BC22" s="93"/>
-      <c r="BD22" s="93"/>
-      <c r="BE22" s="94"/>
-      <c r="BF22" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="BG22" s="96"/>
-      <c r="BH22" s="96"/>
-      <c r="BI22" s="92"/>
-      <c r="BJ22" s="93"/>
-      <c r="BK22" s="93"/>
-      <c r="BL22" s="93"/>
-      <c r="BM22" s="94"/>
-      <c r="BN22" s="97"/>
-      <c r="BO22" s="97"/>
-      <c r="BP22" s="97"/>
-      <c r="BQ22" s="97"/>
-      <c r="BR22" s="97"/>
-      <c r="BS22" s="97"/>
-      <c r="BT22" s="97"/>
-      <c r="BU22" s="97"/>
-      <c r="BV22" s="97"/>
-      <c r="BW22" s="97"/>
-      <c r="BX22" s="98"/>
-    </row>
-    <row r="23" spans="2:76" ht="16.5">
-      <c r="B23" s="99">
-        <v>18</v>
-      </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="102" t="s">
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="69"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="70"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="69"/>
+      <c r="AC23" s="70"/>
+      <c r="AD23" s="70"/>
+      <c r="AE23" s="70"/>
+      <c r="AF23" s="71"/>
+      <c r="AG23" s="80"/>
+      <c r="AH23" s="70"/>
+      <c r="AI23" s="70"/>
+      <c r="AJ23" s="70"/>
+      <c r="AK23" s="71"/>
+      <c r="AL23" s="69"/>
+      <c r="AM23" s="70"/>
+      <c r="AN23" s="70"/>
+      <c r="AO23" s="70"/>
+      <c r="AP23" s="71"/>
+      <c r="AQ23" s="69"/>
+      <c r="AR23" s="70"/>
+      <c r="AS23" s="70"/>
+      <c r="AT23" s="70"/>
+      <c r="AU23" s="71"/>
+      <c r="AV23" s="69"/>
+      <c r="AW23" s="70"/>
+      <c r="AX23" s="70"/>
+      <c r="AY23" s="70"/>
+      <c r="AZ23" s="71"/>
+      <c r="BA23" s="69"/>
+      <c r="BB23" s="70"/>
+      <c r="BC23" s="70"/>
+      <c r="BD23" s="70"/>
+      <c r="BE23" s="71"/>
+      <c r="BF23" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="BG23" s="73"/>
+      <c r="BH23" s="73"/>
+      <c r="BI23" s="69"/>
+      <c r="BJ23" s="70"/>
+      <c r="BK23" s="70"/>
+      <c r="BL23" s="70"/>
+      <c r="BM23" s="71"/>
+      <c r="BN23" s="74"/>
+      <c r="BO23" s="74"/>
+      <c r="BP23" s="74"/>
+      <c r="BQ23" s="74"/>
+      <c r="BR23" s="74"/>
+      <c r="BS23" s="74"/>
+      <c r="BT23" s="74"/>
+      <c r="BU23" s="74"/>
+      <c r="BV23" s="74"/>
+      <c r="BW23" s="74"/>
+      <c r="BX23" s="75"/>
+    </row>
+    <row r="24" spans="2:76" ht="16.5">
+      <c r="B24" s="76">
+        <v>19</v>
+      </c>
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="103"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="93"/>
-      <c r="T23" s="93"/>
-      <c r="U23" s="93"/>
-      <c r="V23" s="94"/>
-      <c r="W23" s="92"/>
-      <c r="X23" s="93"/>
-      <c r="Y23" s="93"/>
-      <c r="Z23" s="93"/>
-      <c r="AA23" s="94"/>
-      <c r="AB23" s="92"/>
-      <c r="AC23" s="93"/>
-      <c r="AD23" s="93"/>
-      <c r="AE23" s="93"/>
-      <c r="AF23" s="94"/>
-      <c r="AG23" s="103"/>
-      <c r="AH23" s="93"/>
-      <c r="AI23" s="93"/>
-      <c r="AJ23" s="93"/>
-      <c r="AK23" s="94"/>
-      <c r="AL23" s="92"/>
-      <c r="AM23" s="93"/>
-      <c r="AN23" s="93"/>
-      <c r="AO23" s="93"/>
-      <c r="AP23" s="94"/>
-      <c r="AQ23" s="92"/>
-      <c r="AR23" s="93"/>
-      <c r="AS23" s="93"/>
-      <c r="AT23" s="93"/>
-      <c r="AU23" s="94"/>
-      <c r="AV23" s="92"/>
-      <c r="AW23" s="93"/>
-      <c r="AX23" s="93"/>
-      <c r="AY23" s="93"/>
-      <c r="AZ23" s="94"/>
-      <c r="BA23" s="92"/>
-      <c r="BB23" s="93"/>
-      <c r="BC23" s="93"/>
-      <c r="BD23" s="93"/>
-      <c r="BE23" s="94"/>
-      <c r="BF23" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="BG23" s="96"/>
-      <c r="BH23" s="96"/>
-      <c r="BI23" s="92"/>
-      <c r="BJ23" s="93"/>
-      <c r="BK23" s="93"/>
-      <c r="BL23" s="93"/>
-      <c r="BM23" s="94"/>
-      <c r="BN23" s="97"/>
-      <c r="BO23" s="97"/>
-      <c r="BP23" s="97"/>
-      <c r="BQ23" s="97"/>
-      <c r="BR23" s="97"/>
-      <c r="BS23" s="97"/>
-      <c r="BT23" s="97"/>
-      <c r="BU23" s="97"/>
-      <c r="BV23" s="97"/>
-      <c r="BW23" s="97"/>
-      <c r="BX23" s="98"/>
-    </row>
-    <row r="24" spans="2:76" ht="16.5">
-      <c r="B24" s="99">
-        <v>19</v>
-      </c>
-      <c r="C24" s="100"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="93"/>
-      <c r="U24" s="93"/>
-      <c r="V24" s="94"/>
-      <c r="W24" s="103"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="93"/>
-      <c r="Z24" s="93"/>
-      <c r="AA24" s="94"/>
-      <c r="AB24" s="103"/>
-      <c r="AC24" s="93"/>
-      <c r="AD24" s="93"/>
-      <c r="AE24" s="93"/>
-      <c r="AF24" s="94"/>
-      <c r="AG24" s="103"/>
-      <c r="AH24" s="93"/>
-      <c r="AI24" s="93"/>
-      <c r="AJ24" s="93"/>
-      <c r="AK24" s="94"/>
-      <c r="AL24" s="92"/>
-      <c r="AM24" s="93"/>
-      <c r="AN24" s="93"/>
-      <c r="AO24" s="93"/>
-      <c r="AP24" s="94"/>
-      <c r="AQ24" s="103"/>
-      <c r="AR24" s="93"/>
-      <c r="AS24" s="93"/>
-      <c r="AT24" s="93"/>
-      <c r="AU24" s="94"/>
-      <c r="AV24" s="103"/>
-      <c r="AW24" s="93"/>
-      <c r="AX24" s="93"/>
-      <c r="AY24" s="93"/>
-      <c r="AZ24" s="94"/>
-      <c r="BA24" s="103"/>
-      <c r="BB24" s="93"/>
-      <c r="BC24" s="93"/>
-      <c r="BD24" s="93"/>
-      <c r="BE24" s="94"/>
-      <c r="BF24" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="BG24" s="96"/>
-      <c r="BH24" s="96"/>
-      <c r="BI24" s="92"/>
-      <c r="BJ24" s="93"/>
-      <c r="BK24" s="93"/>
-      <c r="BL24" s="93"/>
-      <c r="BM24" s="94"/>
-      <c r="BN24" s="102"/>
-      <c r="BO24" s="97"/>
-      <c r="BP24" s="97"/>
-      <c r="BQ24" s="97"/>
-      <c r="BR24" s="97"/>
-      <c r="BS24" s="97"/>
-      <c r="BT24" s="97"/>
-      <c r="BU24" s="97"/>
-      <c r="BV24" s="97"/>
-      <c r="BW24" s="97"/>
-      <c r="BX24" s="98"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="70"/>
+      <c r="Z24" s="70"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="80"/>
+      <c r="AC24" s="70"/>
+      <c r="AD24" s="70"/>
+      <c r="AE24" s="70"/>
+      <c r="AF24" s="71"/>
+      <c r="AG24" s="80"/>
+      <c r="AH24" s="70"/>
+      <c r="AI24" s="70"/>
+      <c r="AJ24" s="70"/>
+      <c r="AK24" s="71"/>
+      <c r="AL24" s="69"/>
+      <c r="AM24" s="70"/>
+      <c r="AN24" s="70"/>
+      <c r="AO24" s="70"/>
+      <c r="AP24" s="71"/>
+      <c r="AQ24" s="80"/>
+      <c r="AR24" s="70"/>
+      <c r="AS24" s="70"/>
+      <c r="AT24" s="70"/>
+      <c r="AU24" s="71"/>
+      <c r="AV24" s="80"/>
+      <c r="AW24" s="70"/>
+      <c r="AX24" s="70"/>
+      <c r="AY24" s="70"/>
+      <c r="AZ24" s="71"/>
+      <c r="BA24" s="80"/>
+      <c r="BB24" s="70"/>
+      <c r="BC24" s="70"/>
+      <c r="BD24" s="70"/>
+      <c r="BE24" s="71"/>
+      <c r="BF24" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG24" s="73"/>
+      <c r="BH24" s="73"/>
+      <c r="BI24" s="69"/>
+      <c r="BJ24" s="70"/>
+      <c r="BK24" s="70"/>
+      <c r="BL24" s="70"/>
+      <c r="BM24" s="71"/>
+      <c r="BN24" s="79"/>
+      <c r="BO24" s="74"/>
+      <c r="BP24" s="74"/>
+      <c r="BQ24" s="74"/>
+      <c r="BR24" s="74"/>
+      <c r="BS24" s="74"/>
+      <c r="BT24" s="74"/>
+      <c r="BU24" s="74"/>
+      <c r="BV24" s="74"/>
+      <c r="BW24" s="74"/>
+      <c r="BX24" s="75"/>
     </row>
     <row r="25" spans="2:76" ht="16.5">
-      <c r="B25" s="99">
+      <c r="B25" s="76">
         <v>20</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="102" t="s">
+      <c r="C25" s="77"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="70"/>
+      <c r="Z25" s="70"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="69"/>
+      <c r="AC25" s="70"/>
+      <c r="AD25" s="70"/>
+      <c r="AE25" s="70"/>
+      <c r="AF25" s="71"/>
+      <c r="AG25" s="80"/>
+      <c r="AH25" s="70"/>
+      <c r="AI25" s="70"/>
+      <c r="AJ25" s="70"/>
+      <c r="AK25" s="71"/>
+      <c r="AL25" s="69"/>
+      <c r="AM25" s="70"/>
+      <c r="AN25" s="70"/>
+      <c r="AO25" s="70"/>
+      <c r="AP25" s="71"/>
+      <c r="AQ25" s="69"/>
+      <c r="AR25" s="70"/>
+      <c r="AS25" s="70"/>
+      <c r="AT25" s="70"/>
+      <c r="AU25" s="71"/>
+      <c r="AV25" s="69"/>
+      <c r="AW25" s="70"/>
+      <c r="AX25" s="70"/>
+      <c r="AY25" s="70"/>
+      <c r="AZ25" s="71"/>
+      <c r="BA25" s="69"/>
+      <c r="BB25" s="70"/>
+      <c r="BC25" s="70"/>
+      <c r="BD25" s="70"/>
+      <c r="BE25" s="71"/>
+      <c r="BF25" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG25" s="73"/>
+      <c r="BH25" s="73"/>
+      <c r="BI25" s="69"/>
+      <c r="BJ25" s="70"/>
+      <c r="BK25" s="70"/>
+      <c r="BL25" s="70"/>
+      <c r="BM25" s="71"/>
+      <c r="BN25" s="74"/>
+      <c r="BO25" s="74"/>
+      <c r="BP25" s="74"/>
+      <c r="BQ25" s="74"/>
+      <c r="BR25" s="74"/>
+      <c r="BS25" s="74"/>
+      <c r="BT25" s="74"/>
+      <c r="BU25" s="74"/>
+      <c r="BV25" s="74"/>
+      <c r="BW25" s="74"/>
+      <c r="BX25" s="75"/>
+    </row>
+    <row r="26" spans="2:76" ht="16.5">
+      <c r="B26" s="76">
+        <v>21</v>
+      </c>
+      <c r="C26" s="77"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="92"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="93"/>
-      <c r="U25" s="93"/>
-      <c r="V25" s="94"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="93"/>
-      <c r="Y25" s="93"/>
-      <c r="Z25" s="93"/>
-      <c r="AA25" s="94"/>
-      <c r="AB25" s="92"/>
-      <c r="AC25" s="93"/>
-      <c r="AD25" s="93"/>
-      <c r="AE25" s="93"/>
-      <c r="AF25" s="94"/>
-      <c r="AG25" s="103"/>
-      <c r="AH25" s="93"/>
-      <c r="AI25" s="93"/>
-      <c r="AJ25" s="93"/>
-      <c r="AK25" s="94"/>
-      <c r="AL25" s="92"/>
-      <c r="AM25" s="93"/>
-      <c r="AN25" s="93"/>
-      <c r="AO25" s="93"/>
-      <c r="AP25" s="94"/>
-      <c r="AQ25" s="92"/>
-      <c r="AR25" s="93"/>
-      <c r="AS25" s="93"/>
-      <c r="AT25" s="93"/>
-      <c r="AU25" s="94"/>
-      <c r="AV25" s="92"/>
-      <c r="AW25" s="93"/>
-      <c r="AX25" s="93"/>
-      <c r="AY25" s="93"/>
-      <c r="AZ25" s="94"/>
-      <c r="BA25" s="92"/>
-      <c r="BB25" s="93"/>
-      <c r="BC25" s="93"/>
-      <c r="BD25" s="93"/>
-      <c r="BE25" s="94"/>
-      <c r="BF25" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG25" s="96"/>
-      <c r="BH25" s="96"/>
-      <c r="BI25" s="92"/>
-      <c r="BJ25" s="93"/>
-      <c r="BK25" s="93"/>
-      <c r="BL25" s="93"/>
-      <c r="BM25" s="94"/>
-      <c r="BN25" s="97"/>
-      <c r="BO25" s="97"/>
-      <c r="BP25" s="97"/>
-      <c r="BQ25" s="97"/>
-      <c r="BR25" s="97"/>
-      <c r="BS25" s="97"/>
-      <c r="BT25" s="97"/>
-      <c r="BU25" s="97"/>
-      <c r="BV25" s="97"/>
-      <c r="BW25" s="97"/>
-      <c r="BX25" s="98"/>
-    </row>
-    <row r="26" spans="2:76" ht="16.5">
-      <c r="B26" s="99">
-        <v>21</v>
-      </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="93"/>
-      <c r="T26" s="93"/>
-      <c r="U26" s="93"/>
-      <c r="V26" s="94"/>
-      <c r="W26" s="92"/>
-      <c r="X26" s="93"/>
-      <c r="Y26" s="93"/>
-      <c r="Z26" s="93"/>
-      <c r="AA26" s="94"/>
-      <c r="AB26" s="92"/>
-      <c r="AC26" s="93"/>
-      <c r="AD26" s="93"/>
-      <c r="AE26" s="93"/>
-      <c r="AF26" s="94"/>
-      <c r="AG26" s="103"/>
-      <c r="AH26" s="93"/>
-      <c r="AI26" s="93"/>
-      <c r="AJ26" s="93"/>
-      <c r="AK26" s="94"/>
-      <c r="AL26" s="92"/>
-      <c r="AM26" s="93"/>
-      <c r="AN26" s="93"/>
-      <c r="AO26" s="93"/>
-      <c r="AP26" s="94"/>
-      <c r="AQ26" s="92"/>
-      <c r="AR26" s="93"/>
-      <c r="AS26" s="93"/>
-      <c r="AT26" s="93"/>
-      <c r="AU26" s="94"/>
-      <c r="AV26" s="92"/>
-      <c r="AW26" s="93"/>
-      <c r="AX26" s="93"/>
-      <c r="AY26" s="93"/>
-      <c r="AZ26" s="94"/>
-      <c r="BA26" s="92"/>
-      <c r="BB26" s="93"/>
-      <c r="BC26" s="93"/>
-      <c r="BD26" s="93"/>
-      <c r="BE26" s="94"/>
-      <c r="BF26" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG26" s="96"/>
-      <c r="BH26" s="96"/>
-      <c r="BI26" s="92"/>
-      <c r="BJ26" s="93"/>
-      <c r="BK26" s="93"/>
-      <c r="BL26" s="93"/>
-      <c r="BM26" s="94"/>
-      <c r="BN26" s="97"/>
-      <c r="BO26" s="97"/>
-      <c r="BP26" s="97"/>
-      <c r="BQ26" s="97"/>
-      <c r="BR26" s="97"/>
-      <c r="BS26" s="97"/>
-      <c r="BT26" s="97"/>
-      <c r="BU26" s="97"/>
-      <c r="BV26" s="97"/>
-      <c r="BW26" s="97"/>
-      <c r="BX26" s="98"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="70"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="69"/>
+      <c r="AC26" s="70"/>
+      <c r="AD26" s="70"/>
+      <c r="AE26" s="70"/>
+      <c r="AF26" s="71"/>
+      <c r="AG26" s="80"/>
+      <c r="AH26" s="70"/>
+      <c r="AI26" s="70"/>
+      <c r="AJ26" s="70"/>
+      <c r="AK26" s="71"/>
+      <c r="AL26" s="69"/>
+      <c r="AM26" s="70"/>
+      <c r="AN26" s="70"/>
+      <c r="AO26" s="70"/>
+      <c r="AP26" s="71"/>
+      <c r="AQ26" s="69"/>
+      <c r="AR26" s="70"/>
+      <c r="AS26" s="70"/>
+      <c r="AT26" s="70"/>
+      <c r="AU26" s="71"/>
+      <c r="AV26" s="69"/>
+      <c r="AW26" s="70"/>
+      <c r="AX26" s="70"/>
+      <c r="AY26" s="70"/>
+      <c r="AZ26" s="71"/>
+      <c r="BA26" s="69"/>
+      <c r="BB26" s="70"/>
+      <c r="BC26" s="70"/>
+      <c r="BD26" s="70"/>
+      <c r="BE26" s="71"/>
+      <c r="BF26" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG26" s="73"/>
+      <c r="BH26" s="73"/>
+      <c r="BI26" s="69"/>
+      <c r="BJ26" s="70"/>
+      <c r="BK26" s="70"/>
+      <c r="BL26" s="70"/>
+      <c r="BM26" s="71"/>
+      <c r="BN26" s="74"/>
+      <c r="BO26" s="74"/>
+      <c r="BP26" s="74"/>
+      <c r="BQ26" s="74"/>
+      <c r="BR26" s="74"/>
+      <c r="BS26" s="74"/>
+      <c r="BT26" s="74"/>
+      <c r="BU26" s="74"/>
+      <c r="BV26" s="74"/>
+      <c r="BW26" s="74"/>
+      <c r="BX26" s="75"/>
     </row>
     <row r="27" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B27" s="112">
+      <c r="B27" s="81">
         <v>22</v>
       </c>
-      <c r="C27" s="113"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="115" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="107"/>
-      <c r="N27" s="105"/>
-      <c r="O27" s="105"/>
-      <c r="P27" s="105"/>
-      <c r="Q27" s="106"/>
-      <c r="R27" s="104"/>
-      <c r="S27" s="105"/>
-      <c r="T27" s="105"/>
-      <c r="U27" s="105"/>
-      <c r="V27" s="106"/>
-      <c r="W27" s="104"/>
-      <c r="X27" s="105"/>
-      <c r="Y27" s="105"/>
-      <c r="Z27" s="105"/>
-      <c r="AA27" s="106"/>
-      <c r="AB27" s="104"/>
-      <c r="AC27" s="105"/>
-      <c r="AD27" s="105"/>
-      <c r="AE27" s="105"/>
-      <c r="AF27" s="106"/>
-      <c r="AG27" s="107"/>
-      <c r="AH27" s="105"/>
-      <c r="AI27" s="105"/>
-      <c r="AJ27" s="105"/>
-      <c r="AK27" s="106"/>
-      <c r="AL27" s="104"/>
-      <c r="AM27" s="105"/>
-      <c r="AN27" s="105"/>
-      <c r="AO27" s="105"/>
-      <c r="AP27" s="106"/>
-      <c r="AQ27" s="104"/>
-      <c r="AR27" s="105"/>
-      <c r="AS27" s="105"/>
-      <c r="AT27" s="105"/>
-      <c r="AU27" s="106"/>
-      <c r="AV27" s="104"/>
-      <c r="AW27" s="105"/>
-      <c r="AX27" s="105"/>
-      <c r="AY27" s="105"/>
-      <c r="AZ27" s="106"/>
-      <c r="BA27" s="104"/>
-      <c r="BB27" s="105"/>
-      <c r="BC27" s="105"/>
-      <c r="BD27" s="105"/>
-      <c r="BE27" s="106"/>
-      <c r="BF27" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG27" s="109"/>
-      <c r="BH27" s="109"/>
-      <c r="BI27" s="104"/>
-      <c r="BJ27" s="105"/>
-      <c r="BK27" s="105"/>
-      <c r="BL27" s="105"/>
-      <c r="BM27" s="106"/>
-      <c r="BN27" s="110"/>
-      <c r="BO27" s="110"/>
-      <c r="BP27" s="110"/>
-      <c r="BQ27" s="110"/>
-      <c r="BR27" s="110"/>
-      <c r="BS27" s="110"/>
-      <c r="BT27" s="110"/>
-      <c r="BU27" s="110"/>
-      <c r="BV27" s="110"/>
-      <c r="BW27" s="110"/>
-      <c r="BX27" s="111"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="87"/>
+      <c r="T27" s="87"/>
+      <c r="U27" s="87"/>
+      <c r="V27" s="88"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="87"/>
+      <c r="Z27" s="87"/>
+      <c r="AA27" s="88"/>
+      <c r="AB27" s="89"/>
+      <c r="AC27" s="87"/>
+      <c r="AD27" s="87"/>
+      <c r="AE27" s="87"/>
+      <c r="AF27" s="88"/>
+      <c r="AG27" s="86"/>
+      <c r="AH27" s="87"/>
+      <c r="AI27" s="87"/>
+      <c r="AJ27" s="87"/>
+      <c r="AK27" s="88"/>
+      <c r="AL27" s="89"/>
+      <c r="AM27" s="87"/>
+      <c r="AN27" s="87"/>
+      <c r="AO27" s="87"/>
+      <c r="AP27" s="88"/>
+      <c r="AQ27" s="89"/>
+      <c r="AR27" s="87"/>
+      <c r="AS27" s="87"/>
+      <c r="AT27" s="87"/>
+      <c r="AU27" s="88"/>
+      <c r="AV27" s="89"/>
+      <c r="AW27" s="87"/>
+      <c r="AX27" s="87"/>
+      <c r="AY27" s="87"/>
+      <c r="AZ27" s="88"/>
+      <c r="BA27" s="89"/>
+      <c r="BB27" s="87"/>
+      <c r="BC27" s="87"/>
+      <c r="BD27" s="87"/>
+      <c r="BE27" s="88"/>
+      <c r="BF27" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG27" s="107"/>
+      <c r="BH27" s="107"/>
+      <c r="BI27" s="89"/>
+      <c r="BJ27" s="87"/>
+      <c r="BK27" s="87"/>
+      <c r="BL27" s="87"/>
+      <c r="BM27" s="88"/>
+      <c r="BN27" s="85"/>
+      <c r="BO27" s="85"/>
+      <c r="BP27" s="85"/>
+      <c r="BQ27" s="85"/>
+      <c r="BR27" s="85"/>
+      <c r="BS27" s="85"/>
+      <c r="BT27" s="85"/>
+      <c r="BU27" s="85"/>
+      <c r="BV27" s="85"/>
+      <c r="BW27" s="85"/>
+      <c r="BX27" s="108"/>
     </row>
     <row r="28" spans="2:76" ht="16.5">
       <c r="B28" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="2:76" ht="16.5">
       <c r="I29" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="2:76" ht="16.5">
       <c r="I30" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="2:76" ht="16.5"/>
     <row r="32" spans="2:76" ht="16.5">
       <c r="B32" s="35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="2:39" ht="15" customHeight="1">
-      <c r="B33" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="70" t="s">
+      <c r="B33" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="91"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="94"/>
+      <c r="AB33" s="94"/>
+      <c r="AC33" s="94"/>
+      <c r="AD33" s="94"/>
+      <c r="AE33" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="W33" s="71"/>
-      <c r="X33" s="71"/>
-      <c r="Y33" s="71"/>
-      <c r="Z33" s="71"/>
-      <c r="AA33" s="71"/>
-      <c r="AB33" s="71"/>
-      <c r="AC33" s="71"/>
-      <c r="AD33" s="71"/>
-      <c r="AE33" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF33" s="71"/>
-      <c r="AG33" s="71"/>
-      <c r="AH33" s="71"/>
-      <c r="AI33" s="71"/>
-      <c r="AJ33" s="71"/>
-      <c r="AK33" s="71"/>
-      <c r="AL33" s="71"/>
-      <c r="AM33" s="72"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="94"/>
+      <c r="AH33" s="94"/>
+      <c r="AI33" s="94"/>
+      <c r="AJ33" s="94"/>
+      <c r="AK33" s="94"/>
+      <c r="AL33" s="94"/>
+      <c r="AM33" s="95"/>
     </row>
     <row r="34" spans="2:39" ht="15" customHeight="1">
-      <c r="B34" s="123">
+      <c r="B34" s="128">
         <v>1</v>
       </c>
-      <c r="C34" s="124"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="115" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="107"/>
-      <c r="N34" s="105"/>
-      <c r="O34" s="105"/>
-      <c r="P34" s="105"/>
-      <c r="Q34" s="105"/>
-      <c r="R34" s="105"/>
-      <c r="S34" s="105"/>
-      <c r="T34" s="105"/>
-      <c r="U34" s="106"/>
-      <c r="V34" s="107"/>
-      <c r="W34" s="105"/>
-      <c r="X34" s="105"/>
-      <c r="Y34" s="105"/>
-      <c r="Z34" s="105"/>
-      <c r="AA34" s="105"/>
-      <c r="AB34" s="105"/>
-      <c r="AC34" s="105"/>
-      <c r="AD34" s="106"/>
-      <c r="AE34" s="107"/>
-      <c r="AF34" s="105"/>
-      <c r="AG34" s="105"/>
-      <c r="AH34" s="105"/>
-      <c r="AI34" s="105"/>
-      <c r="AJ34" s="105"/>
-      <c r="AK34" s="105"/>
-      <c r="AL34" s="105"/>
-      <c r="AM34" s="106"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="87"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="88"/>
+      <c r="V34" s="86"/>
+      <c r="W34" s="87"/>
+      <c r="X34" s="87"/>
+      <c r="Y34" s="87"/>
+      <c r="Z34" s="87"/>
+      <c r="AA34" s="87"/>
+      <c r="AB34" s="87"/>
+      <c r="AC34" s="87"/>
+      <c r="AD34" s="88"/>
+      <c r="AE34" s="86"/>
+      <c r="AF34" s="87"/>
+      <c r="AG34" s="87"/>
+      <c r="AH34" s="87"/>
+      <c r="AI34" s="87"/>
+      <c r="AJ34" s="87"/>
+      <c r="AK34" s="87"/>
+      <c r="AL34" s="87"/>
+      <c r="AM34" s="88"/>
     </row>
     <row r="35" spans="2:39" ht="9" customHeight="1"/>
     <row r="36" spans="2:39" ht="9" customHeight="1"/>
   </sheetData>
   <mergeCells count="334">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="W9:AA9"/>
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="BA9:BE9"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="AL9:AP9"/>
-    <mergeCell ref="AQ7:AU7"/>
-    <mergeCell ref="AV7:AZ7"/>
-    <mergeCell ref="BA7:BE7"/>
-    <mergeCell ref="BF7:BH7"/>
-    <mergeCell ref="BI7:BM7"/>
-    <mergeCell ref="BN7:BX7"/>
-    <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="BN9:BX9"/>
-    <mergeCell ref="BF11:BH11"/>
-    <mergeCell ref="BI11:BM11"/>
-    <mergeCell ref="BN11:BX11"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="AG11:AK11"/>
-    <mergeCell ref="AL11:AP11"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BM8"/>
-    <mergeCell ref="BN8:BX8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="R11:V11"/>
-    <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="AB11:AF11"/>
-    <mergeCell ref="AQ12:AU12"/>
-    <mergeCell ref="AV12:AZ12"/>
-    <mergeCell ref="BA12:BE12"/>
-    <mergeCell ref="AG12:AK12"/>
-    <mergeCell ref="AL12:AP12"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="AQ10:AU10"/>
-    <mergeCell ref="AV10:AZ10"/>
-    <mergeCell ref="BA10:BE10"/>
-    <mergeCell ref="BF10:BH10"/>
-    <mergeCell ref="BI10:BM10"/>
-    <mergeCell ref="BN10:BX10"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="BI15:BM15"/>
-    <mergeCell ref="BN15:BX15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="R15:V15"/>
-    <mergeCell ref="W15:AA15"/>
-    <mergeCell ref="AB15:AF15"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="AL15:AP15"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="AQ13:AU13"/>
-    <mergeCell ref="AV13:AZ13"/>
-    <mergeCell ref="BA13:BE13"/>
-    <mergeCell ref="BF13:BH13"/>
-    <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="AL13:AP13"/>
-    <mergeCell ref="AQ15:AU15"/>
-    <mergeCell ref="AV15:AZ15"/>
-    <mergeCell ref="BA15:BE15"/>
-    <mergeCell ref="BF15:BH15"/>
+    <mergeCell ref="B4:BX4"/>
+    <mergeCell ref="B16:BX16"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="AL14:AP14"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="BF14:BH14"/>
+    <mergeCell ref="BA14:BE14"/>
+    <mergeCell ref="AV14:AZ14"/>
+    <mergeCell ref="AQ14:AU14"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="W14:AA14"/>
+    <mergeCell ref="BN14:BX14"/>
+    <mergeCell ref="BI14:BM14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="R14:V14"/>
+    <mergeCell ref="BI5:BM5"/>
+    <mergeCell ref="BN5:BX5"/>
+    <mergeCell ref="BF6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="BN6:BX6"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="AV27:AZ27"/>
+    <mergeCell ref="BA27:BE27"/>
+    <mergeCell ref="BF27:BH27"/>
+    <mergeCell ref="BI27:BM27"/>
+    <mergeCell ref="BN27:BX27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:L26"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="R26:V26"/>
+    <mergeCell ref="W26:AA26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:L27"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="R27:V27"/>
+    <mergeCell ref="W27:AA27"/>
+    <mergeCell ref="AB27:AF27"/>
+    <mergeCell ref="AG27:AK27"/>
+    <mergeCell ref="AL27:AP27"/>
+    <mergeCell ref="AQ27:AU27"/>
+    <mergeCell ref="AB26:AF26"/>
+    <mergeCell ref="AG26:AK26"/>
+    <mergeCell ref="AL26:AP26"/>
+    <mergeCell ref="AQ26:AU26"/>
+    <mergeCell ref="AV26:AZ26"/>
+    <mergeCell ref="AV24:AZ24"/>
+    <mergeCell ref="BA24:BE24"/>
+    <mergeCell ref="BF24:BH24"/>
+    <mergeCell ref="BI24:BM24"/>
+    <mergeCell ref="BN24:BX24"/>
+    <mergeCell ref="AV25:AZ25"/>
+    <mergeCell ref="BA25:BE25"/>
+    <mergeCell ref="BF25:BH25"/>
+    <mergeCell ref="BI25:BM25"/>
+    <mergeCell ref="BN25:BX25"/>
+    <mergeCell ref="BA26:BE26"/>
+    <mergeCell ref="BF26:BH26"/>
+    <mergeCell ref="BI26:BM26"/>
+    <mergeCell ref="BN26:BX26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="R25:V25"/>
+    <mergeCell ref="W25:AA25"/>
+    <mergeCell ref="AB25:AF25"/>
+    <mergeCell ref="AG25:AK25"/>
+    <mergeCell ref="AL25:AP25"/>
+    <mergeCell ref="AQ25:AU25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:L24"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="R24:V24"/>
+    <mergeCell ref="W24:AA24"/>
+    <mergeCell ref="AB24:AF24"/>
+    <mergeCell ref="AG24:AK24"/>
+    <mergeCell ref="AL24:AP24"/>
+    <mergeCell ref="AQ24:AU24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="R23:V23"/>
+    <mergeCell ref="W23:AA23"/>
+    <mergeCell ref="AB23:AF23"/>
+    <mergeCell ref="AG23:AK23"/>
+    <mergeCell ref="AL23:AP23"/>
+    <mergeCell ref="AQ23:AU23"/>
+    <mergeCell ref="BA20:BE20"/>
+    <mergeCell ref="BF20:BH20"/>
+    <mergeCell ref="BI20:BM20"/>
+    <mergeCell ref="BN20:BX20"/>
+    <mergeCell ref="AV23:AZ23"/>
+    <mergeCell ref="BA23:BE23"/>
+    <mergeCell ref="BF23:BH23"/>
+    <mergeCell ref="BI23:BM23"/>
+    <mergeCell ref="BN23:BX23"/>
+    <mergeCell ref="AV22:AZ22"/>
+    <mergeCell ref="BA22:BE22"/>
+    <mergeCell ref="BF22:BH22"/>
+    <mergeCell ref="BI22:BM22"/>
+    <mergeCell ref="BN22:BX22"/>
+    <mergeCell ref="AV21:AZ21"/>
+    <mergeCell ref="BA21:BE21"/>
+    <mergeCell ref="BF21:BH21"/>
+    <mergeCell ref="BI21:BM21"/>
+    <mergeCell ref="BN21:BX21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="R22:V22"/>
+    <mergeCell ref="W22:AA22"/>
+    <mergeCell ref="AB22:AF22"/>
+    <mergeCell ref="AG22:AK22"/>
+    <mergeCell ref="AL22:AP22"/>
+    <mergeCell ref="AQ22:AU22"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="R20:V20"/>
+    <mergeCell ref="W20:AA20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="R21:V21"/>
+    <mergeCell ref="W21:AA21"/>
+    <mergeCell ref="AB21:AF21"/>
+    <mergeCell ref="AG21:AK21"/>
+    <mergeCell ref="AL21:AP21"/>
+    <mergeCell ref="AQ21:AU21"/>
+    <mergeCell ref="AB20:AF20"/>
+    <mergeCell ref="AG20:AK20"/>
+    <mergeCell ref="AL20:AP20"/>
+    <mergeCell ref="AQ20:AU20"/>
+    <mergeCell ref="AV20:AZ20"/>
+    <mergeCell ref="AB18:AF18"/>
+    <mergeCell ref="AG18:AK18"/>
+    <mergeCell ref="AL18:AP18"/>
+    <mergeCell ref="AQ18:AU18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="R19:V19"/>
+    <mergeCell ref="W19:AA19"/>
+    <mergeCell ref="AB19:AF19"/>
+    <mergeCell ref="AG19:AK19"/>
+    <mergeCell ref="AL19:AP19"/>
+    <mergeCell ref="AQ19:AU19"/>
+    <mergeCell ref="AV18:AZ18"/>
+    <mergeCell ref="BA18:BE18"/>
+    <mergeCell ref="BF18:BH18"/>
+    <mergeCell ref="BI18:BM18"/>
+    <mergeCell ref="BN18:BX18"/>
+    <mergeCell ref="AV19:AZ19"/>
+    <mergeCell ref="BA19:BE19"/>
+    <mergeCell ref="AV17:AZ17"/>
+    <mergeCell ref="BA17:BE17"/>
+    <mergeCell ref="BF17:BH17"/>
+    <mergeCell ref="BI17:BM17"/>
+    <mergeCell ref="BN17:BX17"/>
+    <mergeCell ref="BF19:BH19"/>
+    <mergeCell ref="BI19:BM19"/>
+    <mergeCell ref="BN19:BX19"/>
+    <mergeCell ref="AQ17:AU17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="R18:V18"/>
+    <mergeCell ref="W18:AA18"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:L34"/>
+    <mergeCell ref="M34:U34"/>
+    <mergeCell ref="V34:AD34"/>
+    <mergeCell ref="AE34:AM34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:L33"/>
+    <mergeCell ref="M33:U33"/>
+    <mergeCell ref="V33:AD33"/>
+    <mergeCell ref="AE33:AM33"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="W17:AA17"/>
+    <mergeCell ref="AB17:AF17"/>
+    <mergeCell ref="AG17:AK17"/>
+    <mergeCell ref="AL17:AP17"/>
+    <mergeCell ref="AV5:AZ5"/>
+    <mergeCell ref="BA5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="AB5:AF5"/>
+    <mergeCell ref="AG5:AK5"/>
+    <mergeCell ref="AL5:AP5"/>
+    <mergeCell ref="AQ6:AU6"/>
+    <mergeCell ref="AV6:AZ6"/>
+    <mergeCell ref="BA6:BE6"/>
+    <mergeCell ref="BI3:BM3"/>
+    <mergeCell ref="BN3:BX3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AL3:AP3"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="AB6:AF6"/>
+    <mergeCell ref="AG6:AK6"/>
+    <mergeCell ref="AL6:AP6"/>
+    <mergeCell ref="AQ3:AU3"/>
+    <mergeCell ref="AV3:AZ3"/>
+    <mergeCell ref="BA3:BE3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="AQ5:AU5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="AB7:AF7"/>
     <mergeCell ref="AG7:AK7"/>
     <mergeCell ref="AL7:AP7"/>
     <mergeCell ref="AG8:AK8"/>
@@ -8609,241 +9269,81 @@
     <mergeCell ref="BN12:BX12"/>
     <mergeCell ref="BF9:BH9"/>
     <mergeCell ref="BI9:BM9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AB8:AF8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="AQ6:AU6"/>
-    <mergeCell ref="AV6:AZ6"/>
-    <mergeCell ref="BA6:BE6"/>
-    <mergeCell ref="BI3:BM3"/>
-    <mergeCell ref="BN3:BX3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="AB6:AF6"/>
-    <mergeCell ref="AG6:AK6"/>
-    <mergeCell ref="AL6:AP6"/>
-    <mergeCell ref="AQ3:AU3"/>
-    <mergeCell ref="AV3:AZ3"/>
-    <mergeCell ref="BA3:BE3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="AQ5:AU5"/>
-    <mergeCell ref="AV5:AZ5"/>
-    <mergeCell ref="BA5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="AB5:AF5"/>
-    <mergeCell ref="AG5:AK5"/>
-    <mergeCell ref="AL5:AP5"/>
-    <mergeCell ref="AQ17:AU17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="R18:V18"/>
-    <mergeCell ref="W18:AA18"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:L34"/>
-    <mergeCell ref="M34:U34"/>
-    <mergeCell ref="V34:AD34"/>
-    <mergeCell ref="AE34:AM34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:L33"/>
-    <mergeCell ref="M33:U33"/>
-    <mergeCell ref="V33:AD33"/>
-    <mergeCell ref="AE33:AM33"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="R17:V17"/>
-    <mergeCell ref="W17:AA17"/>
-    <mergeCell ref="AB17:AF17"/>
-    <mergeCell ref="AG17:AK17"/>
-    <mergeCell ref="AL17:AP17"/>
-    <mergeCell ref="AV18:AZ18"/>
-    <mergeCell ref="BA18:BE18"/>
-    <mergeCell ref="BF18:BH18"/>
-    <mergeCell ref="BI18:BM18"/>
-    <mergeCell ref="BN18:BX18"/>
-    <mergeCell ref="AV19:AZ19"/>
-    <mergeCell ref="BA19:BE19"/>
-    <mergeCell ref="AV17:AZ17"/>
-    <mergeCell ref="BA17:BE17"/>
-    <mergeCell ref="BF17:BH17"/>
-    <mergeCell ref="BI17:BM17"/>
-    <mergeCell ref="BN17:BX17"/>
-    <mergeCell ref="BF19:BH19"/>
-    <mergeCell ref="BI19:BM19"/>
-    <mergeCell ref="BN19:BX19"/>
-    <mergeCell ref="AB18:AF18"/>
-    <mergeCell ref="AG18:AK18"/>
-    <mergeCell ref="AL18:AP18"/>
-    <mergeCell ref="AQ18:AU18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="R19:V19"/>
-    <mergeCell ref="W19:AA19"/>
-    <mergeCell ref="AB19:AF19"/>
-    <mergeCell ref="AG19:AK19"/>
-    <mergeCell ref="AL19:AP19"/>
-    <mergeCell ref="AQ19:AU19"/>
-    <mergeCell ref="AB21:AF21"/>
-    <mergeCell ref="AG21:AK21"/>
-    <mergeCell ref="AL21:AP21"/>
-    <mergeCell ref="AQ21:AU21"/>
-    <mergeCell ref="AB20:AF20"/>
-    <mergeCell ref="AG20:AK20"/>
-    <mergeCell ref="AL20:AP20"/>
-    <mergeCell ref="AQ20:AU20"/>
-    <mergeCell ref="AV20:AZ20"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="R20:V20"/>
-    <mergeCell ref="W20:AA20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:L21"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="R21:V21"/>
-    <mergeCell ref="W21:AA21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="R22:V22"/>
-    <mergeCell ref="W22:AA22"/>
-    <mergeCell ref="AB22:AF22"/>
-    <mergeCell ref="AG22:AK22"/>
-    <mergeCell ref="AL22:AP22"/>
-    <mergeCell ref="AQ22:AU22"/>
-    <mergeCell ref="BA20:BE20"/>
-    <mergeCell ref="BF20:BH20"/>
-    <mergeCell ref="BI20:BM20"/>
-    <mergeCell ref="BN20:BX20"/>
-    <mergeCell ref="AV23:AZ23"/>
-    <mergeCell ref="BA23:BE23"/>
-    <mergeCell ref="BF23:BH23"/>
-    <mergeCell ref="BI23:BM23"/>
-    <mergeCell ref="BN23:BX23"/>
-    <mergeCell ref="AV22:AZ22"/>
-    <mergeCell ref="BA22:BE22"/>
-    <mergeCell ref="BF22:BH22"/>
-    <mergeCell ref="BI22:BM22"/>
-    <mergeCell ref="BN22:BX22"/>
-    <mergeCell ref="AV21:AZ21"/>
-    <mergeCell ref="BA21:BE21"/>
-    <mergeCell ref="BF21:BH21"/>
-    <mergeCell ref="BI21:BM21"/>
-    <mergeCell ref="BN21:BX21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="R23:V23"/>
-    <mergeCell ref="W23:AA23"/>
-    <mergeCell ref="AB23:AF23"/>
-    <mergeCell ref="AG23:AK23"/>
-    <mergeCell ref="AL23:AP23"/>
-    <mergeCell ref="AQ23:AU23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:L24"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="R24:V24"/>
-    <mergeCell ref="W24:AA24"/>
-    <mergeCell ref="AB24:AF24"/>
-    <mergeCell ref="AG24:AK24"/>
-    <mergeCell ref="AL24:AP24"/>
-    <mergeCell ref="AQ24:AU24"/>
-    <mergeCell ref="BA26:BE26"/>
-    <mergeCell ref="BF26:BH26"/>
-    <mergeCell ref="BI26:BM26"/>
-    <mergeCell ref="BN26:BX26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="R25:V25"/>
-    <mergeCell ref="W25:AA25"/>
-    <mergeCell ref="AB25:AF25"/>
-    <mergeCell ref="AG25:AK25"/>
-    <mergeCell ref="AL25:AP25"/>
-    <mergeCell ref="AQ25:AU25"/>
-    <mergeCell ref="AV24:AZ24"/>
-    <mergeCell ref="BA24:BE24"/>
-    <mergeCell ref="BF24:BH24"/>
-    <mergeCell ref="BI24:BM24"/>
-    <mergeCell ref="BN24:BX24"/>
-    <mergeCell ref="AV25:AZ25"/>
-    <mergeCell ref="BA25:BE25"/>
-    <mergeCell ref="BF25:BH25"/>
-    <mergeCell ref="BI25:BM25"/>
-    <mergeCell ref="BN25:BX25"/>
-    <mergeCell ref="AV27:AZ27"/>
-    <mergeCell ref="BA27:BE27"/>
-    <mergeCell ref="BF27:BH27"/>
-    <mergeCell ref="BI27:BM27"/>
-    <mergeCell ref="BN27:BX27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:L26"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="R26:V26"/>
-    <mergeCell ref="W26:AA26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:L27"/>
-    <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="R27:V27"/>
-    <mergeCell ref="W27:AA27"/>
-    <mergeCell ref="AB27:AF27"/>
-    <mergeCell ref="AG27:AK27"/>
-    <mergeCell ref="AL27:AP27"/>
-    <mergeCell ref="AQ27:AU27"/>
-    <mergeCell ref="AB26:AF26"/>
-    <mergeCell ref="AG26:AK26"/>
-    <mergeCell ref="AL26:AP26"/>
-    <mergeCell ref="AQ26:AU26"/>
-    <mergeCell ref="AV26:AZ26"/>
-    <mergeCell ref="B4:BX4"/>
-    <mergeCell ref="B16:BX16"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="AL14:AP14"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="BF14:BH14"/>
-    <mergeCell ref="BA14:BE14"/>
-    <mergeCell ref="AV14:AZ14"/>
-    <mergeCell ref="AQ14:AU14"/>
-    <mergeCell ref="AB14:AF14"/>
-    <mergeCell ref="W14:AA14"/>
-    <mergeCell ref="BN14:BX14"/>
-    <mergeCell ref="BI14:BM14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="R14:V14"/>
-    <mergeCell ref="BI5:BM5"/>
-    <mergeCell ref="BN5:BX5"/>
-    <mergeCell ref="BF6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN6:BX6"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="AQ13:AU13"/>
+    <mergeCell ref="AV13:AZ13"/>
+    <mergeCell ref="BA13:BE13"/>
+    <mergeCell ref="BF13:BH13"/>
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="AL13:AP13"/>
+    <mergeCell ref="AQ15:AU15"/>
+    <mergeCell ref="AV15:AZ15"/>
+    <mergeCell ref="BA15:BE15"/>
+    <mergeCell ref="BF15:BH15"/>
+    <mergeCell ref="BI15:BM15"/>
+    <mergeCell ref="BN15:BX15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="R15:V15"/>
+    <mergeCell ref="W15:AA15"/>
+    <mergeCell ref="AB15:AF15"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="AL15:AP15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="AQ10:AU10"/>
+    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="BF10:BH10"/>
+    <mergeCell ref="BI10:BM10"/>
+    <mergeCell ref="BN10:BX10"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="R11:V11"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="AB11:AF11"/>
+    <mergeCell ref="AQ12:AU12"/>
+    <mergeCell ref="AV12:AZ12"/>
+    <mergeCell ref="BA12:BE12"/>
+    <mergeCell ref="AG12:AK12"/>
+    <mergeCell ref="AL12:AP12"/>
+    <mergeCell ref="BN9:BX9"/>
+    <mergeCell ref="BF11:BH11"/>
+    <mergeCell ref="BI11:BM11"/>
+    <mergeCell ref="BN11:BX11"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AG11:AK11"/>
+    <mergeCell ref="AL11:AP11"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BM8"/>
+    <mergeCell ref="BN8:BX8"/>
+    <mergeCell ref="AQ7:AU7"/>
+    <mergeCell ref="AV7:AZ7"/>
+    <mergeCell ref="BA7:BE7"/>
+    <mergeCell ref="BF7:BH7"/>
+    <mergeCell ref="BI7:BM7"/>
+    <mergeCell ref="BN7:BX7"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BA9:BE9"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="AL9:AP9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="M5:BE15 BI5:BM15 M17:BE27 BI17:BM27 M34 V34 AE34">
@@ -8864,9 +9364,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{861714B4-41AF-4737-8F0C-BE2BB70B6A6B}">
           <x14:formula1>
-            <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
+            <xm:f>実施結果報告書!$M$1:$M$5</xm:f>
           </x14:formula1>
-          <xm:sqref>M34 BI5:BM27 M5:BE27 V34 BD34:BH34 AX34:BB34 AE34</xm:sqref>
+          <xm:sqref>M34 BI5:BM27 M5:BE27 V34 AE34</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
